--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-09.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2979"/>
+  <dimension ref="A1:H2955"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80769,10 +80769,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2491" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2491" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2492">
@@ -80799,10 +80797,8 @@
       </c>
       <c r="F2492" t="inlineStr"/>
       <c r="G2492" t="inlineStr"/>
-      <c r="H2492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2492" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2493">
@@ -80833,10 +80829,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2493" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2494">
@@ -80859,10 +80853,8 @@
       <c r="E2494" t="inlineStr"/>
       <c r="F2494" t="inlineStr"/>
       <c r="G2494" t="inlineStr"/>
-      <c r="H2494" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2494" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2495">
@@ -80897,10 +80889,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2495" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2495" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2496">
@@ -80931,10 +80921,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2496" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2496" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2497">
@@ -80969,10 +80957,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2497" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2498">
@@ -81007,10 +80993,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2498" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2499">
@@ -81045,10 +81029,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H2499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2499" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2500">
@@ -81079,10 +81061,8 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="H2500" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2500" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2501">
@@ -81117,10 +81097,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2501" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2501" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2502">
@@ -81155,10 +81133,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2502" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2502" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2503">
@@ -81189,10 +81165,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2503" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2504">
@@ -81227,10 +81201,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H2504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2504" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2505">
@@ -81265,10 +81237,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2505" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2506">
@@ -81303,10 +81273,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2506" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2506" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2507">
@@ -81341,10 +81309,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2507" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2507" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2508">
@@ -81379,10 +81345,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2508" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2508" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2509">
@@ -81417,10 +81381,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2509" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2509" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2510">
@@ -81451,10 +81413,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2511">
@@ -81485,10 +81445,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2512">
@@ -81523,10 +81481,8 @@
           <t>£ 1.0B</t>
         </is>
       </c>
-      <c r="H2512" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2512" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2513">
@@ -81561,10 +81517,8 @@
           <t>65.1K</t>
         </is>
       </c>
-      <c r="H2513" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2513" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2514">
@@ -81599,10 +81553,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H2514" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2514" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2515">
@@ -81637,10 +81589,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2516">
@@ -81675,10 +81625,8 @@
           <t>£3.5B</t>
         </is>
       </c>
-      <c r="H2516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2517">
@@ -81713,10 +81661,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2517" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2517" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2518">
@@ -81751,10 +81697,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H2518" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2518" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2519">
@@ -81785,10 +81729,8 @@
         </is>
       </c>
       <c r="G2519" t="inlineStr"/>
-      <c r="H2519" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2519" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2520">
@@ -81823,10 +81765,8 @@
           <t>93.5</t>
         </is>
       </c>
-      <c r="H2520" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2520" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2521">
@@ -81861,10 +81801,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2521" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2521" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2522">
@@ -81895,10 +81833,8 @@
           <t>22</t>
         </is>
       </c>
-      <c r="H2522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2523">
@@ -81933,10 +81869,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H2523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2524">
@@ -81967,10 +81901,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="H2524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2525">
@@ -82005,10 +81937,8 @@
           <t>6</t>
         </is>
       </c>
-      <c r="H2525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2526">
@@ -82043,10 +81973,8 @@
           <t>5.6%</t>
         </is>
       </c>
-      <c r="H2526" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2526" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2527">
@@ -82073,10 +82001,8 @@
       </c>
       <c r="F2527" t="inlineStr"/>
       <c r="G2527" t="inlineStr"/>
-      <c r="H2527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2527" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2528">
@@ -82103,10 +82029,8 @@
       </c>
       <c r="F2528" t="inlineStr"/>
       <c r="G2528" t="inlineStr"/>
-      <c r="H2528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2528" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2529">
@@ -82133,10 +82057,8 @@
       </c>
       <c r="F2529" t="inlineStr"/>
       <c r="G2529" t="inlineStr"/>
-      <c r="H2529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2529" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2530">
@@ -82171,10 +82093,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2530" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2531">
@@ -82205,10 +82125,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H2531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2531" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2532">
@@ -82239,10 +82157,8 @@
           <t>-5.1%</t>
         </is>
       </c>
-      <c r="H2532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2532" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2533">
@@ -82265,10 +82181,8 @@
       <c r="E2533" t="inlineStr"/>
       <c r="F2533" t="inlineStr"/>
       <c r="G2533" t="inlineStr"/>
-      <c r="H2533" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2533" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2534">
@@ -82295,10 +82209,8 @@
       </c>
       <c r="F2534" t="inlineStr"/>
       <c r="G2534" t="inlineStr"/>
-      <c r="H2534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2534" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2535">
@@ -82329,10 +82241,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H2535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2536">
@@ -82367,10 +82277,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2536" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2536" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2537">
@@ -82405,10 +82313,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2537" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2537" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2538">
@@ -82439,10 +82345,8 @@
           <t>-5</t>
         </is>
       </c>
-      <c r="H2538" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2538" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2539">
@@ -82477,10 +82381,8 @@
           <t>7.50%</t>
         </is>
       </c>
-      <c r="H2539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2540">
@@ -82511,10 +82413,8 @@
           <t>11.0%</t>
         </is>
       </c>
-      <c r="H2540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2541">
@@ -82549,10 +82449,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H2541" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2541" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2542">
@@ -82587,10 +82485,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2542" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2542" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2543">
@@ -82621,10 +82517,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H2543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2544">
@@ -82655,10 +82549,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H2544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2545">
@@ -82693,10 +82585,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2545" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2545" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2546">
@@ -82731,10 +82621,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2546" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2546" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2547">
@@ -82769,10 +82657,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="H2547" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2547" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2548">
@@ -82807,10 +82693,8 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="H2548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2549">
@@ -82845,10 +82729,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2549" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2550">
@@ -82879,10 +82761,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2550" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2551">
@@ -82913,10 +82793,8 @@
           <t>214.0K</t>
         </is>
       </c>
-      <c r="H2551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2552">
@@ -82947,10 +82825,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2553">
@@ -82981,10 +82857,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2554">
@@ -83007,10 +82881,8 @@
       <c r="E2554" t="inlineStr"/>
       <c r="F2554" t="inlineStr"/>
       <c r="G2554" t="inlineStr"/>
-      <c r="H2554" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2554" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2555">
@@ -83045,10 +82917,8 @@
           <t>-0.3%</t>
         </is>
       </c>
-      <c r="H2555" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2555" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2556">
@@ -83079,10 +82949,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2556" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2556" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2557">
@@ -83113,10 +82981,8 @@
         </is>
       </c>
       <c r="G2557" t="inlineStr"/>
-      <c r="H2557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2557" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2558">
@@ -83143,10 +83009,8 @@
       </c>
       <c r="F2558" t="inlineStr"/>
       <c r="G2558" t="inlineStr"/>
-      <c r="H2558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2558" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2559">
@@ -83173,10 +83037,8 @@
       </c>
       <c r="F2559" t="inlineStr"/>
       <c r="G2559" t="inlineStr"/>
-      <c r="H2559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2559" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2560">
@@ -83203,10 +83065,8 @@
       </c>
       <c r="F2560" t="inlineStr"/>
       <c r="G2560" t="inlineStr"/>
-      <c r="H2560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2560" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2561">
@@ -83233,10 +83093,8 @@
       </c>
       <c r="F2561" t="inlineStr"/>
       <c r="G2561" t="inlineStr"/>
-      <c r="H2561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2562">
@@ -83259,10 +83117,8 @@
       </c>
       <c r="F2562" t="inlineStr"/>
       <c r="G2562" t="inlineStr"/>
-      <c r="H2562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2563">
@@ -83289,10 +83145,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H2563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2564">
@@ -83319,10 +83173,8 @@
           <t>ZAR14.0B</t>
         </is>
       </c>
-      <c r="H2564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2564" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2565">
@@ -83349,10 +83201,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H2565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2565" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2566">
@@ -83379,10 +83229,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H2566" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2566" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2567">
@@ -83405,10 +83253,8 @@
       </c>
       <c r="F2567" t="inlineStr"/>
       <c r="G2567" t="inlineStr"/>
-      <c r="H2567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2567" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2568">
@@ -83431,10 +83277,8 @@
       </c>
       <c r="F2568" t="inlineStr"/>
       <c r="G2568" t="inlineStr"/>
-      <c r="H2568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2568" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2569">
@@ -83465,10 +83309,8 @@
           <t>-425.0K</t>
         </is>
       </c>
-      <c r="H2569" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2569" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2570">
@@ -83509,10 +83351,8 @@
       </c>
       <c r="F2571" t="inlineStr"/>
       <c r="G2571" t="inlineStr"/>
-      <c r="H2571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2571" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2572">
@@ -83547,10 +83387,8 @@
           <t>2.50%</t>
         </is>
       </c>
-      <c r="H2572" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2572" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2573">
@@ -83585,10 +83423,8 @@
           <t>1.25</t>
         </is>
       </c>
-      <c r="H2573" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2573" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2574">
@@ -83623,10 +83459,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2574" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2574" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2575">
@@ -83657,10 +83491,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2575" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2576">
@@ -83691,10 +83523,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H2576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2577">
@@ -83729,10 +83559,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2577" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2578">
@@ -83767,10 +83595,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H2578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2578" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2579">
@@ -83801,10 +83627,8 @@
           <t>-1.6%</t>
         </is>
       </c>
-      <c r="H2579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2579" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2580">
@@ -83835,10 +83659,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2580" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2581">
@@ -83869,10 +83691,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2581" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2581" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2582">
@@ -83907,10 +83727,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2583">
@@ -83941,10 +83759,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H2583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2584">
@@ -83979,10 +83795,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2584" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2585">
@@ -84013,10 +83827,8 @@
           <t>5.7%</t>
         </is>
       </c>
-      <c r="H2585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2585" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2586">
@@ -84047,10 +83859,8 @@
           <t>S$ 818.2B</t>
         </is>
       </c>
-      <c r="H2586" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2586" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2587">
@@ -84077,10 +83887,8 @@
       </c>
       <c r="F2587" t="inlineStr"/>
       <c r="G2587" t="inlineStr"/>
-      <c r="H2587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2587" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2588">
@@ -84107,10 +83915,8 @@
       </c>
       <c r="F2588" t="inlineStr"/>
       <c r="G2588" t="inlineStr"/>
-      <c r="H2588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2589">
@@ -84145,10 +83951,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H2589" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2589" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2590">
@@ -84179,10 +83983,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H2590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2591">
@@ -84213,10 +84015,8 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H2591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2592">
@@ -84251,10 +84051,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2592" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2592" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2593">
@@ -84289,10 +84087,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2593" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2593" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2594">
@@ -84323,10 +84119,8 @@
           <t>$-8.82B</t>
         </is>
       </c>
-      <c r="H2594" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2594" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2595">
@@ -84361,10 +84155,8 @@
           <t>$ 23.46B</t>
         </is>
       </c>
-      <c r="H2595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2595" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2596">
@@ -84395,10 +84187,8 @@
           <t>$32.29B</t>
         </is>
       </c>
-      <c r="H2596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2596" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2597">
@@ -84429,10 +84219,8 @@
           <t>$ 23.5B</t>
         </is>
       </c>
-      <c r="H2597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2597" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2598">
@@ -84467,10 +84255,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2598" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2598" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2599">
@@ -84505,10 +84291,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H2599" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2599" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2600">
@@ -84543,10 +84327,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2600" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2600" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2601">
@@ -84581,10 +84363,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2601" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2601" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2602">
@@ -84619,10 +84399,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2602" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2603">
@@ -84657,10 +84435,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H2603" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2603" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2604">
@@ -84691,10 +84467,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2604" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2605">
@@ -84725,10 +84499,8 @@
           <t>-4.3%</t>
         </is>
       </c>
-      <c r="H2605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2605" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2606">
@@ -84759,10 +84531,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2606" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2607">
@@ -84797,10 +84567,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2608">
@@ -84827,10 +84595,8 @@
       </c>
       <c r="F2608" t="inlineStr"/>
       <c r="G2608" t="inlineStr"/>
-      <c r="H2608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2609">
@@ -84865,10 +84631,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2609" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2609" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2610">
@@ -84899,10 +84663,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2610" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2610" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2611">
@@ -84937,10 +84699,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2611" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2611" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2612">
@@ -84963,10 +84723,8 @@
       <c r="E2612" t="inlineStr"/>
       <c r="F2612" t="inlineStr"/>
       <c r="G2612" t="inlineStr"/>
-      <c r="H2612" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2612" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2613">
@@ -84993,10 +84751,8 @@
       </c>
       <c r="F2613" t="inlineStr"/>
       <c r="G2613" t="inlineStr"/>
-      <c r="H2613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2614">
@@ -85023,10 +84779,8 @@
       </c>
       <c r="F2614" t="inlineStr"/>
       <c r="G2614" t="inlineStr"/>
-      <c r="H2614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2615">
@@ -85053,10 +84807,8 @@
       </c>
       <c r="F2615" t="inlineStr"/>
       <c r="G2615" t="inlineStr"/>
-      <c r="H2615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2616">
@@ -85083,10 +84835,8 @@
       </c>
       <c r="F2616" t="inlineStr"/>
       <c r="G2616" t="inlineStr"/>
-      <c r="H2616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2617">
@@ -85113,10 +84863,8 @@
       </c>
       <c r="F2617" t="inlineStr"/>
       <c r="G2617" t="inlineStr"/>
-      <c r="H2617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2618">
@@ -85143,10 +84891,8 @@
       </c>
       <c r="F2618" t="inlineStr"/>
       <c r="G2618" t="inlineStr"/>
-      <c r="H2618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2619">
@@ -85173,10 +84919,8 @@
       </c>
       <c r="F2619" t="inlineStr"/>
       <c r="G2619" t="inlineStr"/>
-      <c r="H2619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2620">
@@ -85203,10 +84947,8 @@
       </c>
       <c r="F2620" t="inlineStr"/>
       <c r="G2620" t="inlineStr"/>
-      <c r="H2620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2621">
@@ -85233,10 +84975,8 @@
       </c>
       <c r="F2621" t="inlineStr"/>
       <c r="G2621" t="inlineStr"/>
-      <c r="H2621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2621" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2622">
@@ -85263,10 +85003,8 @@
       </c>
       <c r="F2622" t="inlineStr"/>
       <c r="G2622" t="inlineStr"/>
-      <c r="H2622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2622" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2623">
@@ -85293,10 +85031,8 @@
       </c>
       <c r="F2623" t="inlineStr"/>
       <c r="G2623" t="inlineStr"/>
-      <c r="H2623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2623" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2624">
@@ -85323,10 +85059,8 @@
       </c>
       <c r="F2624" t="inlineStr"/>
       <c r="G2624" t="inlineStr"/>
-      <c r="H2624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2624" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2625">
@@ -85357,10 +85091,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2626">
@@ -85391,10 +85123,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2626" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2627">
@@ -85425,10 +85155,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2627" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2627" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2628">
@@ -85459,10 +85187,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2628" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2628" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2629">
@@ -85493,10 +85219,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2629" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2629" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2630">
@@ -85531,10 +85255,8 @@
           <t>BRL-75.0B</t>
         </is>
       </c>
-      <c r="H2630" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2630" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2631">
@@ -85561,10 +85283,8 @@
       </c>
       <c r="F2631" t="inlineStr"/>
       <c r="G2631" t="inlineStr"/>
-      <c r="H2631" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2631" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2632">
@@ -85591,10 +85311,8 @@
       </c>
       <c r="F2632" t="inlineStr"/>
       <c r="G2632" t="inlineStr"/>
-      <c r="H2632" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2632" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2633">
@@ -85621,10 +85339,8 @@
       </c>
       <c r="F2633" t="inlineStr"/>
       <c r="G2633" t="inlineStr"/>
-      <c r="H2633" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2633" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2634">
@@ -85655,10 +85371,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2634" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2634" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2635">
@@ -85693,10 +85407,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2635" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2635" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2636">
@@ -85727,10 +85439,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2636" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2636" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2637">
@@ -85765,10 +85475,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2637" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2637" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2638">
@@ -85803,10 +85511,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2638" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2638" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2639">
@@ -85841,10 +85547,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2639" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2640">
@@ -85879,10 +85583,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2641">
@@ -85917,10 +85619,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2641" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2641" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2642">
@@ -85951,10 +85651,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2642" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2642" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2643">
@@ -85989,10 +85687,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2643" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2643" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2644">
@@ -86027,10 +85723,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2644" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2644" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2645">
@@ -86065,10 +85759,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2645" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2645" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2646">
@@ -86099,10 +85791,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2646" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2646" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2647">
@@ -86133,10 +85823,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2647" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2647" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2648">
@@ -86171,10 +85859,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2648" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2648" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2649">
@@ -86197,10 +85883,8 @@
       <c r="E2649" t="inlineStr"/>
       <c r="F2649" t="inlineStr"/>
       <c r="G2649" t="inlineStr"/>
-      <c r="H2649" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2649" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2650">
@@ -86235,10 +85919,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2650" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2650" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2651">
@@ -86273,10 +85955,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2651" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2652">
@@ -86311,10 +85991,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2653">
@@ -86349,10 +86027,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2654">
@@ -86383,10 +86059,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2654" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2654" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2655">
@@ -86413,10 +86087,8 @@
       </c>
       <c r="F2655" t="inlineStr"/>
       <c r="G2655" t="inlineStr"/>
-      <c r="H2655" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2655" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2656">
@@ -86443,10 +86115,8 @@
       </c>
       <c r="F2656" t="inlineStr"/>
       <c r="G2656" t="inlineStr"/>
-      <c r="H2656" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2656" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2657">
@@ -86473,10 +86143,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H2657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2657" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2658">
@@ -86503,10 +86171,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2658" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2659">
@@ -86533,10 +86199,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2659" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2660">
@@ -86563,10 +86227,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2660" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2661">
@@ -86593,10 +86255,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2661" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2662">
@@ -86623,10 +86283,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2662" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2663">
@@ -86653,10 +86311,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2663" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2663" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2664">
@@ -86701,10 +86357,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2665" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2665" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2666">
@@ -86735,10 +86389,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2666" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2666" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2667">
@@ -86769,10 +86421,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2667" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2667" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2668">
@@ -86813,10 +86463,8 @@
       </c>
       <c r="F2669" t="inlineStr"/>
       <c r="G2669" t="inlineStr"/>
-      <c r="H2669" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2669" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2670">
@@ -86847,10 +86495,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2670" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2671">
@@ -86881,10 +86527,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2671" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2672">
@@ -86915,10 +86559,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2672" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2673">
@@ -86941,10 +86583,8 @@
       <c r="E2673" t="inlineStr"/>
       <c r="F2673" t="inlineStr"/>
       <c r="G2673" t="inlineStr"/>
-      <c r="H2673" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2673" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2674">
@@ -86975,10 +86615,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2674" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2674" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2675">
@@ -87009,10 +86647,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2675" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2675" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2676">
@@ -87039,10 +86675,8 @@
       </c>
       <c r="F2676" t="inlineStr"/>
       <c r="G2676" t="inlineStr"/>
-      <c r="H2676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2676" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2677">
@@ -87069,10 +86703,8 @@
       </c>
       <c r="F2677" t="inlineStr"/>
       <c r="G2677" t="inlineStr"/>
-      <c r="H2677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2677" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2678">
@@ -87103,10 +86735,8 @@
           <t>51.6</t>
         </is>
       </c>
-      <c r="H2678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2678" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2679">
@@ -87141,10 +86771,8 @@
           <t>48.8</t>
         </is>
       </c>
-      <c r="H2679" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2679" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2680">
@@ -87175,10 +86803,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2680" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2680" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2681">
@@ -87213,10 +86839,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H2681" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2681" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2682">
@@ -87247,10 +86871,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2682" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2682" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2683">
@@ -87281,10 +86903,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2683" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2684">
@@ -87315,10 +86935,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2684" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2685">
@@ -87349,10 +86967,8 @@
           <t>18.0%</t>
         </is>
       </c>
-      <c r="H2685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2685" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2686">
@@ -87387,10 +87003,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H2686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2686" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2687">
@@ -87417,10 +87031,8 @@
       </c>
       <c r="F2687" t="inlineStr"/>
       <c r="G2687" t="inlineStr"/>
-      <c r="H2687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2687" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2688">
@@ -87447,10 +87059,8 @@
       </c>
       <c r="F2688" t="inlineStr"/>
       <c r="G2688" t="inlineStr"/>
-      <c r="H2688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2688" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2689">
@@ -87477,10 +87087,8 @@
       </c>
       <c r="F2689" t="inlineStr"/>
       <c r="G2689" t="inlineStr"/>
-      <c r="H2689" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2689" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2690">
@@ -87511,10 +87119,8 @@
         </is>
       </c>
       <c r="G2690" t="inlineStr"/>
-      <c r="H2690" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2690" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2691">
@@ -87545,10 +87151,8 @@
         </is>
       </c>
       <c r="G2691" t="inlineStr"/>
-      <c r="H2691" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2691" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2692">
@@ -87575,10 +87179,8 @@
       </c>
       <c r="F2692" t="inlineStr"/>
       <c r="G2692" t="inlineStr"/>
-      <c r="H2692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2692" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2693">
@@ -87605,10 +87207,8 @@
       </c>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2693" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2694">
@@ -87635,10 +87235,8 @@
       </c>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
-      <c r="H2694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2694" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2695">
@@ -87665,10 +87263,8 @@
       </c>
       <c r="F2695" t="inlineStr"/>
       <c r="G2695" t="inlineStr"/>
-      <c r="H2695" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2695" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2696">
@@ -87695,10 +87291,8 @@
       </c>
       <c r="F2696" t="inlineStr"/>
       <c r="G2696" t="inlineStr"/>
-      <c r="H2696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2696" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2697">
@@ -87725,10 +87319,8 @@
       </c>
       <c r="F2697" t="inlineStr"/>
       <c r="G2697" t="inlineStr"/>
-      <c r="H2697" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2697" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2698">
@@ -87755,10 +87347,8 @@
       </c>
       <c r="F2698" t="inlineStr"/>
       <c r="G2698" t="inlineStr"/>
-      <c r="H2698" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2698" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2699">
@@ -87793,10 +87383,8 @@
           <t>45.3</t>
         </is>
       </c>
-      <c r="H2699" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2699" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2700">
@@ -87831,10 +87419,8 @@
           <t>44.1</t>
         </is>
       </c>
-      <c r="H2700" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2700" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2701">
@@ -87869,10 +87455,8 @@
           <t>46.1</t>
         </is>
       </c>
-      <c r="H2701" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2701" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2702">
@@ -87903,10 +87487,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2702" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2703">
@@ -87941,10 +87523,8 @@
           <t>48.2</t>
         </is>
       </c>
-      <c r="H2703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2703" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2704">
@@ -87971,10 +87551,8 @@
       </c>
       <c r="F2704" t="inlineStr"/>
       <c r="G2704" t="inlineStr"/>
-      <c r="H2704" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2704" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2705">
@@ -88001,10 +87579,8 @@
       </c>
       <c r="F2705" t="inlineStr"/>
       <c r="G2705" t="inlineStr"/>
-      <c r="H2705" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2705" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2706">
@@ -88031,10 +87607,8 @@
       </c>
       <c r="F2706" t="inlineStr"/>
       <c r="G2706" t="inlineStr"/>
-      <c r="H2706" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2706" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2707">
@@ -88061,10 +87635,8 @@
       </c>
       <c r="F2707" t="inlineStr"/>
       <c r="G2707" t="inlineStr"/>
-      <c r="H2707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2708">
@@ -88091,10 +87663,8 @@
       </c>
       <c r="F2708" t="inlineStr"/>
       <c r="G2708" t="inlineStr"/>
-      <c r="H2708" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2708" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2709">
@@ -88121,10 +87691,8 @@
       </c>
       <c r="F2709" t="inlineStr"/>
       <c r="G2709" t="inlineStr"/>
-      <c r="H2709" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2709" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2710">
@@ -88151,10 +87719,8 @@
       </c>
       <c r="F2710" t="inlineStr"/>
       <c r="G2710" t="inlineStr"/>
-      <c r="H2710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2711">
@@ -88181,10 +87747,8 @@
       </c>
       <c r="F2711" t="inlineStr"/>
       <c r="G2711" t="inlineStr"/>
-      <c r="H2711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2711" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2712">
@@ -88215,10 +87779,8 @@
           <t>$ 230B</t>
         </is>
       </c>
-      <c r="H2712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2712" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2713">
@@ -88249,10 +87811,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2714">
@@ -88283,10 +87843,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2714" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2715">
@@ -88313,10 +87871,8 @@
       </c>
       <c r="F2715" t="inlineStr"/>
       <c r="G2715" t="inlineStr"/>
-      <c r="H2715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2715" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2716">
@@ -88343,10 +87899,8 @@
       </c>
       <c r="F2716" t="inlineStr"/>
       <c r="G2716" t="inlineStr"/>
-      <c r="H2716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2717">
@@ -88373,10 +87927,8 @@
       </c>
       <c r="F2717" t="inlineStr"/>
       <c r="G2717" t="inlineStr"/>
-      <c r="H2717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2717" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2718">
@@ -88407,10 +87959,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2718" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2718" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2719">
@@ -88445,10 +87995,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2719" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2720">
@@ -88479,10 +88027,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2720" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2720" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2721">
@@ -88513,10 +88059,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2721" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2721" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2722">
@@ -88547,10 +88091,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2722" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2723">
@@ -88581,10 +88123,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2723" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2724">
@@ -88615,10 +88155,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H2724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2724" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2725">
@@ -88645,10 +88183,8 @@
       </c>
       <c r="F2725" t="inlineStr"/>
       <c r="G2725" t="inlineStr"/>
-      <c r="H2725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2726">
@@ -88675,10 +88211,8 @@
       </c>
       <c r="F2726" t="inlineStr"/>
       <c r="G2726" t="inlineStr"/>
-      <c r="H2726" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2726" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2727">
@@ -88701,10 +88235,8 @@
       <c r="E2727" t="inlineStr"/>
       <c r="F2727" t="inlineStr"/>
       <c r="G2727" t="inlineStr"/>
-      <c r="H2727" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2727" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2728">
@@ -88723,10 +88255,8 @@
       <c r="E2728" t="inlineStr"/>
       <c r="F2728" t="inlineStr"/>
       <c r="G2728" t="inlineStr"/>
-      <c r="H2728" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2728" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2729">
@@ -88753,10 +88283,8 @@
           <t>43.0K</t>
         </is>
       </c>
-      <c r="H2729" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2729" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2730">
@@ -88793,10 +88321,8 @@
       <c r="E2731" t="inlineStr"/>
       <c r="F2731" t="inlineStr"/>
       <c r="G2731" t="inlineStr"/>
-      <c r="H2731" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2731" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2732">
@@ -88823,10 +88349,8 @@
       </c>
       <c r="F2732" t="inlineStr"/>
       <c r="G2732" t="inlineStr"/>
-      <c r="H2732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2732" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2733">
@@ -88853,10 +88377,8 @@
       </c>
       <c r="F2733" t="inlineStr"/>
       <c r="G2733" t="inlineStr"/>
-      <c r="H2733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2733" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2734">
@@ -88887,10 +88409,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H2734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2734" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2735">
@@ -88917,10 +88437,8 @@
       </c>
       <c r="F2735" t="inlineStr"/>
       <c r="G2735" t="inlineStr"/>
-      <c r="H2735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2735" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2736">
@@ -88947,10 +88465,8 @@
       </c>
       <c r="F2736" t="inlineStr"/>
       <c r="G2736" t="inlineStr"/>
-      <c r="H2736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2736" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2737">
@@ -88977,10 +88493,8 @@
       </c>
       <c r="F2737" t="inlineStr"/>
       <c r="G2737" t="inlineStr"/>
-      <c r="H2737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2737" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2738">
@@ -89007,10 +88521,8 @@
       </c>
       <c r="F2738" t="inlineStr"/>
       <c r="G2738" t="inlineStr"/>
-      <c r="H2738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2738" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2739">
@@ -89041,10 +88553,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2739" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2740">
@@ -89071,10 +88581,8 @@
       </c>
       <c r="F2740" t="inlineStr"/>
       <c r="G2740" t="inlineStr"/>
-      <c r="H2740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2740" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2741">
@@ -89097,10 +88605,8 @@
       <c r="E2741" t="inlineStr"/>
       <c r="F2741" t="inlineStr"/>
       <c r="G2741" t="inlineStr"/>
-      <c r="H2741" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2741" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2742">
@@ -89131,10 +88637,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2742" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2743">
@@ -89165,10 +88669,8 @@
           <t>8.2%</t>
         </is>
       </c>
-      <c r="H2743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2743" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2744">
@@ -89199,10 +88701,8 @@
           <t>50.8</t>
         </is>
       </c>
-      <c r="H2744" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2744" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2745">
@@ -89229,10 +88729,8 @@
       </c>
       <c r="F2745" t="inlineStr"/>
       <c r="G2745" t="inlineStr"/>
-      <c r="H2745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2745" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2746">
@@ -89263,10 +88761,8 @@
           <t>49.7</t>
         </is>
       </c>
-      <c r="H2746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2746" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2747">
@@ -89297,10 +88793,8 @@
           <t>7.8M</t>
         </is>
       </c>
-      <c r="H2747" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2747" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2748">
@@ -89331,10 +88825,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2748" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2748" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2749">
@@ -89365,10 +88857,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2749" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2750">
@@ -89399,10 +88889,8 @@
           <t>3.1M</t>
         </is>
       </c>
-      <c r="H2750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2751">
@@ -89433,10 +88921,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2751" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2752">
@@ -89459,10 +88945,8 @@
       <c r="E2752" t="inlineStr"/>
       <c r="F2752" t="inlineStr"/>
       <c r="G2752" t="inlineStr"/>
-      <c r="H2752" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2752" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2753">
@@ -89481,10 +88965,8 @@
       <c r="E2753" t="inlineStr"/>
       <c r="F2753" t="inlineStr"/>
       <c r="G2753" t="inlineStr"/>
-      <c r="H2753" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2753" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2754">
@@ -89503,10 +88985,8 @@
       <c r="E2754" t="inlineStr"/>
       <c r="F2754" t="inlineStr"/>
       <c r="G2754" t="inlineStr"/>
-      <c r="H2754" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2754" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2755">
@@ -89525,10 +89005,8 @@
       <c r="E2755" t="inlineStr"/>
       <c r="F2755" t="inlineStr"/>
       <c r="G2755" t="inlineStr"/>
-      <c r="H2755" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2755" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2756">
@@ -89551,10 +89029,8 @@
       </c>
       <c r="F2756" t="inlineStr"/>
       <c r="G2756" t="inlineStr"/>
-      <c r="H2756" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2756" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2757">
@@ -89591,10 +89067,8 @@
       <c r="E2758" t="inlineStr"/>
       <c r="F2758" t="inlineStr"/>
       <c r="G2758" t="inlineStr"/>
-      <c r="H2758" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2758" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2759">
@@ -89621,10 +89095,8 @@
       </c>
       <c r="F2759" t="inlineStr"/>
       <c r="G2759" t="inlineStr"/>
-      <c r="H2759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2759" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2760">
@@ -89651,10 +89123,8 @@
       </c>
       <c r="F2760" t="inlineStr"/>
       <c r="G2760" t="inlineStr"/>
-      <c r="H2760" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2760" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2761">
@@ -89685,10 +89155,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H2761" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2761" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2762">
@@ -89719,10 +89187,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H2762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2763">
@@ -89749,10 +89215,8 @@
       </c>
       <c r="F2763" t="inlineStr"/>
       <c r="G2763" t="inlineStr"/>
-      <c r="H2763" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2763" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2764">
@@ -89779,10 +89243,8 @@
       </c>
       <c r="F2764" t="inlineStr"/>
       <c r="G2764" t="inlineStr"/>
-      <c r="H2764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2765">
@@ -89813,10 +89275,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H2765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2766">
@@ -89843,10 +89303,8 @@
       </c>
       <c r="F2766" t="inlineStr"/>
       <c r="G2766" t="inlineStr"/>
-      <c r="H2766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2767">
@@ -89881,10 +89339,8 @@
           <t>52.7</t>
         </is>
       </c>
-      <c r="H2767" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2767" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2768">
@@ -89915,10 +89371,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2769">
@@ -89945,10 +89399,8 @@
       </c>
       <c r="F2769" t="inlineStr"/>
       <c r="G2769" t="inlineStr"/>
-      <c r="H2769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2769" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2770">
@@ -89979,10 +89431,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H2770" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2770" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2771">
@@ -90013,10 +89463,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2771" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2772">
@@ -90047,10 +89495,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2772" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2772" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2773">
@@ -90081,10 +89527,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2773" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2774">
@@ -90115,10 +89559,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2774" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2774" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2775">
@@ -90153,10 +89595,8 @@
           <t>57.9</t>
         </is>
       </c>
-      <c r="H2775" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2775" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2776">
@@ -90191,10 +89631,8 @@
           <t>56.8</t>
         </is>
       </c>
-      <c r="H2776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2776" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2777">
@@ -90225,10 +89663,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2777" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2778">
@@ -90259,10 +89695,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2778" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2779">
@@ -90289,10 +89723,8 @@
       </c>
       <c r="F2779" t="inlineStr"/>
       <c r="G2779" t="inlineStr"/>
-      <c r="H2779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2780">
@@ -90319,10 +89751,8 @@
       </c>
       <c r="F2780" t="inlineStr"/>
       <c r="G2780" t="inlineStr"/>
-      <c r="H2780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2781">
@@ -90349,10 +89779,8 @@
       </c>
       <c r="F2781" t="inlineStr"/>
       <c r="G2781" t="inlineStr"/>
-      <c r="H2781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2781" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2782">
@@ -90383,10 +89811,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2782" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2782" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2783">
@@ -90413,10 +89839,8 @@
       </c>
       <c r="F2783" t="inlineStr"/>
       <c r="G2783" t="inlineStr"/>
-      <c r="H2783" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2783" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2784">
@@ -90443,10 +89867,8 @@
       </c>
       <c r="F2784" t="inlineStr"/>
       <c r="G2784" t="inlineStr"/>
-      <c r="H2784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2784" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2785">
@@ -90473,10 +89895,8 @@
       </c>
       <c r="F2785" t="inlineStr"/>
       <c r="G2785" t="inlineStr"/>
-      <c r="H2785" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2785" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2786">
@@ -90503,10 +89923,8 @@
       </c>
       <c r="F2786" t="inlineStr"/>
       <c r="G2786" t="inlineStr"/>
-      <c r="H2786" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2786" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2787">
@@ -90541,10 +89959,8 @@
           <t>48.9</t>
         </is>
       </c>
-      <c r="H2787" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2787" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2788">
@@ -90579,10 +89995,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H2788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2789">
@@ -90617,10 +90031,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2789" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2789" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2790">
@@ -90655,10 +90067,8 @@
           <t>52.5</t>
         </is>
       </c>
-      <c r="H2790" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2790" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2791">
@@ -90693,10 +90103,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2791" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2791" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2792">
@@ -90731,10 +90139,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2792" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2792" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2793">
@@ -90765,10 +90171,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2793" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2793" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2794">
@@ -90799,10 +90203,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2794" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2795">
@@ -90833,10 +90235,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2796">
@@ -90871,10 +90271,8 @@
           <t>51.2</t>
         </is>
       </c>
-      <c r="H2796" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2796" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2797">
@@ -90909,10 +90307,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2798">
@@ -90943,10 +90339,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2799">
@@ -90977,10 +90371,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H2799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2800">
@@ -91007,10 +90399,8 @@
       </c>
       <c r="F2800" t="inlineStr"/>
       <c r="G2800" t="inlineStr"/>
-      <c r="H2800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2800" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2801">
@@ -91037,10 +90427,8 @@
       </c>
       <c r="F2801" t="inlineStr"/>
       <c r="G2801" t="inlineStr"/>
-      <c r="H2801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2801" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2802">
@@ -91067,10 +90455,8 @@
       </c>
       <c r="F2802" t="inlineStr"/>
       <c r="G2802" t="inlineStr"/>
-      <c r="H2802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2802" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2803">
@@ -91097,10 +90483,8 @@
       </c>
       <c r="F2803" t="inlineStr"/>
       <c r="G2803" t="inlineStr"/>
-      <c r="H2803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2804">
@@ -91131,10 +90515,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2804" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2804" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2805">
@@ -91165,10 +90547,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2805" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2806">
@@ -91199,10 +90579,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2806" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2807">
@@ -91233,10 +90611,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H2807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2807" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2808">
@@ -91263,10 +90639,8 @@
       </c>
       <c r="F2808" t="inlineStr"/>
       <c r="G2808" t="inlineStr"/>
-      <c r="H2808" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2808" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2809">
@@ -91293,10 +90667,8 @@
       </c>
       <c r="F2809" t="inlineStr"/>
       <c r="G2809" t="inlineStr"/>
-      <c r="H2809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2809" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2810">
@@ -91323,10 +90695,8 @@
       </c>
       <c r="F2810" t="inlineStr"/>
       <c r="G2810" t="inlineStr"/>
-      <c r="H2810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2811">
@@ -91353,10 +90723,8 @@
       </c>
       <c r="F2811" t="inlineStr"/>
       <c r="G2811" t="inlineStr"/>
-      <c r="H2811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2812">
@@ -91383,10 +90751,8 @@
       </c>
       <c r="F2812" t="inlineStr"/>
       <c r="G2812" t="inlineStr"/>
-      <c r="H2812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2813">
@@ -91417,10 +90783,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2813" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2814">
@@ -91451,10 +90815,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2815">
@@ -91485,10 +90847,8 @@
           <t>115.0K</t>
         </is>
       </c>
-      <c r="H2815" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2815" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2816">
@@ -91519,10 +90879,8 @@
           <t>C$ -1.3B</t>
         </is>
       </c>
-      <c r="H2816" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2816" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2817">
@@ -91553,10 +90911,8 @@
           <t>C$ 65.8B</t>
         </is>
       </c>
-      <c r="H2817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2818">
@@ -91587,10 +90943,8 @@
           <t>C$ 64.5B</t>
         </is>
       </c>
-      <c r="H2818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2819">
@@ -91621,10 +90975,8 @@
           <t>$ -103.0B</t>
         </is>
       </c>
-      <c r="H2819" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2819" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2820">
@@ -91655,10 +91007,8 @@
           <t>$ 260B</t>
         </is>
       </c>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2820" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2821">
@@ -91689,10 +91039,8 @@
           <t>$ 363.0B</t>
         </is>
       </c>
-      <c r="H2821" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2821" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2822">
@@ -91715,10 +91063,8 @@
       <c r="E2822" t="inlineStr"/>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr"/>
-      <c r="H2822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2823">
@@ -91749,10 +91095,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2824">
@@ -91783,10 +91127,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2825">
@@ -91821,10 +91163,8 @@
           <t>52.4</t>
         </is>
       </c>
-      <c r="H2825" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2825" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2826">
@@ -91859,10 +91199,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2826" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2827">
@@ -91893,10 +91231,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2827" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2828">
@@ -91927,10 +91263,8 @@
           <t>58.1</t>
         </is>
       </c>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2829">
@@ -91961,10 +91295,8 @@
           <t>51.3</t>
         </is>
       </c>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2830">
@@ -91995,10 +91327,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2831">
@@ -92029,10 +91359,8 @@
           <t>64.8</t>
         </is>
       </c>
-      <c r="H2831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2832">
@@ -92059,10 +91387,8 @@
       </c>
       <c r="F2832" t="inlineStr"/>
       <c r="G2832" t="inlineStr"/>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2832" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2833">
@@ -92089,10 +91415,8 @@
       </c>
       <c r="F2833" t="inlineStr"/>
       <c r="G2833" t="inlineStr"/>
-      <c r="H2833" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2833" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2834">
@@ -92119,10 +91443,8 @@
       </c>
       <c r="F2834" t="inlineStr"/>
       <c r="G2834" t="inlineStr"/>
-      <c r="H2834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2835">
@@ -92149,10 +91471,8 @@
       </c>
       <c r="F2835" t="inlineStr"/>
       <c r="G2835" t="inlineStr"/>
-      <c r="H2835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2836">
@@ -92179,10 +91499,8 @@
       </c>
       <c r="F2836" t="inlineStr"/>
       <c r="G2836" t="inlineStr"/>
-      <c r="H2836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2837">
@@ -92209,10 +91527,8 @@
       </c>
       <c r="F2837" t="inlineStr"/>
       <c r="G2837" t="inlineStr"/>
-      <c r="H2837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2838">
@@ -92239,10 +91555,8 @@
       </c>
       <c r="F2838" t="inlineStr"/>
       <c r="G2838" t="inlineStr"/>
-      <c r="H2838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2839">
@@ -92269,10 +91583,8 @@
       </c>
       <c r="F2839" t="inlineStr"/>
       <c r="G2839" t="inlineStr"/>
-      <c r="H2839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2840">
@@ -92299,10 +91611,8 @@
       </c>
       <c r="F2840" t="inlineStr"/>
       <c r="G2840" t="inlineStr"/>
-      <c r="H2840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2841">
@@ -92333,10 +91643,8 @@
           <t>2.40%</t>
         </is>
       </c>
-      <c r="H2841" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2841" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2842">
@@ -92363,10 +91671,8 @@
       </c>
       <c r="F2842" t="inlineStr"/>
       <c r="G2842" t="inlineStr"/>
-      <c r="H2842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2843">
@@ -92393,10 +91699,8 @@
       </c>
       <c r="F2843" t="inlineStr"/>
       <c r="G2843" t="inlineStr"/>
-      <c r="H2843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2844">
@@ -92427,10 +91731,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2845">
@@ -92457,10 +91759,8 @@
       </c>
       <c r="F2845" t="inlineStr"/>
       <c r="G2845" t="inlineStr"/>
-      <c r="H2845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2845" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2846">
@@ -92491,10 +91791,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2847">
@@ -92521,10 +91819,8 @@
       </c>
       <c r="F2847" t="inlineStr"/>
       <c r="G2847" t="inlineStr"/>
-      <c r="H2847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2848">
@@ -92551,10 +91847,8 @@
       </c>
       <c r="F2848" t="inlineStr"/>
       <c r="G2848" t="inlineStr"/>
-      <c r="H2848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2849">
@@ -92577,10 +91871,8 @@
       <c r="E2849" t="inlineStr"/>
       <c r="F2849" t="inlineStr"/>
       <c r="G2849" t="inlineStr"/>
-      <c r="H2849" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2849" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2850">
@@ -92603,10 +91895,8 @@
       </c>
       <c r="F2850" t="inlineStr"/>
       <c r="G2850" t="inlineStr"/>
-      <c r="H2850" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2850" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2851">
@@ -92651,10 +91941,8 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="H2852" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2852" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2853">
@@ -92685,10 +91973,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H2853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2854">
@@ -92719,10 +92005,8 @@
           <t>-13</t>
         </is>
       </c>
-      <c r="H2854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2854" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2855">
@@ -92753,10 +92037,8 @@
           <t>$ 8.1B</t>
         </is>
       </c>
-      <c r="H2855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2856">
@@ -92783,10 +92065,8 @@
       </c>
       <c r="F2856" t="inlineStr"/>
       <c r="G2856" t="inlineStr"/>
-      <c r="H2856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2857">
@@ -92809,10 +92089,8 @@
       <c r="E2857" t="inlineStr"/>
       <c r="F2857" t="inlineStr"/>
       <c r="G2857" t="inlineStr"/>
-      <c r="H2857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2858">
@@ -92835,10 +92113,8 @@
       <c r="E2858" t="inlineStr"/>
       <c r="F2858" t="inlineStr"/>
       <c r="G2858" t="inlineStr"/>
-      <c r="H2858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2859">
@@ -92869,10 +92145,8 @@
           <t>A$ 3.2B</t>
         </is>
       </c>
-      <c r="H2859" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2859" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2860">
@@ -92899,10 +92173,8 @@
       </c>
       <c r="F2860" t="inlineStr"/>
       <c r="G2860" t="inlineStr"/>
-      <c r="H2860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2861">
@@ -92929,10 +92201,8 @@
       </c>
       <c r="F2861" t="inlineStr"/>
       <c r="G2861" t="inlineStr"/>
-      <c r="H2861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2862">
@@ -92959,10 +92229,8 @@
       </c>
       <c r="F2862" t="inlineStr"/>
       <c r="G2862" t="inlineStr"/>
-      <c r="H2862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2863">
@@ -92989,10 +92257,8 @@
       </c>
       <c r="F2863" t="inlineStr"/>
       <c r="G2863" t="inlineStr"/>
-      <c r="H2863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2864">
@@ -93023,10 +92289,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2864" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2864" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2865">
@@ -93053,10 +92317,8 @@
       </c>
       <c r="F2865" t="inlineStr"/>
       <c r="G2865" t="inlineStr"/>
-      <c r="H2865" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2865" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2866">
@@ -93083,10 +92345,8 @@
       </c>
       <c r="F2866" t="inlineStr"/>
       <c r="G2866" t="inlineStr"/>
-      <c r="H2866" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2866" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2867">
@@ -93113,10 +92373,8 @@
       </c>
       <c r="F2867" t="inlineStr"/>
       <c r="G2867" t="inlineStr"/>
-      <c r="H2867" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2867" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2868">
@@ -93143,10 +92401,8 @@
       </c>
       <c r="F2868" t="inlineStr"/>
       <c r="G2868" t="inlineStr"/>
-      <c r="H2868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2869">
@@ -93177,10 +92433,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H2869" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2869" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2870">
@@ -93211,10 +92465,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2870" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2870" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2871">
@@ -93245,10 +92497,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2871" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2871" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2872">
@@ -93271,10 +92521,8 @@
       <c r="E2872" t="inlineStr"/>
       <c r="F2872" t="inlineStr"/>
       <c r="G2872" t="inlineStr"/>
-      <c r="H2872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2873">
@@ -93297,10 +92545,8 @@
       <c r="E2873" t="inlineStr"/>
       <c r="F2873" t="inlineStr"/>
       <c r="G2873" t="inlineStr"/>
-      <c r="H2873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2874">
@@ -93331,10 +92577,8 @@
           <t>46.5</t>
         </is>
       </c>
-      <c r="H2874" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2874" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2875">
@@ -93369,10 +92613,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2875" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2875" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2876">
@@ -93395,10 +92637,8 @@
       <c r="E2876" t="inlineStr"/>
       <c r="F2876" t="inlineStr"/>
       <c r="G2876" t="inlineStr"/>
-      <c r="H2876" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2876" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2877">
@@ -93421,10 +92661,8 @@
       <c r="E2877" t="inlineStr"/>
       <c r="F2877" t="inlineStr"/>
       <c r="G2877" t="inlineStr"/>
-      <c r="H2877" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2877" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2878">
@@ -93447,10 +92685,8 @@
       <c r="E2878" t="inlineStr"/>
       <c r="F2878" t="inlineStr"/>
       <c r="G2878" t="inlineStr"/>
-      <c r="H2878" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2878" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2879">
@@ -93473,10 +92709,8 @@
       <c r="E2879" t="inlineStr"/>
       <c r="F2879" t="inlineStr"/>
       <c r="G2879" t="inlineStr"/>
-      <c r="H2879" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2879" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2880">
@@ -93499,10 +92733,8 @@
       <c r="E2880" t="inlineStr"/>
       <c r="F2880" t="inlineStr"/>
       <c r="G2880" t="inlineStr"/>
-      <c r="H2880" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2880" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2881">
@@ -93533,10 +92765,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="H2881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2881" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2882">
@@ -93559,10 +92789,8 @@
       <c r="E2882" t="inlineStr"/>
       <c r="F2882" t="inlineStr"/>
       <c r="G2882" t="inlineStr"/>
-      <c r="H2882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2882" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2883">
@@ -93593,10 +92821,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2883" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2883" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2884">
@@ -93627,10 +92853,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2884" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2884" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2885">
@@ -93653,10 +92877,8 @@
       <c r="E2885" t="inlineStr"/>
       <c r="F2885" t="inlineStr"/>
       <c r="G2885" t="inlineStr"/>
-      <c r="H2885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2886">
@@ -93679,10 +92901,8 @@
       <c r="E2886" t="inlineStr"/>
       <c r="F2886" t="inlineStr"/>
       <c r="G2886" t="inlineStr"/>
-      <c r="H2886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2887">
@@ -93713,10 +92933,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H2887" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2887" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2888">
@@ -93739,10 +92957,8 @@
       <c r="E2888" t="inlineStr"/>
       <c r="F2888" t="inlineStr"/>
       <c r="G2888" t="inlineStr"/>
-      <c r="H2888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2889">
@@ -93765,10 +92981,8 @@
       <c r="E2889" t="inlineStr"/>
       <c r="F2889" t="inlineStr"/>
       <c r="G2889" t="inlineStr"/>
-      <c r="H2889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2890">
@@ -93791,10 +93005,8 @@
       <c r="E2890" t="inlineStr"/>
       <c r="F2890" t="inlineStr"/>
       <c r="G2890" t="inlineStr"/>
-      <c r="H2890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2891">
@@ -93821,10 +93033,8 @@
       </c>
       <c r="F2891" t="inlineStr"/>
       <c r="G2891" t="inlineStr"/>
-      <c r="H2891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2892">
@@ -93847,10 +93057,8 @@
       <c r="E2892" t="inlineStr"/>
       <c r="F2892" t="inlineStr"/>
       <c r="G2892" t="inlineStr"/>
-      <c r="H2892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2893">
@@ -93873,10 +93081,8 @@
       <c r="E2893" t="inlineStr"/>
       <c r="F2893" t="inlineStr"/>
       <c r="G2893" t="inlineStr"/>
-      <c r="H2893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2894">
@@ -93899,10 +93105,8 @@
       </c>
       <c r="F2894" t="inlineStr"/>
       <c r="G2894" t="inlineStr"/>
-      <c r="H2894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2895">
@@ -93925,10 +93129,8 @@
       </c>
       <c r="F2895" t="inlineStr"/>
       <c r="G2895" t="inlineStr"/>
-      <c r="H2895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2896">
@@ -93947,10 +93149,8 @@
       <c r="E2896" t="inlineStr"/>
       <c r="F2896" t="inlineStr"/>
       <c r="G2896" t="inlineStr"/>
-      <c r="H2896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2897">
@@ -93969,10 +93169,8 @@
       <c r="E2897" t="inlineStr"/>
       <c r="F2897" t="inlineStr"/>
       <c r="G2897" t="inlineStr"/>
-      <c r="H2897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2897" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2898">
@@ -93991,10 +93189,8 @@
       <c r="E2898" t="inlineStr"/>
       <c r="F2898" t="inlineStr"/>
       <c r="G2898" t="inlineStr"/>
-      <c r="H2898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2898" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2899">
@@ -94017,104 +93213,134 @@
       </c>
       <c r="F2899" t="inlineStr"/>
       <c r="G2899" t="inlineStr"/>
-      <c r="H2899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2899" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2900">
       <c r="A2900" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2900" t="inlineStr"/>
-      <c r="C2900" t="inlineStr"/>
+          <t>01:15 PM</t>
+        </is>
+      </c>
+      <c r="B2900" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2900" t="inlineStr">
+        <is>
+          <t>ImportsDEC</t>
+        </is>
+      </c>
       <c r="D2900" t="inlineStr"/>
-      <c r="E2900" t="inlineStr"/>
+      <c r="E2900" t="inlineStr">
+        <is>
+          <t>€57.186B</t>
+        </is>
+      </c>
       <c r="F2900" t="inlineStr"/>
-      <c r="G2900" t="inlineStr"/>
-      <c r="H2900" t="inlineStr"/>
+      <c r="G2900" t="inlineStr">
+        <is>
+          <t>€ 56.9B</t>
+        </is>
+      </c>
+      <c r="H2900" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2901">
       <c r="A2901" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2901" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2901" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D2901" t="inlineStr"/>
       <c r="E2901" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2901" t="inlineStr"/>
       <c r="G2901" t="inlineStr">
         <is>
-          <t>9.75%</t>
+          <t>20200%</t>
         </is>
       </c>
       <c r="H2901" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2902">
       <c r="A2902" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2902" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2902" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2902" t="inlineStr"/>
-      <c r="E2902" t="inlineStr"/>
+      <c r="E2902" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2902" t="inlineStr"/>
-      <c r="G2902" t="inlineStr"/>
+      <c r="G2902" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
       <c r="H2902" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2903">
       <c r="A2903" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2903" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2903" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/05</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2903" t="inlineStr"/>
-      <c r="E2903" t="inlineStr"/>
+      <c r="E2903" t="inlineStr">
+        <is>
+          <t>S$506.7B</t>
+        </is>
+      </c>
       <c r="F2903" t="inlineStr"/>
       <c r="G2903" t="inlineStr"/>
       <c r="H2903" t="inlineStr">
@@ -94126,89 +93352,81 @@
     <row r="2904">
       <c r="A2904" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2904" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="C2904" t="inlineStr">
         <is>
-          <t>Household Spending MoMDEC</t>
+          <t>FAO Food Price IndexJAN</t>
         </is>
       </c>
       <c r="D2904" t="inlineStr"/>
       <c r="E2904" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="F2904" t="inlineStr"/>
       <c r="G2904" t="inlineStr"/>
       <c r="H2904" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2905">
       <c r="A2905" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2905" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2905" t="inlineStr">
         <is>
-          <t>Household Spending YoYDEC</t>
+          <t>BBA Mortgage RateJAN</t>
         </is>
       </c>
       <c r="D2905" t="inlineStr"/>
       <c r="E2905" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>7.50%</t>
         </is>
       </c>
       <c r="F2905" t="inlineStr"/>
-      <c r="G2905" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2905" t="inlineStr"/>
       <c r="H2905" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2906">
       <c r="A2906" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2906" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2906" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Foreign Exchange ReservesJAN/31</t>
         </is>
       </c>
       <c r="D2906" t="inlineStr"/>
-      <c r="E2906" t="inlineStr">
-        <is>
-          <t>$155.7B</t>
-        </is>
-      </c>
+      <c r="E2906" t="inlineStr"/>
       <c r="F2906" t="inlineStr"/>
       <c r="G2906" t="inlineStr"/>
       <c r="H2906" t="inlineStr">
@@ -94220,145 +93438,165 @@
     <row r="2907">
       <c r="A2907" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2907" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2907" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2907" t="inlineStr"/>
-      <c r="E2907" t="inlineStr"/>
+      <c r="E2907" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
+      </c>
       <c r="F2907" t="inlineStr"/>
-      <c r="G2907" t="inlineStr"/>
+      <c r="G2907" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2907" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2908">
       <c r="A2908" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2908" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2908" t="inlineStr">
         <is>
-          <t>RBI Interest Rate Decision</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2908" t="inlineStr"/>
       <c r="E2908" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>4.83%</t>
         </is>
       </c>
       <c r="F2908" t="inlineStr"/>
-      <c r="G2908" t="inlineStr"/>
+      <c r="G2908" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
       <c r="H2908" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2909">
       <c r="A2909" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2909" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2909" t="inlineStr">
         <is>
-          <t>Cash Reserve Ratio</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2909" t="inlineStr"/>
       <c r="E2909" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>0.38%</t>
         </is>
       </c>
       <c r="F2909" t="inlineStr"/>
-      <c r="G2909" t="inlineStr"/>
+      <c r="G2909" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2909" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2910">
       <c r="A2910" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2910" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2910" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2910" t="inlineStr"/>
       <c r="E2910" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>4.21%</t>
         </is>
       </c>
       <c r="F2910" t="inlineStr"/>
-      <c r="G2910" t="inlineStr"/>
+      <c r="G2910" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="H2910" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2911">
       <c r="A2911" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2911" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2911" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2911" t="inlineStr"/>
       <c r="E2911" t="inlineStr">
         <is>
-          <t>107.5</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="F2911" t="inlineStr"/>
       <c r="G2911" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2911" t="inlineStr">
@@ -94370,29 +93608,29 @@
     <row r="2912">
       <c r="A2912" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2912" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2912" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2912" t="inlineStr"/>
       <c r="E2912" t="inlineStr">
         <is>
-          <t>$65.46B</t>
+          <t>3.65%</t>
         </is>
       </c>
       <c r="F2912" t="inlineStr"/>
       <c r="G2912" t="inlineStr">
         <is>
-          <t>$65.0B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2912" t="inlineStr">
@@ -94404,163 +93642,167 @@
     <row r="2913">
       <c r="A2913" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2913" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2913" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2913" t="inlineStr"/>
       <c r="E2913" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2913" t="inlineStr"/>
       <c r="G2913" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2913" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2914">
       <c r="A2914" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2914" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2914" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2914" t="inlineStr"/>
       <c r="E2914" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2914" t="inlineStr"/>
       <c r="G2914" t="inlineStr">
         <is>
-          <t>130%</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2914" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2915">
       <c r="A2915" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2915" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2915" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2915" t="inlineStr"/>
       <c r="E2915" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F2915" t="inlineStr"/>
       <c r="G2915" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="H2915" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2916">
       <c r="A2916" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2916" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2916" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2916" t="inlineStr"/>
       <c r="E2916" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2916" t="inlineStr"/>
       <c r="G2916" t="inlineStr">
         <is>
-          <t>108%</t>
+          <t>5K</t>
         </is>
       </c>
       <c r="H2916" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2917">
       <c r="A2917" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2917" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2917" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2917" t="inlineStr"/>
       <c r="E2917" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2917" t="inlineStr"/>
-      <c r="G2917" t="inlineStr"/>
+      <c r="G2917" t="inlineStr">
+        <is>
+          <t>-3K</t>
+        </is>
+      </c>
       <c r="H2917" t="inlineStr">
         <is>
           <t>2</t>
@@ -94570,27 +93812,31 @@
     <row r="2918">
       <c r="A2918" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2918" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2918" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2918" t="inlineStr"/>
       <c r="E2918" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2918" t="inlineStr"/>
-      <c r="G2918" t="inlineStr"/>
+      <c r="G2918" t="inlineStr">
+        <is>
+          <t>8K</t>
+        </is>
+      </c>
       <c r="H2918" t="inlineStr">
         <is>
           <t>2</t>
@@ -94600,23 +93846,31 @@
     <row r="2919">
       <c r="A2919" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2919" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2919" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2919" t="inlineStr"/>
-      <c r="E2919" t="inlineStr"/>
+      <c r="E2919" t="inlineStr">
+        <is>
+          <t>65.1%</t>
+        </is>
+      </c>
       <c r="F2919" t="inlineStr"/>
-      <c r="G2919" t="inlineStr"/>
+      <c r="G2919" t="inlineStr">
+        <is>
+          <t>65.0%</t>
+        </is>
+      </c>
       <c r="H2919" t="inlineStr">
         <is>
           <t>2</t>
@@ -94626,229 +93880,233 @@
     <row r="2920">
       <c r="A2920" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2920" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2920" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2920" t="inlineStr"/>
       <c r="E2920" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F2920" t="inlineStr"/>
       <c r="G2920" t="inlineStr">
         <is>
-          <t>€ -7.2B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2920" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2921">
       <c r="A2921" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2921" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2921" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2921" t="inlineStr"/>
       <c r="E2921" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
+          <t>256K</t>
         </is>
       </c>
       <c r="F2921" t="inlineStr"/>
       <c r="G2921" t="inlineStr">
         <is>
-          <t>€ -2.5B</t>
+          <t>205K</t>
         </is>
       </c>
       <c r="H2921" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2922">
       <c r="A2922" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2922" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2922" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2922" t="inlineStr"/>
       <c r="E2922" t="inlineStr">
         <is>
-          <t>€50.101B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F2922" t="inlineStr"/>
       <c r="G2922" t="inlineStr">
         <is>
-          <t>€ 49.7B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="H2922" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2923">
       <c r="A2923" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2923" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2923" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2923" t="inlineStr"/>
       <c r="E2923" t="inlineStr">
         <is>
-          <t>€275.078B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2923" t="inlineStr"/>
-      <c r="G2923" t="inlineStr"/>
+      <c r="G2923" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2923" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2924">
       <c r="A2924" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2924" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2924" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="D2924" t="inlineStr"/>
       <c r="E2924" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2924" t="inlineStr"/>
       <c r="G2924" t="inlineStr">
         <is>
-          <t>€ 56.9B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H2924" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2925">
       <c r="A2925" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2925" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2925" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2925" t="inlineStr"/>
       <c r="E2925" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2925" t="inlineStr"/>
       <c r="G2925" t="inlineStr">
         <is>
-          <t>20200%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="H2925" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2926">
       <c r="A2926" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2926" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2926" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2926" t="inlineStr"/>
       <c r="E2926" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="F2926" t="inlineStr"/>
       <c r="G2926" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H2926" t="inlineStr">
@@ -94860,27 +94118,31 @@
     <row r="2927">
       <c r="A2927" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2927" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2927" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2927" t="inlineStr"/>
       <c r="E2927" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2927" t="inlineStr"/>
-      <c r="G2927" t="inlineStr"/>
+      <c r="G2927" t="inlineStr">
+        <is>
+          <t>25K</t>
+        </is>
+      </c>
       <c r="H2927" t="inlineStr">
         <is>
           <t>3</t>
@@ -94890,27 +94152,31 @@
     <row r="2928">
       <c r="A2928" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2928" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2928" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2928" t="inlineStr"/>
       <c r="E2928" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>-13K</t>
         </is>
       </c>
       <c r="F2928" t="inlineStr"/>
-      <c r="G2928" t="inlineStr"/>
+      <c r="G2928" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H2928" t="inlineStr">
         <is>
           <t>3</t>
@@ -94920,27 +94186,31 @@
     <row r="2929">
       <c r="A2929" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2929" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2929" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2929" t="inlineStr"/>
       <c r="E2929" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="F2929" t="inlineStr"/>
-      <c r="G2929" t="inlineStr"/>
+      <c r="G2929" t="inlineStr">
+        <is>
+          <t>180K</t>
+        </is>
+      </c>
       <c r="H2929" t="inlineStr">
         <is>
           <t>3</t>
@@ -94950,23 +94220,31 @@
     <row r="2930">
       <c r="A2930" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2930" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2930" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="D2930" t="inlineStr"/>
-      <c r="E2930" t="inlineStr"/>
+      <c r="E2930" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="F2930" t="inlineStr"/>
-      <c r="G2930" t="inlineStr"/>
+      <c r="G2930" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="H2930" t="inlineStr">
         <is>
           <t>3</t>
@@ -94976,165 +94254,149 @@
     <row r="2931">
       <c r="A2931" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B2931" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2931" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2931" t="inlineStr"/>
-      <c r="E2931" t="inlineStr">
-        <is>
-          <t>0.52%</t>
-        </is>
-      </c>
+      <c r="E2931" t="inlineStr"/>
       <c r="F2931" t="inlineStr"/>
-      <c r="G2931" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2931" t="inlineStr"/>
       <c r="H2931" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2932">
       <c r="A2932" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2932" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2932" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2932" t="inlineStr"/>
       <c r="E2932" t="inlineStr">
         <is>
-          <t>4.83%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2932" t="inlineStr"/>
-      <c r="G2932" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="G2932" t="inlineStr"/>
       <c r="H2932" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2933">
       <c r="A2933" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2933" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2933" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2933" t="inlineStr"/>
-      <c r="E2933" t="inlineStr">
-        <is>
-          <t>0.38%</t>
-        </is>
-      </c>
+      <c r="E2933" t="inlineStr"/>
       <c r="F2933" t="inlineStr"/>
       <c r="G2933" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2933" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2934">
       <c r="A2934" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2934" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2934" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2934" t="inlineStr"/>
       <c r="E2934" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F2934" t="inlineStr"/>
       <c r="G2934" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H2934" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2935">
       <c r="A2935" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2935" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2935" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2935" t="inlineStr"/>
       <c r="E2935" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2935" t="inlineStr"/>
       <c r="G2935" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2935" t="inlineStr">
@@ -95146,29 +94408,29 @@
     <row r="2936">
       <c r="A2936" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2936" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2936" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2936" t="inlineStr"/>
       <c r="E2936" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="F2936" t="inlineStr"/>
       <c r="G2936" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="H2936" t="inlineStr">
@@ -95180,29 +94442,29 @@
     <row r="2937">
       <c r="A2937" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2937" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2937" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2937" t="inlineStr"/>
       <c r="E2937" t="inlineStr">
         <is>
-          <t>-19.5%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F2937" t="inlineStr"/>
       <c r="G2937" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="H2937" t="inlineStr">
@@ -95214,29 +94476,29 @@
     <row r="2938">
       <c r="A2938" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2938" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2938" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2938" t="inlineStr"/>
       <c r="E2938" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2938" t="inlineStr"/>
       <c r="G2938" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2938" t="inlineStr">
@@ -95248,63 +94510,67 @@
     <row r="2939">
       <c r="A2939" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2939" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2939" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2939" t="inlineStr"/>
       <c r="E2939" t="inlineStr">
         <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="F2939" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2939" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="G2939" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H2939" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2940">
       <c r="A2940" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2940" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2940" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2940" t="inlineStr"/>
       <c r="E2940" t="inlineStr">
         <is>
-          <t>90.9K</t>
+          <t>$4.8B</t>
         </is>
       </c>
       <c r="F2940" t="inlineStr"/>
       <c r="G2940" t="inlineStr">
         <is>
-          <t>5K</t>
+          <t>$4.1B</t>
         </is>
       </c>
       <c r="H2940" t="inlineStr">
@@ -95316,131 +94582,99 @@
     <row r="2941">
       <c r="A2941" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2941" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2941" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2941" t="inlineStr"/>
-      <c r="E2941" t="inlineStr">
-        <is>
-          <t>57.5K</t>
-        </is>
-      </c>
+      <c r="E2941" t="inlineStr"/>
       <c r="F2941" t="inlineStr"/>
-      <c r="G2941" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="G2941" t="inlineStr"/>
       <c r="H2941" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2942">
       <c r="A2942" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2942" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2942" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2942" t="inlineStr"/>
-      <c r="E2942" t="inlineStr">
-        <is>
-          <t>33.5K</t>
-        </is>
-      </c>
+      <c r="E2942" t="inlineStr"/>
       <c r="F2942" t="inlineStr"/>
-      <c r="G2942" t="inlineStr">
-        <is>
-          <t>8K</t>
-        </is>
-      </c>
+      <c r="G2942" t="inlineStr"/>
       <c r="H2942" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2943">
-      <c r="A2943" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2943" t="inlineStr"/>
       <c r="B2943" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2943" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2943" t="inlineStr"/>
-      <c r="E2943" t="inlineStr">
-        <is>
-          <t>65.1%</t>
-        </is>
-      </c>
+      <c r="E2943" t="inlineStr"/>
       <c r="F2943" t="inlineStr"/>
-      <c r="G2943" t="inlineStr">
-        <is>
-          <t>65.0%</t>
-        </is>
-      </c>
+      <c r="G2943" t="inlineStr"/>
       <c r="H2943" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2944">
-      <c r="A2944" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2944" t="inlineStr"/>
       <c r="B2944" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2944" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2944" t="inlineStr"/>
       <c r="E2944" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2944" t="inlineStr"/>
       <c r="G2944" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.3T</t>
         </is>
       </c>
       <c r="H2944" t="inlineStr">
@@ -95450,79 +94684,59 @@
       </c>
     </row>
     <row r="2945">
-      <c r="A2945" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2945" t="inlineStr"/>
       <c r="B2945" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2945" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2945" t="inlineStr"/>
-      <c r="E2945" t="inlineStr">
-        <is>
-          <t>256K</t>
-        </is>
-      </c>
+      <c r="E2945" t="inlineStr"/>
       <c r="F2945" t="inlineStr"/>
-      <c r="G2945" t="inlineStr">
-        <is>
-          <t>205K</t>
-        </is>
-      </c>
+      <c r="G2945" t="inlineStr"/>
       <c r="H2945" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2946">
-      <c r="A2946" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2946" t="inlineStr"/>
       <c r="B2946" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2946" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2946" t="inlineStr"/>
       <c r="E2946" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>118.1</t>
         </is>
       </c>
       <c r="F2946" t="inlineStr"/>
       <c r="G2946" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H2946" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2947">
-      <c r="A2947" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2947" t="inlineStr"/>
       <c r="B2947" t="inlineStr">
         <is>
           <t>US</t>
@@ -95530,33 +94744,25 @@
       </c>
       <c r="C2947" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2947" t="inlineStr"/>
       <c r="E2947" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2947" t="inlineStr"/>
-      <c r="G2947" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2947" t="inlineStr"/>
       <c r="H2947" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2948">
-      <c r="A2948" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2948" t="inlineStr"/>
       <c r="B2948" t="inlineStr">
         <is>
           <t>US</t>
@@ -95564,87 +94770,63 @@
       </c>
       <c r="C2948" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2948" t="inlineStr"/>
       <c r="E2948" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2948" t="inlineStr"/>
-      <c r="G2948" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="G2948" t="inlineStr"/>
       <c r="H2948" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2949">
       <c r="A2949" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2949" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2949" t="inlineStr">
-        <is>
-          <t>Participation RateJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2949" t="inlineStr"/>
+      <c r="C2949" t="inlineStr"/>
       <c r="D2949" t="inlineStr"/>
-      <c r="E2949" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="E2949" t="inlineStr"/>
       <c r="F2949" t="inlineStr"/>
-      <c r="G2949" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="H2949" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2949" t="inlineStr"/>
+      <c r="H2949" t="inlineStr"/>
     </row>
     <row r="2950">
       <c r="A2950" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2950" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2950" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2950" t="inlineStr"/>
       <c r="E2950" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2950" t="inlineStr"/>
       <c r="G2950" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2950" t="inlineStr">
@@ -95656,7 +94838,7 @@
     <row r="2951">
       <c r="A2951" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2951" t="inlineStr">
@@ -95666,19 +94848,19 @@
       </c>
       <c r="C2951" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2951" t="inlineStr"/>
       <c r="E2951" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>$-7.49B</t>
         </is>
       </c>
       <c r="F2951" t="inlineStr"/>
       <c r="G2951" t="inlineStr">
         <is>
-          <t>25K</t>
+          <t>$ 18B</t>
         </is>
       </c>
       <c r="H2951" t="inlineStr">
@@ -95690,834 +94872,114 @@
     <row r="2952">
       <c r="A2952" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2952" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2952" t="inlineStr">
-        <is>
-          <t>Manufacturing PayrollsJAN</t>
-        </is>
-      </c>
+          <t>Sunday February 09 2025</t>
+        </is>
+      </c>
+      <c r="B2952" t="inlineStr"/>
+      <c r="C2952" t="inlineStr"/>
       <c r="D2952" t="inlineStr"/>
-      <c r="E2952" t="inlineStr">
-        <is>
-          <t>-13K</t>
-        </is>
-      </c>
+      <c r="E2952" t="inlineStr"/>
       <c r="F2952" t="inlineStr"/>
-      <c r="G2952" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H2952" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2952" t="inlineStr"/>
+      <c r="H2952" t="inlineStr"/>
     </row>
     <row r="2953">
       <c r="A2953" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2953" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2953" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2953" t="inlineStr"/>
       <c r="E2953" t="inlineStr">
         <is>
-          <t>223K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2953" t="inlineStr"/>
       <c r="G2953" t="inlineStr">
         <is>
-          <t>180K</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2953" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2954">
       <c r="A2954" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2954" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2954" t="inlineStr">
         <is>
-          <t>U-6 Unemployment Rate</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2954" t="inlineStr"/>
       <c r="E2954" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F2954" t="inlineStr"/>
       <c r="G2954" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2954" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2955">
       <c r="A2955" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2955" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2955" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2955" t="inlineStr"/>
-      <c r="E2955" t="inlineStr"/>
+      <c r="E2955" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="F2955" t="inlineStr"/>
-      <c r="G2955" t="inlineStr"/>
+      <c r="G2955" t="inlineStr">
+        <is>
+          <t>-2.4%</t>
+        </is>
+      </c>
       <c r="H2955" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2956">
-      <c r="A2956" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2956" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2956" t="inlineStr">
-        <is>
-          <t>Treasury Cash BalanceJAN</t>
-        </is>
-      </c>
-      <c r="D2956" t="inlineStr"/>
-      <c r="E2956" t="inlineStr">
-        <is>
-          <t>TRY-323.9B</t>
-        </is>
-      </c>
-      <c r="F2956" t="inlineStr"/>
-      <c r="G2956" t="inlineStr"/>
-      <c r="H2956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2957">
-      <c r="A2957" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2957" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2957" t="inlineStr">
-        <is>
-          <t>Full Year GDP Growth2025</t>
-        </is>
-      </c>
-      <c r="D2957" t="inlineStr"/>
-      <c r="E2957" t="inlineStr"/>
-      <c r="F2957" t="inlineStr"/>
-      <c r="G2957" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="H2957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2958">
-      <c r="A2958" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2958" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2958" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2958" t="inlineStr"/>
-      <c r="E2958" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="F2958" t="inlineStr"/>
-      <c r="G2958" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="H2958" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2959">
-      <c r="A2959" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2959" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2959" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2959" t="inlineStr"/>
-      <c r="E2959" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2959" t="inlineStr"/>
-      <c r="G2959" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H2959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2960">
-      <c r="A2960" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2960" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2960" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2960" t="inlineStr"/>
-      <c r="E2960" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="F2960" t="inlineStr"/>
-      <c r="G2960" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
-      </c>
-      <c r="H2960" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2961">
-      <c r="A2961" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2961" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2961" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2961" t="inlineStr"/>
-      <c r="E2961" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="F2961" t="inlineStr"/>
-      <c r="G2961" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
-      <c r="H2961" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2962">
-      <c r="A2962" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2962" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2962" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2962" t="inlineStr"/>
-      <c r="E2962" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2962" t="inlineStr"/>
-      <c r="G2962" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H2962" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2963">
-      <c r="A2963" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2963" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2963" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2963" t="inlineStr"/>
-      <c r="E2963" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2963" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="G2963" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H2963" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2964">
-      <c r="A2964" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2964" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2964" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2964" t="inlineStr"/>
-      <c r="E2964" t="inlineStr">
-        <is>
-          <t>$4.8B</t>
-        </is>
-      </c>
-      <c r="F2964" t="inlineStr"/>
-      <c r="G2964" t="inlineStr">
-        <is>
-          <t>$4.1B</t>
-        </is>
-      </c>
-      <c r="H2964" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2965">
-      <c r="A2965" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2965" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2965" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2965" t="inlineStr"/>
-      <c r="E2965" t="inlineStr"/>
-      <c r="F2965" t="inlineStr"/>
-      <c r="G2965" t="inlineStr"/>
-      <c r="H2965" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2966">
-      <c r="A2966" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2966" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2966" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2966" t="inlineStr"/>
-      <c r="E2966" t="inlineStr"/>
-      <c r="F2966" t="inlineStr"/>
-      <c r="G2966" t="inlineStr"/>
-      <c r="H2966" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2967">
-      <c r="A2967" t="inlineStr"/>
-      <c r="B2967" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2967" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2967" t="inlineStr"/>
-      <c r="E2967" t="inlineStr"/>
-      <c r="F2967" t="inlineStr"/>
-      <c r="G2967" t="inlineStr"/>
-      <c r="H2967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2968">
-      <c r="A2968" t="inlineStr"/>
-      <c r="B2968" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2968" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2968" t="inlineStr"/>
-      <c r="E2968" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2968" t="inlineStr"/>
-      <c r="G2968" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
-      <c r="H2968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2969">
-      <c r="A2969" t="inlineStr"/>
-      <c r="B2969" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2969" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2969" t="inlineStr"/>
-      <c r="E2969" t="inlineStr"/>
-      <c r="F2969" t="inlineStr"/>
-      <c r="G2969" t="inlineStr"/>
-      <c r="H2969" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2970">
-      <c r="A2970" t="inlineStr"/>
-      <c r="B2970" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2970" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D2970" t="inlineStr"/>
-      <c r="E2970" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
-      <c r="F2970" t="inlineStr"/>
-      <c r="G2970" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="H2970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2971">
-      <c r="A2971" t="inlineStr"/>
-      <c r="B2971" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2971" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2971" t="inlineStr"/>
-      <c r="E2971" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F2971" t="inlineStr"/>
-      <c r="G2971" t="inlineStr"/>
-      <c r="H2971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2972">
-      <c r="A2972" t="inlineStr"/>
-      <c r="B2972" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2972" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2972" t="inlineStr"/>
-      <c r="E2972" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2972" t="inlineStr"/>
-      <c r="G2972" t="inlineStr"/>
-      <c r="H2972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2973">
-      <c r="A2973" t="inlineStr">
-        <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2973" t="inlineStr"/>
-      <c r="C2973" t="inlineStr"/>
-      <c r="D2973" t="inlineStr"/>
-      <c r="E2973" t="inlineStr"/>
-      <c r="F2973" t="inlineStr"/>
-      <c r="G2973" t="inlineStr"/>
-      <c r="H2973" t="inlineStr"/>
-    </row>
-    <row r="2974">
-      <c r="A2974" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B2974" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2974" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2974" t="inlineStr"/>
-      <c r="E2974" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2974" t="inlineStr"/>
-      <c r="G2974" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2975">
-      <c r="A2975" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2975" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2975" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D2975" t="inlineStr"/>
-      <c r="E2975" t="inlineStr">
-        <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="F2975" t="inlineStr"/>
-      <c r="G2975" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
-      <c r="H2975" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2976">
-      <c r="A2976" t="inlineStr">
-        <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B2976" t="inlineStr"/>
-      <c r="C2976" t="inlineStr"/>
-      <c r="D2976" t="inlineStr"/>
-      <c r="E2976" t="inlineStr"/>
-      <c r="F2976" t="inlineStr"/>
-      <c r="G2976" t="inlineStr"/>
-      <c r="H2976" t="inlineStr"/>
-    </row>
-    <row r="2977">
-      <c r="A2977" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2977" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2977" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2977" t="inlineStr"/>
-      <c r="E2977" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2977" t="inlineStr"/>
-      <c r="G2977" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H2977" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2978">
-      <c r="A2978" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2978" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2978" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2978" t="inlineStr"/>
-      <c r="E2978" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F2978" t="inlineStr"/>
-      <c r="G2978" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2978" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2979">
-      <c r="A2979" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2979" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2979" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2979" t="inlineStr"/>
-      <c r="E2979" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="F2979" t="inlineStr"/>
-      <c r="G2979" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="H2979" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-09.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2964"/>
+  <dimension ref="A1:H2940"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83341,10 +83341,8 @@
           <t>S$ 818.2B</t>
         </is>
       </c>
-      <c r="H2570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2570" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2571">
@@ -83371,10 +83369,8 @@
       </c>
       <c r="F2571" t="inlineStr"/>
       <c r="G2571" t="inlineStr"/>
-      <c r="H2571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2571" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2572">
@@ -83401,10 +83397,8 @@
       </c>
       <c r="F2572" t="inlineStr"/>
       <c r="G2572" t="inlineStr"/>
-      <c r="H2572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2572" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2573">
@@ -83439,10 +83433,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H2573" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2573" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2574">
@@ -83473,10 +83465,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H2574" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2574" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2575">
@@ -83507,10 +83497,8 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H2575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2575" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2576">
@@ -83545,10 +83533,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2576" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2576" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2577">
@@ -83583,10 +83569,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2577" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2578">
@@ -83617,10 +83601,8 @@
           <t>$-8.82B</t>
         </is>
       </c>
-      <c r="H2578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2578" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2579">
@@ -83655,10 +83637,8 @@
           <t>$ 23.46B</t>
         </is>
       </c>
-      <c r="H2579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2579" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2580">
@@ -83689,10 +83669,8 @@
           <t>$32.29B</t>
         </is>
       </c>
-      <c r="H2580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2580" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2581">
@@ -83723,10 +83701,8 @@
           <t>$ 23.5B</t>
         </is>
       </c>
-      <c r="H2581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2582">
@@ -83761,10 +83737,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2582" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2582" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2583">
@@ -83799,10 +83773,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H2583" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2583" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2584">
@@ -83837,10 +83809,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2584" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2584" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2585">
@@ -83875,10 +83845,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2585" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2585" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2586">
@@ -83913,10 +83881,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2586" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2586" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2587">
@@ -83951,10 +83917,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H2587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2587" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2588">
@@ -83985,10 +83949,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2589">
@@ -84019,10 +83981,8 @@
           <t>-4.3%</t>
         </is>
       </c>
-      <c r="H2589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2590">
@@ -84053,10 +84013,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2591">
@@ -84091,10 +84049,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2592">
@@ -84121,10 +84077,8 @@
       </c>
       <c r="F2592" t="inlineStr"/>
       <c r="G2592" t="inlineStr"/>
-      <c r="H2592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2593">
@@ -84159,10 +84113,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2593" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2593" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2594">
@@ -84193,10 +84145,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2594" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2594" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2595">
@@ -84231,10 +84181,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2595" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2595" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2596">
@@ -84257,10 +84205,8 @@
       <c r="E2596" t="inlineStr"/>
       <c r="F2596" t="inlineStr"/>
       <c r="G2596" t="inlineStr"/>
-      <c r="H2596" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2596" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2597">
@@ -84287,10 +84233,8 @@
       </c>
       <c r="F2597" t="inlineStr"/>
       <c r="G2597" t="inlineStr"/>
-      <c r="H2597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2597" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2598">
@@ -84317,10 +84261,8 @@
       </c>
       <c r="F2598" t="inlineStr"/>
       <c r="G2598" t="inlineStr"/>
-      <c r="H2598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2598" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2599">
@@ -84347,10 +84289,8 @@
       </c>
       <c r="F2599" t="inlineStr"/>
       <c r="G2599" t="inlineStr"/>
-      <c r="H2599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2600">
@@ -84377,10 +84317,8 @@
       </c>
       <c r="F2600" t="inlineStr"/>
       <c r="G2600" t="inlineStr"/>
-      <c r="H2600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2601">
@@ -84407,10 +84345,8 @@
       </c>
       <c r="F2601" t="inlineStr"/>
       <c r="G2601" t="inlineStr"/>
-      <c r="H2601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2602">
@@ -84437,10 +84373,8 @@
       </c>
       <c r="F2602" t="inlineStr"/>
       <c r="G2602" t="inlineStr"/>
-      <c r="H2602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2602" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2603">
@@ -84467,10 +84401,8 @@
       </c>
       <c r="F2603" t="inlineStr"/>
       <c r="G2603" t="inlineStr"/>
-      <c r="H2603" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2603" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2604">
@@ -84497,10 +84429,8 @@
       </c>
       <c r="F2604" t="inlineStr"/>
       <c r="G2604" t="inlineStr"/>
-      <c r="H2604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2604" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2605">
@@ -84527,10 +84457,8 @@
       </c>
       <c r="F2605" t="inlineStr"/>
       <c r="G2605" t="inlineStr"/>
-      <c r="H2605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2605" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2606">
@@ -84557,10 +84485,8 @@
       </c>
       <c r="F2606" t="inlineStr"/>
       <c r="G2606" t="inlineStr"/>
-      <c r="H2606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2606" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2607">
@@ -84587,10 +84513,8 @@
       </c>
       <c r="F2607" t="inlineStr"/>
       <c r="G2607" t="inlineStr"/>
-      <c r="H2607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2608">
@@ -84617,10 +84541,8 @@
       </c>
       <c r="F2608" t="inlineStr"/>
       <c r="G2608" t="inlineStr"/>
-      <c r="H2608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2609">
@@ -84651,10 +84573,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2610">
@@ -84685,10 +84605,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2610" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2611">
@@ -84719,10 +84637,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2612">
@@ -84753,10 +84669,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2613">
@@ -84787,10 +84701,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2614">
@@ -84825,10 +84737,8 @@
           <t>BRL-75.0B</t>
         </is>
       </c>
-      <c r="H2614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2615">
@@ -84855,10 +84765,8 @@
       </c>
       <c r="F2615" t="inlineStr"/>
       <c r="G2615" t="inlineStr"/>
-      <c r="H2615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2616">
@@ -84885,10 +84793,8 @@
       </c>
       <c r="F2616" t="inlineStr"/>
       <c r="G2616" t="inlineStr"/>
-      <c r="H2616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2617">
@@ -84915,10 +84821,8 @@
       </c>
       <c r="F2617" t="inlineStr"/>
       <c r="G2617" t="inlineStr"/>
-      <c r="H2617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2618">
@@ -84949,10 +84853,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2619">
@@ -84987,10 +84889,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2619" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2619" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2620">
@@ -85021,10 +84921,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2620" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2620" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2621">
@@ -85059,10 +84957,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2621" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2621" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2622">
@@ -85097,10 +84993,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2622" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2622" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2623">
@@ -85135,10 +85029,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2623" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2624">
@@ -85173,10 +85065,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2624" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2625">
@@ -85211,10 +85101,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2625" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2625" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2626">
@@ -85245,10 +85133,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2626" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2626" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2627">
@@ -85283,10 +85169,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2627" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2627" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2628">
@@ -85321,10 +85205,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2628" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2628" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2629">
@@ -85359,10 +85241,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2629" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2629" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2630">
@@ -85393,10 +85273,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2630" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2630" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2631">
@@ -85427,10 +85305,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2631" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2631" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2632">
@@ -85465,10 +85341,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2633">
@@ -85491,10 +85365,8 @@
       <c r="E2633" t="inlineStr"/>
       <c r="F2633" t="inlineStr"/>
       <c r="G2633" t="inlineStr"/>
-      <c r="H2633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2633" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2634">
@@ -85529,10 +85401,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2634" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2635">
@@ -85567,10 +85437,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2635" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2635" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2636">
@@ -85605,10 +85473,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2636" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2637">
@@ -85643,10 +85509,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2637" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2637" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2638">
@@ -85677,10 +85541,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2639">
@@ -85707,10 +85569,8 @@
       </c>
       <c r="F2639" t="inlineStr"/>
       <c r="G2639" t="inlineStr"/>
-      <c r="H2639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2639" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2640">
@@ -85737,10 +85597,8 @@
       </c>
       <c r="F2640" t="inlineStr"/>
       <c r="G2640" t="inlineStr"/>
-      <c r="H2640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2641">
@@ -85767,10 +85625,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H2641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2641" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2642">
@@ -85797,10 +85653,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2643">
@@ -85823,10 +85677,8 @@
       </c>
       <c r="F2643" t="inlineStr"/>
       <c r="G2643" t="inlineStr"/>
-      <c r="H2643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2643" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2644">
@@ -85853,10 +85705,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2645">
@@ -85883,10 +85733,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2645" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2646">
@@ -85913,10 +85761,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2647">
@@ -85943,10 +85789,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2647" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2648">
@@ -85973,10 +85817,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2649">
@@ -86021,10 +85863,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2650" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2650" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2651">
@@ -86055,10 +85895,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2651" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2651" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2652">
@@ -86089,10 +85927,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2653">
@@ -86133,10 +85969,8 @@
       </c>
       <c r="F2654" t="inlineStr"/>
       <c r="G2654" t="inlineStr"/>
-      <c r="H2654" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2654" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2655">
@@ -86167,10 +86001,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2655" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2655" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2656">
@@ -86201,10 +86033,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2656" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2656" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2657">
@@ -86235,10 +86065,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2657" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2658">
@@ -86261,10 +86089,8 @@
       <c r="E2658" t="inlineStr"/>
       <c r="F2658" t="inlineStr"/>
       <c r="G2658" t="inlineStr"/>
-      <c r="H2658" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2658" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2659">
@@ -86295,10 +86121,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2659" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2659" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2660">
@@ -86333,10 +86157,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2660" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2660" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2661">
@@ -86363,10 +86185,8 @@
       </c>
       <c r="F2661" t="inlineStr"/>
       <c r="G2661" t="inlineStr"/>
-      <c r="H2661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2661" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2662">
@@ -86393,10 +86213,8 @@
       </c>
       <c r="F2662" t="inlineStr"/>
       <c r="G2662" t="inlineStr"/>
-      <c r="H2662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2662" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2663">
@@ -86427,10 +86245,8 @@
           <t>51.6</t>
         </is>
       </c>
-      <c r="H2663" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2663" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2664">
@@ -86465,10 +86281,8 @@
           <t>48.8</t>
         </is>
       </c>
-      <c r="H2664" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2664" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2665">
@@ -86499,10 +86313,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2665" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2665" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2666">
@@ -86537,10 +86349,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H2666" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2666" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2667">
@@ -86571,10 +86381,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2667" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2667" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2668">
@@ -86605,10 +86413,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2668" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2669">
@@ -86639,10 +86445,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2669" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2670">
@@ -86673,10 +86477,8 @@
           <t>18.0%</t>
         </is>
       </c>
-      <c r="H2670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2670" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2671">
@@ -86711,10 +86513,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H2671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2671" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2672">
@@ -86741,10 +86541,8 @@
       </c>
       <c r="F2672" t="inlineStr"/>
       <c r="G2672" t="inlineStr"/>
-      <c r="H2672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2672" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2673">
@@ -86771,10 +86569,8 @@
       </c>
       <c r="F2673" t="inlineStr"/>
       <c r="G2673" t="inlineStr"/>
-      <c r="H2673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2673" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2674">
@@ -86801,10 +86597,8 @@
       </c>
       <c r="F2674" t="inlineStr"/>
       <c r="G2674" t="inlineStr"/>
-      <c r="H2674" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2674" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2675">
@@ -86835,10 +86629,8 @@
         </is>
       </c>
       <c r="G2675" t="inlineStr"/>
-      <c r="H2675" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2675" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2676">
@@ -86869,10 +86661,8 @@
         </is>
       </c>
       <c r="G2676" t="inlineStr"/>
-      <c r="H2676" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2676" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2677">
@@ -86899,10 +86689,8 @@
       </c>
       <c r="F2677" t="inlineStr"/>
       <c r="G2677" t="inlineStr"/>
-      <c r="H2677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2677" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2678">
@@ -86929,10 +86717,8 @@
       </c>
       <c r="F2678" t="inlineStr"/>
       <c r="G2678" t="inlineStr"/>
-      <c r="H2678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2678" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2679">
@@ -86959,10 +86745,8 @@
       </c>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
-      <c r="H2679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2679" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2680">
@@ -86989,10 +86773,8 @@
       </c>
       <c r="F2680" t="inlineStr"/>
       <c r="G2680" t="inlineStr"/>
-      <c r="H2680" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2680" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2681">
@@ -87019,10 +86801,8 @@
       </c>
       <c r="F2681" t="inlineStr"/>
       <c r="G2681" t="inlineStr"/>
-      <c r="H2681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2681" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2682">
@@ -87049,10 +86829,8 @@
       </c>
       <c r="F2682" t="inlineStr"/>
       <c r="G2682" t="inlineStr"/>
-      <c r="H2682" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2682" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2683">
@@ -87079,10 +86857,8 @@
       </c>
       <c r="F2683" t="inlineStr"/>
       <c r="G2683" t="inlineStr"/>
-      <c r="H2683" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2683" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2684">
@@ -87117,10 +86893,8 @@
           <t>45.3</t>
         </is>
       </c>
-      <c r="H2684" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2684" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2685">
@@ -87155,10 +86929,8 @@
           <t>44.1</t>
         </is>
       </c>
-      <c r="H2685" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2685" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2686">
@@ -87193,10 +86965,8 @@
           <t>46.1</t>
         </is>
       </c>
-      <c r="H2686" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2686" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2687">
@@ -87227,10 +86997,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2687" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2688">
@@ -87265,10 +87033,8 @@
           <t>48.2</t>
         </is>
       </c>
-      <c r="H2688" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2688" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2689">
@@ -87295,10 +87061,8 @@
       </c>
       <c r="F2689" t="inlineStr"/>
       <c r="G2689" t="inlineStr"/>
-      <c r="H2689" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2689" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2690">
@@ -87325,10 +87089,8 @@
       </c>
       <c r="F2690" t="inlineStr"/>
       <c r="G2690" t="inlineStr"/>
-      <c r="H2690" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2690" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2691">
@@ -87355,10 +87117,8 @@
       </c>
       <c r="F2691" t="inlineStr"/>
       <c r="G2691" t="inlineStr"/>
-      <c r="H2691" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2691" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2692">
@@ -87385,10 +87145,8 @@
       </c>
       <c r="F2692" t="inlineStr"/>
       <c r="G2692" t="inlineStr"/>
-      <c r="H2692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2692" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2693">
@@ -87415,10 +87173,8 @@
       </c>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2693" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2694">
@@ -87445,10 +87201,8 @@
       </c>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
-      <c r="H2694" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2694" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2695">
@@ -87475,10 +87229,8 @@
       </c>
       <c r="F2695" t="inlineStr"/>
       <c r="G2695" t="inlineStr"/>
-      <c r="H2695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2695" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2696">
@@ -87505,10 +87257,8 @@
       </c>
       <c r="F2696" t="inlineStr"/>
       <c r="G2696" t="inlineStr"/>
-      <c r="H2696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2696" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2697">
@@ -87539,10 +87289,8 @@
           <t>$ 230B</t>
         </is>
       </c>
-      <c r="H2697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2698">
@@ -87573,10 +87321,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2698" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2699">
@@ -87607,10 +87353,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2699" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2700">
@@ -87637,10 +87381,8 @@
       </c>
       <c r="F2700" t="inlineStr"/>
       <c r="G2700" t="inlineStr"/>
-      <c r="H2700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2700" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2701">
@@ -87667,10 +87409,8 @@
       </c>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
-      <c r="H2701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2701" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2702">
@@ -87697,10 +87437,8 @@
       </c>
       <c r="F2702" t="inlineStr"/>
       <c r="G2702" t="inlineStr"/>
-      <c r="H2702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2702" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2703">
@@ -87731,10 +87469,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2703" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2704">
@@ -87769,10 +87505,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2704" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2704" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2705">
@@ -87803,10 +87537,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2705" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2705" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2706">
@@ -87837,10 +87569,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2706" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2706" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2707">
@@ -87871,10 +87601,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2708">
@@ -87905,10 +87633,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2709">
@@ -87939,10 +87665,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H2709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2709" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2710">
@@ -87969,10 +87693,8 @@
       </c>
       <c r="F2710" t="inlineStr"/>
       <c r="G2710" t="inlineStr"/>
-      <c r="H2710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2711">
@@ -87999,10 +87721,8 @@
       </c>
       <c r="F2711" t="inlineStr"/>
       <c r="G2711" t="inlineStr"/>
-      <c r="H2711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2711" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2712">
@@ -88025,10 +87745,8 @@
       <c r="E2712" t="inlineStr"/>
       <c r="F2712" t="inlineStr"/>
       <c r="G2712" t="inlineStr"/>
-      <c r="H2712" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2712" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2713">
@@ -88047,10 +87765,8 @@
       <c r="E2713" t="inlineStr"/>
       <c r="F2713" t="inlineStr"/>
       <c r="G2713" t="inlineStr"/>
-      <c r="H2713" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2713" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2714">
@@ -88077,10 +87793,8 @@
           <t>43.0K</t>
         </is>
       </c>
-      <c r="H2714" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2714" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2715">
@@ -88117,10 +87831,8 @@
       <c r="E2716" t="inlineStr"/>
       <c r="F2716" t="inlineStr"/>
       <c r="G2716" t="inlineStr"/>
-      <c r="H2716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2717">
@@ -88147,10 +87859,8 @@
       </c>
       <c r="F2717" t="inlineStr"/>
       <c r="G2717" t="inlineStr"/>
-      <c r="H2717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2717" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2718">
@@ -88177,10 +87887,8 @@
       </c>
       <c r="F2718" t="inlineStr"/>
       <c r="G2718" t="inlineStr"/>
-      <c r="H2718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2719">
@@ -88211,10 +87919,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2719" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2720">
@@ -88241,10 +87947,8 @@
       </c>
       <c r="F2720" t="inlineStr"/>
       <c r="G2720" t="inlineStr"/>
-      <c r="H2720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2720" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2721">
@@ -88271,10 +87975,8 @@
       </c>
       <c r="F2721" t="inlineStr"/>
       <c r="G2721" t="inlineStr"/>
-      <c r="H2721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2721" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2722">
@@ -88301,10 +88003,8 @@
       </c>
       <c r="F2722" t="inlineStr"/>
       <c r="G2722" t="inlineStr"/>
-      <c r="H2722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2722" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2723">
@@ -88331,10 +88031,8 @@
       </c>
       <c r="F2723" t="inlineStr"/>
       <c r="G2723" t="inlineStr"/>
-      <c r="H2723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2723" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2724">
@@ -88365,10 +88063,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2724" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2725">
@@ -88395,10 +88091,8 @@
       </c>
       <c r="F2725" t="inlineStr"/>
       <c r="G2725" t="inlineStr"/>
-      <c r="H2725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2726">
@@ -88421,10 +88115,8 @@
       <c r="E2726" t="inlineStr"/>
       <c r="F2726" t="inlineStr"/>
       <c r="G2726" t="inlineStr"/>
-      <c r="H2726" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2726" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2727">
@@ -88455,10 +88147,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2727" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2728">
@@ -88489,10 +88179,8 @@
           <t>8.2%</t>
         </is>
       </c>
-      <c r="H2728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2728" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2729">
@@ -88523,10 +88211,8 @@
           <t>50.8</t>
         </is>
       </c>
-      <c r="H2729" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2729" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2730">
@@ -88553,10 +88239,8 @@
       </c>
       <c r="F2730" t="inlineStr"/>
       <c r="G2730" t="inlineStr"/>
-      <c r="H2730" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2730" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2731">
@@ -88587,10 +88271,8 @@
           <t>49.7</t>
         </is>
       </c>
-      <c r="H2731" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2731" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2732">
@@ -88621,10 +88303,8 @@
           <t>7.8M</t>
         </is>
       </c>
-      <c r="H2732" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2732" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2733">
@@ -88655,10 +88335,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2733" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2733" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2734">
@@ -88689,10 +88367,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2734" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2735">
@@ -88723,10 +88399,8 @@
           <t>3.1M</t>
         </is>
       </c>
-      <c r="H2735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2735" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2736">
@@ -88757,10 +88431,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2736" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2737">
@@ -88783,10 +88455,8 @@
       <c r="E2737" t="inlineStr"/>
       <c r="F2737" t="inlineStr"/>
       <c r="G2737" t="inlineStr"/>
-      <c r="H2737" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2737" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2738">
@@ -88805,10 +88475,8 @@
       <c r="E2738" t="inlineStr"/>
       <c r="F2738" t="inlineStr"/>
       <c r="G2738" t="inlineStr"/>
-      <c r="H2738" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2738" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2739">
@@ -88827,10 +88495,8 @@
       <c r="E2739" t="inlineStr"/>
       <c r="F2739" t="inlineStr"/>
       <c r="G2739" t="inlineStr"/>
-      <c r="H2739" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2739" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2740">
@@ -88849,10 +88515,8 @@
       <c r="E2740" t="inlineStr"/>
       <c r="F2740" t="inlineStr"/>
       <c r="G2740" t="inlineStr"/>
-      <c r="H2740" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2740" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2741">
@@ -88875,10 +88539,8 @@
       </c>
       <c r="F2741" t="inlineStr"/>
       <c r="G2741" t="inlineStr"/>
-      <c r="H2741" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2741" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2742">
@@ -88915,10 +88577,8 @@
       <c r="E2743" t="inlineStr"/>
       <c r="F2743" t="inlineStr"/>
       <c r="G2743" t="inlineStr"/>
-      <c r="H2743" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2743" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2744">
@@ -88945,10 +88605,8 @@
       </c>
       <c r="F2744" t="inlineStr"/>
       <c r="G2744" t="inlineStr"/>
-      <c r="H2744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2745">
@@ -88975,10 +88633,8 @@
       </c>
       <c r="F2745" t="inlineStr"/>
       <c r="G2745" t="inlineStr"/>
-      <c r="H2745" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2745" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2746">
@@ -89009,10 +88665,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H2746" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2746" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2747">
@@ -89043,10 +88697,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H2747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2747" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2748">
@@ -89073,10 +88725,8 @@
       </c>
       <c r="F2748" t="inlineStr"/>
       <c r="G2748" t="inlineStr"/>
-      <c r="H2748" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2748" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2749">
@@ -89103,10 +88753,8 @@
       </c>
       <c r="F2749" t="inlineStr"/>
       <c r="G2749" t="inlineStr"/>
-      <c r="H2749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2749" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2750">
@@ -89137,10 +88785,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H2750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2751">
@@ -89167,10 +88813,8 @@
       </c>
       <c r="F2751" t="inlineStr"/>
       <c r="G2751" t="inlineStr"/>
-      <c r="H2751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2751" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2752">
@@ -89205,10 +88849,8 @@
           <t>52.7</t>
         </is>
       </c>
-      <c r="H2752" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2752" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2753">
@@ -89239,10 +88881,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2754">
@@ -89269,10 +88909,8 @@
       </c>
       <c r="F2754" t="inlineStr"/>
       <c r="G2754" t="inlineStr"/>
-      <c r="H2754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2754" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2755">
@@ -89303,10 +88941,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H2755" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2755" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2756">
@@ -89337,10 +88973,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2756" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2756" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2757">
@@ -89371,10 +89005,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2757" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2757" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2758">
@@ -89405,10 +89037,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2758" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2759">
@@ -89439,10 +89069,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2759" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2760">
@@ -89477,10 +89105,8 @@
           <t>57.9</t>
         </is>
       </c>
-      <c r="H2760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2761">
@@ -89515,10 +89141,8 @@
           <t>56.8</t>
         </is>
       </c>
-      <c r="H2761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2762">
@@ -89549,10 +89173,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2763">
@@ -89583,10 +89205,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2764">
@@ -89613,10 +89233,8 @@
       </c>
       <c r="F2764" t="inlineStr"/>
       <c r="G2764" t="inlineStr"/>
-      <c r="H2764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2765">
@@ -89643,10 +89261,8 @@
       </c>
       <c r="F2765" t="inlineStr"/>
       <c r="G2765" t="inlineStr"/>
-      <c r="H2765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2766">
@@ -89673,10 +89289,8 @@
       </c>
       <c r="F2766" t="inlineStr"/>
       <c r="G2766" t="inlineStr"/>
-      <c r="H2766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2767">
@@ -89707,10 +89321,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2767" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2767" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2768">
@@ -89737,10 +89349,8 @@
       </c>
       <c r="F2768" t="inlineStr"/>
       <c r="G2768" t="inlineStr"/>
-      <c r="H2768" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2768" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2769">
@@ -89767,10 +89377,8 @@
       </c>
       <c r="F2769" t="inlineStr"/>
       <c r="G2769" t="inlineStr"/>
-      <c r="H2769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2769" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2770">
@@ -89797,10 +89405,8 @@
       </c>
       <c r="F2770" t="inlineStr"/>
       <c r="G2770" t="inlineStr"/>
-      <c r="H2770" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2770" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2771">
@@ -89827,10 +89433,8 @@
       </c>
       <c r="F2771" t="inlineStr"/>
       <c r="G2771" t="inlineStr"/>
-      <c r="H2771" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2771" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2772">
@@ -89865,10 +89469,8 @@
           <t>48.9</t>
         </is>
       </c>
-      <c r="H2772" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2772" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2773">
@@ -89903,10 +89505,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H2773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2773" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2774">
@@ -89941,10 +89541,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2774" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2774" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2775">
@@ -89979,10 +89577,8 @@
           <t>52.5</t>
         </is>
       </c>
-      <c r="H2775" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2775" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2776">
@@ -90017,10 +89613,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2776" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2776" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2777">
@@ -90055,10 +89649,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2777" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2777" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2778">
@@ -90089,10 +89681,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2778" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2778" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2779">
@@ -90123,10 +89713,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2780">
@@ -90157,10 +89745,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2781">
@@ -90195,10 +89781,8 @@
           <t>51.2</t>
         </is>
       </c>
-      <c r="H2781" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2781" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2782">
@@ -90233,10 +89817,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2782" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2783">
@@ -90267,10 +89849,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2783" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2784">
@@ -90301,10 +89881,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H2784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2784" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2785">
@@ -90331,10 +89909,8 @@
       </c>
       <c r="F2785" t="inlineStr"/>
       <c r="G2785" t="inlineStr"/>
-      <c r="H2785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2785" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2786">
@@ -90361,10 +89937,8 @@
       </c>
       <c r="F2786" t="inlineStr"/>
       <c r="G2786" t="inlineStr"/>
-      <c r="H2786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2787">
@@ -90391,10 +89965,8 @@
       </c>
       <c r="F2787" t="inlineStr"/>
       <c r="G2787" t="inlineStr"/>
-      <c r="H2787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2787" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2788">
@@ -90421,10 +89993,8 @@
       </c>
       <c r="F2788" t="inlineStr"/>
       <c r="G2788" t="inlineStr"/>
-      <c r="H2788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2789">
@@ -90455,10 +90025,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2789" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2789" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2790">
@@ -90489,10 +90057,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2790" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2791">
@@ -90523,10 +90089,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2791" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2792">
@@ -90557,10 +90121,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H2792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2793">
@@ -90587,10 +90149,8 @@
       </c>
       <c r="F2793" t="inlineStr"/>
       <c r="G2793" t="inlineStr"/>
-      <c r="H2793" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2793" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2794">
@@ -90617,10 +90177,8 @@
       </c>
       <c r="F2794" t="inlineStr"/>
       <c r="G2794" t="inlineStr"/>
-      <c r="H2794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2794" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2795">
@@ -90647,10 +90205,8 @@
       </c>
       <c r="F2795" t="inlineStr"/>
       <c r="G2795" t="inlineStr"/>
-      <c r="H2795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2796">
@@ -90677,10 +90233,8 @@
       </c>
       <c r="F2796" t="inlineStr"/>
       <c r="G2796" t="inlineStr"/>
-      <c r="H2796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2796" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2797">
@@ -90707,10 +90261,8 @@
       </c>
       <c r="F2797" t="inlineStr"/>
       <c r="G2797" t="inlineStr"/>
-      <c r="H2797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2798">
@@ -90741,10 +90293,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2798" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2798" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2799">
@@ -90775,10 +90325,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2800">
@@ -90809,10 +90357,8 @@
           <t>115.0K</t>
         </is>
       </c>
-      <c r="H2800" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2800" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2801">
@@ -90843,10 +90389,8 @@
           <t>C$ -1.3B</t>
         </is>
       </c>
-      <c r="H2801" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2801" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2802">
@@ -90877,10 +90421,8 @@
           <t>C$ 65.8B</t>
         </is>
       </c>
-      <c r="H2802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2802" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2803">
@@ -90911,10 +90453,8 @@
           <t>C$ 64.5B</t>
         </is>
       </c>
-      <c r="H2803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2804">
@@ -90945,10 +90485,8 @@
           <t>$ -103.0B</t>
         </is>
       </c>
-      <c r="H2804" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2804" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2805">
@@ -90979,10 +90517,8 @@
           <t>$ 260B</t>
         </is>
       </c>
-      <c r="H2805" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2805" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2806">
@@ -91013,10 +90549,8 @@
           <t>$ 363.0B</t>
         </is>
       </c>
-      <c r="H2806" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2806" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2807">
@@ -91039,10 +90573,8 @@
       <c r="E2807" t="inlineStr"/>
       <c r="F2807" t="inlineStr"/>
       <c r="G2807" t="inlineStr"/>
-      <c r="H2807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2807" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2808">
@@ -91073,10 +90605,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2808" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2808" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2809">
@@ -91107,10 +90637,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H2809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2809" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2810">
@@ -91145,10 +90673,8 @@
           <t>52.4</t>
         </is>
       </c>
-      <c r="H2810" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2810" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2811">
@@ -91183,10 +90709,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2811" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2811" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2812">
@@ -91217,10 +90741,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H2812" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2812" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2813">
@@ -91251,10 +90773,8 @@
           <t>58.1</t>
         </is>
       </c>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2814">
@@ -91285,10 +90805,8 @@
           <t>51.3</t>
         </is>
       </c>
-      <c r="H2814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2815">
@@ -91319,10 +90837,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H2815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2815" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2816">
@@ -91353,10 +90869,8 @@
           <t>64.8</t>
         </is>
       </c>
-      <c r="H2816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2817">
@@ -91383,10 +90897,8 @@
       </c>
       <c r="F2817" t="inlineStr"/>
       <c r="G2817" t="inlineStr"/>
-      <c r="H2817" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2817" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2818">
@@ -91413,10 +90925,8 @@
       </c>
       <c r="F2818" t="inlineStr"/>
       <c r="G2818" t="inlineStr"/>
-      <c r="H2818" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2818" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2819">
@@ -91443,10 +90953,8 @@
       </c>
       <c r="F2819" t="inlineStr"/>
       <c r="G2819" t="inlineStr"/>
-      <c r="H2819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2820">
@@ -91473,10 +90981,8 @@
       </c>
       <c r="F2820" t="inlineStr"/>
       <c r="G2820" t="inlineStr"/>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2821">
@@ -91503,10 +91009,8 @@
       </c>
       <c r="F2821" t="inlineStr"/>
       <c r="G2821" t="inlineStr"/>
-      <c r="H2821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2822">
@@ -91533,10 +91037,8 @@
       </c>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr"/>
-      <c r="H2822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2823">
@@ -91563,10 +91065,8 @@
       </c>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
-      <c r="H2823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2824">
@@ -91593,10 +91093,8 @@
       </c>
       <c r="F2824" t="inlineStr"/>
       <c r="G2824" t="inlineStr"/>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2825">
@@ -91623,10 +91121,8 @@
       </c>
       <c r="F2825" t="inlineStr"/>
       <c r="G2825" t="inlineStr"/>
-      <c r="H2825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2826">
@@ -91657,10 +91153,8 @@
           <t>2.40%</t>
         </is>
       </c>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2826" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2827">
@@ -91687,10 +91181,8 @@
       </c>
       <c r="F2827" t="inlineStr"/>
       <c r="G2827" t="inlineStr"/>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2828">
@@ -91717,10 +91209,8 @@
       </c>
       <c r="F2828" t="inlineStr"/>
       <c r="G2828" t="inlineStr"/>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2829">
@@ -91751,10 +91241,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2830">
@@ -91781,10 +91269,8 @@
       </c>
       <c r="F2830" t="inlineStr"/>
       <c r="G2830" t="inlineStr"/>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2831">
@@ -91815,10 +91301,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2832">
@@ -91845,10 +91329,8 @@
       </c>
       <c r="F2832" t="inlineStr"/>
       <c r="G2832" t="inlineStr"/>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2833">
@@ -91875,10 +91357,8 @@
       </c>
       <c r="F2833" t="inlineStr"/>
       <c r="G2833" t="inlineStr"/>
-      <c r="H2833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2834">
@@ -91901,10 +91381,8 @@
       <c r="E2834" t="inlineStr"/>
       <c r="F2834" t="inlineStr"/>
       <c r="G2834" t="inlineStr"/>
-      <c r="H2834" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2834" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2835">
@@ -91927,10 +91405,8 @@
       </c>
       <c r="F2835" t="inlineStr"/>
       <c r="G2835" t="inlineStr"/>
-      <c r="H2835" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2835" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2836">
@@ -91975,10 +91451,8 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="H2837" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2837" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2838">
@@ -92009,10 +91483,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H2838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2839">
@@ -92043,10 +91515,8 @@
           <t>-13</t>
         </is>
       </c>
-      <c r="H2839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2840">
@@ -92077,10 +91547,8 @@
           <t>$ 8.1B</t>
         </is>
       </c>
-      <c r="H2840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2841">
@@ -92107,10 +91575,8 @@
       </c>
       <c r="F2841" t="inlineStr"/>
       <c r="G2841" t="inlineStr"/>
-      <c r="H2841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2842">
@@ -92133,10 +91599,8 @@
       <c r="E2842" t="inlineStr"/>
       <c r="F2842" t="inlineStr"/>
       <c r="G2842" t="inlineStr"/>
-      <c r="H2842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2843">
@@ -92159,10 +91623,8 @@
       <c r="E2843" t="inlineStr"/>
       <c r="F2843" t="inlineStr"/>
       <c r="G2843" t="inlineStr"/>
-      <c r="H2843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2844">
@@ -92193,10 +91655,8 @@
           <t>A$ 3.2B</t>
         </is>
       </c>
-      <c r="H2844" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2844" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2845">
@@ -92223,10 +91683,8 @@
       </c>
       <c r="F2845" t="inlineStr"/>
       <c r="G2845" t="inlineStr"/>
-      <c r="H2845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2845" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2846">
@@ -92253,10 +91711,8 @@
       </c>
       <c r="F2846" t="inlineStr"/>
       <c r="G2846" t="inlineStr"/>
-      <c r="H2846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2847">
@@ -92283,10 +91739,8 @@
       </c>
       <c r="F2847" t="inlineStr"/>
       <c r="G2847" t="inlineStr"/>
-      <c r="H2847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2848">
@@ -92313,10 +91767,8 @@
       </c>
       <c r="F2848" t="inlineStr"/>
       <c r="G2848" t="inlineStr"/>
-      <c r="H2848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2849">
@@ -92347,10 +91799,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2849" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2849" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2850">
@@ -92377,10 +91827,8 @@
       </c>
       <c r="F2850" t="inlineStr"/>
       <c r="G2850" t="inlineStr"/>
-      <c r="H2850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2851">
@@ -92407,10 +91855,8 @@
       </c>
       <c r="F2851" t="inlineStr"/>
       <c r="G2851" t="inlineStr"/>
-      <c r="H2851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2852">
@@ -92437,10 +91883,8 @@
       </c>
       <c r="F2852" t="inlineStr"/>
       <c r="G2852" t="inlineStr"/>
-      <c r="H2852" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2852" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2853">
@@ -92467,10 +91911,8 @@
       </c>
       <c r="F2853" t="inlineStr"/>
       <c r="G2853" t="inlineStr"/>
-      <c r="H2853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2854">
@@ -92501,10 +91943,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H2854" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2854" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2855">
@@ -92535,10 +91975,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2855" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2855" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2856">
@@ -92569,10 +92007,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2856" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2856" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2857">
@@ -92595,10 +92031,8 @@
       <c r="E2857" t="inlineStr"/>
       <c r="F2857" t="inlineStr"/>
       <c r="G2857" t="inlineStr"/>
-      <c r="H2857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2858">
@@ -92621,10 +92055,8 @@
       <c r="E2858" t="inlineStr"/>
       <c r="F2858" t="inlineStr"/>
       <c r="G2858" t="inlineStr"/>
-      <c r="H2858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2859">
@@ -92655,10 +92087,8 @@
           <t>46.5</t>
         </is>
       </c>
-      <c r="H2859" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2859" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2860">
@@ -92693,10 +92123,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2860" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2860" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2861">
@@ -92719,10 +92147,8 @@
       <c r="E2861" t="inlineStr"/>
       <c r="F2861" t="inlineStr"/>
       <c r="G2861" t="inlineStr"/>
-      <c r="H2861" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2861" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2862">
@@ -92745,10 +92171,8 @@
       <c r="E2862" t="inlineStr"/>
       <c r="F2862" t="inlineStr"/>
       <c r="G2862" t="inlineStr"/>
-      <c r="H2862" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2862" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2863">
@@ -92771,10 +92195,8 @@
       <c r="E2863" t="inlineStr"/>
       <c r="F2863" t="inlineStr"/>
       <c r="G2863" t="inlineStr"/>
-      <c r="H2863" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2863" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2864">
@@ -92797,10 +92219,8 @@
       <c r="E2864" t="inlineStr"/>
       <c r="F2864" t="inlineStr"/>
       <c r="G2864" t="inlineStr"/>
-      <c r="H2864" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2864" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2865">
@@ -92823,10 +92243,8 @@
       <c r="E2865" t="inlineStr"/>
       <c r="F2865" t="inlineStr"/>
       <c r="G2865" t="inlineStr"/>
-      <c r="H2865" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2865" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2866">
@@ -92857,10 +92275,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="H2866" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2866" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2867">
@@ -92883,10 +92299,8 @@
       <c r="E2867" t="inlineStr"/>
       <c r="F2867" t="inlineStr"/>
       <c r="G2867" t="inlineStr"/>
-      <c r="H2867" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2867" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2868">
@@ -92917,10 +92331,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2868" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2868" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2869">
@@ -92951,10 +92363,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2869" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2869" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2870">
@@ -92977,10 +92387,8 @@
       <c r="E2870" t="inlineStr"/>
       <c r="F2870" t="inlineStr"/>
       <c r="G2870" t="inlineStr"/>
-      <c r="H2870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2871">
@@ -93003,10 +92411,8 @@
       <c r="E2871" t="inlineStr"/>
       <c r="F2871" t="inlineStr"/>
       <c r="G2871" t="inlineStr"/>
-      <c r="H2871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2872">
@@ -93037,10 +92443,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H2872" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2872" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2873">
@@ -93063,10 +92467,8 @@
       <c r="E2873" t="inlineStr"/>
       <c r="F2873" t="inlineStr"/>
       <c r="G2873" t="inlineStr"/>
-      <c r="H2873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2874">
@@ -93089,10 +92491,8 @@
       <c r="E2874" t="inlineStr"/>
       <c r="F2874" t="inlineStr"/>
       <c r="G2874" t="inlineStr"/>
-      <c r="H2874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2874" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2875">
@@ -93115,10 +92515,8 @@
       <c r="E2875" t="inlineStr"/>
       <c r="F2875" t="inlineStr"/>
       <c r="G2875" t="inlineStr"/>
-      <c r="H2875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2875" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2876">
@@ -93145,10 +92543,8 @@
       </c>
       <c r="F2876" t="inlineStr"/>
       <c r="G2876" t="inlineStr"/>
-      <c r="H2876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2876" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2877">
@@ -93171,10 +92567,8 @@
       <c r="E2877" t="inlineStr"/>
       <c r="F2877" t="inlineStr"/>
       <c r="G2877" t="inlineStr"/>
-      <c r="H2877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2878">
@@ -93197,10 +92591,8 @@
       <c r="E2878" t="inlineStr"/>
       <c r="F2878" t="inlineStr"/>
       <c r="G2878" t="inlineStr"/>
-      <c r="H2878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2878" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2879">
@@ -93223,10 +92615,8 @@
       </c>
       <c r="F2879" t="inlineStr"/>
       <c r="G2879" t="inlineStr"/>
-      <c r="H2879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2879" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2880">
@@ -93249,10 +92639,8 @@
       </c>
       <c r="F2880" t="inlineStr"/>
       <c r="G2880" t="inlineStr"/>
-      <c r="H2880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2880" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2881">
@@ -93271,10 +92659,8 @@
       <c r="E2881" t="inlineStr"/>
       <c r="F2881" t="inlineStr"/>
       <c r="G2881" t="inlineStr"/>
-      <c r="H2881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2881" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2882">
@@ -93293,10 +92679,8 @@
       <c r="E2882" t="inlineStr"/>
       <c r="F2882" t="inlineStr"/>
       <c r="G2882" t="inlineStr"/>
-      <c r="H2882" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2882" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2883">
@@ -93315,10 +92699,8 @@
       <c r="E2883" t="inlineStr"/>
       <c r="F2883" t="inlineStr"/>
       <c r="G2883" t="inlineStr"/>
-      <c r="H2883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2884">
@@ -93341,104 +92723,134 @@
       </c>
       <c r="F2884" t="inlineStr"/>
       <c r="G2884" t="inlineStr"/>
-      <c r="H2884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2885">
       <c r="A2885" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2885" t="inlineStr"/>
-      <c r="C2885" t="inlineStr"/>
+          <t>01:15 PM</t>
+        </is>
+      </c>
+      <c r="B2885" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2885" t="inlineStr">
+        <is>
+          <t>ImportsDEC</t>
+        </is>
+      </c>
       <c r="D2885" t="inlineStr"/>
-      <c r="E2885" t="inlineStr"/>
+      <c r="E2885" t="inlineStr">
+        <is>
+          <t>€57.186B</t>
+        </is>
+      </c>
       <c r="F2885" t="inlineStr"/>
-      <c r="G2885" t="inlineStr"/>
-      <c r="H2885" t="inlineStr"/>
+      <c r="G2885" t="inlineStr">
+        <is>
+          <t>€ 56.9B</t>
+        </is>
+      </c>
+      <c r="H2885" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2886">
       <c r="A2886" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2886" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2886" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D2886" t="inlineStr"/>
       <c r="E2886" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2886" t="inlineStr"/>
       <c r="G2886" t="inlineStr">
         <is>
-          <t>9.75%</t>
+          <t>20200%</t>
         </is>
       </c>
       <c r="H2886" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2887">
       <c r="A2887" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2887" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2887" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2887" t="inlineStr"/>
-      <c r="E2887" t="inlineStr"/>
+      <c r="E2887" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2887" t="inlineStr"/>
-      <c r="G2887" t="inlineStr"/>
+      <c r="G2887" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
       <c r="H2887" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2888">
       <c r="A2888" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2888" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2888" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/05</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2888" t="inlineStr"/>
-      <c r="E2888" t="inlineStr"/>
+      <c r="E2888" t="inlineStr">
+        <is>
+          <t>S$506.7B</t>
+        </is>
+      </c>
       <c r="F2888" t="inlineStr"/>
       <c r="G2888" t="inlineStr"/>
       <c r="H2888" t="inlineStr">
@@ -93450,89 +92862,81 @@
     <row r="2889">
       <c r="A2889" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2889" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="C2889" t="inlineStr">
         <is>
-          <t>Household Spending MoMDEC</t>
+          <t>FAO Food Price IndexJAN</t>
         </is>
       </c>
       <c r="D2889" t="inlineStr"/>
       <c r="E2889" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="F2889" t="inlineStr"/>
       <c r="G2889" t="inlineStr"/>
       <c r="H2889" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2890">
       <c r="A2890" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2890" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2890" t="inlineStr">
         <is>
-          <t>Household Spending YoYDEC</t>
+          <t>BBA Mortgage RateJAN</t>
         </is>
       </c>
       <c r="D2890" t="inlineStr"/>
       <c r="E2890" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>7.50%</t>
         </is>
       </c>
       <c r="F2890" t="inlineStr"/>
-      <c r="G2890" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2890" t="inlineStr"/>
       <c r="H2890" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2891">
       <c r="A2891" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2891" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2891" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Foreign Exchange ReservesJAN/31</t>
         </is>
       </c>
       <c r="D2891" t="inlineStr"/>
-      <c r="E2891" t="inlineStr">
-        <is>
-          <t>$155.7B</t>
-        </is>
-      </c>
+      <c r="E2891" t="inlineStr"/>
       <c r="F2891" t="inlineStr"/>
       <c r="G2891" t="inlineStr"/>
       <c r="H2891" t="inlineStr">
@@ -93544,145 +92948,165 @@
     <row r="2892">
       <c r="A2892" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2892" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2892" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2892" t="inlineStr"/>
-      <c r="E2892" t="inlineStr"/>
+      <c r="E2892" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
+      </c>
       <c r="F2892" t="inlineStr"/>
-      <c r="G2892" t="inlineStr"/>
+      <c r="G2892" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2892" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2893">
       <c r="A2893" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2893" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2893" t="inlineStr">
         <is>
-          <t>RBI Interest Rate Decision</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2893" t="inlineStr"/>
       <c r="E2893" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>4.83%</t>
         </is>
       </c>
       <c r="F2893" t="inlineStr"/>
-      <c r="G2893" t="inlineStr"/>
+      <c r="G2893" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
       <c r="H2893" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2894">
       <c r="A2894" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2894" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2894" t="inlineStr">
         <is>
-          <t>Cash Reserve Ratio</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2894" t="inlineStr"/>
       <c r="E2894" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>0.38%</t>
         </is>
       </c>
       <c r="F2894" t="inlineStr"/>
-      <c r="G2894" t="inlineStr"/>
+      <c r="G2894" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2894" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2895">
       <c r="A2895" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2895" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2895" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2895" t="inlineStr"/>
       <c r="E2895" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>4.21%</t>
         </is>
       </c>
       <c r="F2895" t="inlineStr"/>
-      <c r="G2895" t="inlineStr"/>
+      <c r="G2895" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="H2895" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2896">
       <c r="A2896" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2896" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2896" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2896" t="inlineStr"/>
       <c r="E2896" t="inlineStr">
         <is>
-          <t>107.5</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="F2896" t="inlineStr"/>
       <c r="G2896" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2896" t="inlineStr">
@@ -93694,29 +93118,29 @@
     <row r="2897">
       <c r="A2897" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2897" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2897" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2897" t="inlineStr"/>
       <c r="E2897" t="inlineStr">
         <is>
-          <t>$65.46B</t>
+          <t>3.65%</t>
         </is>
       </c>
       <c r="F2897" t="inlineStr"/>
       <c r="G2897" t="inlineStr">
         <is>
-          <t>$65.0B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2897" t="inlineStr">
@@ -93728,163 +93152,167 @@
     <row r="2898">
       <c r="A2898" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2898" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2898" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2898" t="inlineStr"/>
       <c r="E2898" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2898" t="inlineStr"/>
       <c r="G2898" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2898" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2899">
       <c r="A2899" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2899" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2899" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2899" t="inlineStr"/>
       <c r="E2899" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2899" t="inlineStr"/>
       <c r="G2899" t="inlineStr">
         <is>
-          <t>130%</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2899" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2900">
       <c r="A2900" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2900" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2900" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2900" t="inlineStr"/>
       <c r="E2900" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F2900" t="inlineStr"/>
       <c r="G2900" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="H2900" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2901">
       <c r="A2901" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2901" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2901" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2901" t="inlineStr"/>
       <c r="E2901" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2901" t="inlineStr"/>
       <c r="G2901" t="inlineStr">
         <is>
-          <t>108%</t>
+          <t>5K</t>
         </is>
       </c>
       <c r="H2901" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2902">
       <c r="A2902" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2902" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2902" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2902" t="inlineStr"/>
       <c r="E2902" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2902" t="inlineStr"/>
-      <c r="G2902" t="inlineStr"/>
+      <c r="G2902" t="inlineStr">
+        <is>
+          <t>-3K</t>
+        </is>
+      </c>
       <c r="H2902" t="inlineStr">
         <is>
           <t>2</t>
@@ -93894,27 +93322,31 @@
     <row r="2903">
       <c r="A2903" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2903" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2903" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2903" t="inlineStr"/>
       <c r="E2903" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2903" t="inlineStr"/>
-      <c r="G2903" t="inlineStr"/>
+      <c r="G2903" t="inlineStr">
+        <is>
+          <t>8K</t>
+        </is>
+      </c>
       <c r="H2903" t="inlineStr">
         <is>
           <t>2</t>
@@ -93924,23 +93356,31 @@
     <row r="2904">
       <c r="A2904" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2904" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2904" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2904" t="inlineStr"/>
-      <c r="E2904" t="inlineStr"/>
+      <c r="E2904" t="inlineStr">
+        <is>
+          <t>65.1%</t>
+        </is>
+      </c>
       <c r="F2904" t="inlineStr"/>
-      <c r="G2904" t="inlineStr"/>
+      <c r="G2904" t="inlineStr">
+        <is>
+          <t>65.0%</t>
+        </is>
+      </c>
       <c r="H2904" t="inlineStr">
         <is>
           <t>2</t>
@@ -93950,229 +93390,233 @@
     <row r="2905">
       <c r="A2905" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2905" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2905" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2905" t="inlineStr"/>
       <c r="E2905" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F2905" t="inlineStr"/>
       <c r="G2905" t="inlineStr">
         <is>
-          <t>€ -7.2B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2905" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2906">
       <c r="A2906" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2906" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2906" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2906" t="inlineStr"/>
       <c r="E2906" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
+          <t>256K</t>
         </is>
       </c>
       <c r="F2906" t="inlineStr"/>
       <c r="G2906" t="inlineStr">
         <is>
-          <t>€ -2.5B</t>
+          <t>205K</t>
         </is>
       </c>
       <c r="H2906" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2907">
       <c r="A2907" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2907" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2907" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2907" t="inlineStr"/>
       <c r="E2907" t="inlineStr">
         <is>
-          <t>€50.101B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F2907" t="inlineStr"/>
       <c r="G2907" t="inlineStr">
         <is>
-          <t>€ 49.7B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="H2907" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2908">
       <c r="A2908" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2908" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2908" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2908" t="inlineStr"/>
       <c r="E2908" t="inlineStr">
         <is>
-          <t>€275.078B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2908" t="inlineStr"/>
-      <c r="G2908" t="inlineStr"/>
+      <c r="G2908" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2908" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2909">
       <c r="A2909" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2909" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2909" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="D2909" t="inlineStr"/>
       <c r="E2909" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2909" t="inlineStr"/>
       <c r="G2909" t="inlineStr">
         <is>
-          <t>€ 56.9B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H2909" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2910">
       <c r="A2910" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2910" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2910" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2910" t="inlineStr"/>
       <c r="E2910" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2910" t="inlineStr"/>
       <c r="G2910" t="inlineStr">
         <is>
-          <t>20200%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="H2910" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2911">
       <c r="A2911" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2911" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2911" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2911" t="inlineStr"/>
       <c r="E2911" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="F2911" t="inlineStr"/>
       <c r="G2911" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H2911" t="inlineStr">
@@ -94184,27 +93628,31 @@
     <row r="2912">
       <c r="A2912" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2912" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2912" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2912" t="inlineStr"/>
       <c r="E2912" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2912" t="inlineStr"/>
-      <c r="G2912" t="inlineStr"/>
+      <c r="G2912" t="inlineStr">
+        <is>
+          <t>25K</t>
+        </is>
+      </c>
       <c r="H2912" t="inlineStr">
         <is>
           <t>3</t>
@@ -94214,27 +93662,31 @@
     <row r="2913">
       <c r="A2913" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2913" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2913" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2913" t="inlineStr"/>
       <c r="E2913" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>-13K</t>
         </is>
       </c>
       <c r="F2913" t="inlineStr"/>
-      <c r="G2913" t="inlineStr"/>
+      <c r="G2913" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H2913" t="inlineStr">
         <is>
           <t>3</t>
@@ -94244,27 +93696,31 @@
     <row r="2914">
       <c r="A2914" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2914" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2914" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2914" t="inlineStr"/>
       <c r="E2914" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="F2914" t="inlineStr"/>
-      <c r="G2914" t="inlineStr"/>
+      <c r="G2914" t="inlineStr">
+        <is>
+          <t>180K</t>
+        </is>
+      </c>
       <c r="H2914" t="inlineStr">
         <is>
           <t>3</t>
@@ -94274,23 +93730,31 @@
     <row r="2915">
       <c r="A2915" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2915" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2915" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="D2915" t="inlineStr"/>
-      <c r="E2915" t="inlineStr"/>
+      <c r="E2915" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="F2915" t="inlineStr"/>
-      <c r="G2915" t="inlineStr"/>
+      <c r="G2915" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="H2915" t="inlineStr">
         <is>
           <t>3</t>
@@ -94300,165 +93764,149 @@
     <row r="2916">
       <c r="A2916" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B2916" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2916" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2916" t="inlineStr"/>
-      <c r="E2916" t="inlineStr">
-        <is>
-          <t>0.52%</t>
-        </is>
-      </c>
+      <c r="E2916" t="inlineStr"/>
       <c r="F2916" t="inlineStr"/>
-      <c r="G2916" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2916" t="inlineStr"/>
       <c r="H2916" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2917">
       <c r="A2917" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2917" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2917" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2917" t="inlineStr"/>
       <c r="E2917" t="inlineStr">
         <is>
-          <t>4.83%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2917" t="inlineStr"/>
-      <c r="G2917" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="G2917" t="inlineStr"/>
       <c r="H2917" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2918">
       <c r="A2918" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2918" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2918" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2918" t="inlineStr"/>
-      <c r="E2918" t="inlineStr">
-        <is>
-          <t>0.38%</t>
-        </is>
-      </c>
+      <c r="E2918" t="inlineStr"/>
       <c r="F2918" t="inlineStr"/>
       <c r="G2918" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2918" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2919">
       <c r="A2919" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2919" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2919" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2919" t="inlineStr"/>
       <c r="E2919" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F2919" t="inlineStr"/>
       <c r="G2919" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H2919" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2920">
       <c r="A2920" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2920" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2920" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2920" t="inlineStr"/>
       <c r="E2920" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2920" t="inlineStr"/>
       <c r="G2920" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2920" t="inlineStr">
@@ -94470,29 +93918,29 @@
     <row r="2921">
       <c r="A2921" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2921" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2921" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2921" t="inlineStr"/>
       <c r="E2921" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="F2921" t="inlineStr"/>
       <c r="G2921" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="H2921" t="inlineStr">
@@ -94504,29 +93952,29 @@
     <row r="2922">
       <c r="A2922" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2922" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2922" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2922" t="inlineStr"/>
       <c r="E2922" t="inlineStr">
         <is>
-          <t>-19.5%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F2922" t="inlineStr"/>
       <c r="G2922" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="H2922" t="inlineStr">
@@ -94538,29 +93986,29 @@
     <row r="2923">
       <c r="A2923" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2923" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2923" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2923" t="inlineStr"/>
       <c r="E2923" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2923" t="inlineStr"/>
       <c r="G2923" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2923" t="inlineStr">
@@ -94572,63 +94020,67 @@
     <row r="2924">
       <c r="A2924" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2924" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2924" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2924" t="inlineStr"/>
       <c r="E2924" t="inlineStr">
         <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="F2924" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2924" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="G2924" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H2924" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2925">
       <c r="A2925" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2925" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2925" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2925" t="inlineStr"/>
       <c r="E2925" t="inlineStr">
         <is>
-          <t>90.9K</t>
+          <t>$4.8B</t>
         </is>
       </c>
       <c r="F2925" t="inlineStr"/>
       <c r="G2925" t="inlineStr">
         <is>
-          <t>5K</t>
+          <t>$4.1B</t>
         </is>
       </c>
       <c r="H2925" t="inlineStr">
@@ -94640,131 +94092,99 @@
     <row r="2926">
       <c r="A2926" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2926" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2926" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2926" t="inlineStr"/>
-      <c r="E2926" t="inlineStr">
-        <is>
-          <t>57.5K</t>
-        </is>
-      </c>
+      <c r="E2926" t="inlineStr"/>
       <c r="F2926" t="inlineStr"/>
-      <c r="G2926" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="G2926" t="inlineStr"/>
       <c r="H2926" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2927">
       <c r="A2927" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2927" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2927" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2927" t="inlineStr"/>
-      <c r="E2927" t="inlineStr">
-        <is>
-          <t>33.5K</t>
-        </is>
-      </c>
+      <c r="E2927" t="inlineStr"/>
       <c r="F2927" t="inlineStr"/>
-      <c r="G2927" t="inlineStr">
-        <is>
-          <t>8K</t>
-        </is>
-      </c>
+      <c r="G2927" t="inlineStr"/>
       <c r="H2927" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2928">
-      <c r="A2928" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2928" t="inlineStr"/>
       <c r="B2928" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2928" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2928" t="inlineStr"/>
-      <c r="E2928" t="inlineStr">
-        <is>
-          <t>65.1%</t>
-        </is>
-      </c>
+      <c r="E2928" t="inlineStr"/>
       <c r="F2928" t="inlineStr"/>
-      <c r="G2928" t="inlineStr">
-        <is>
-          <t>65.0%</t>
-        </is>
-      </c>
+      <c r="G2928" t="inlineStr"/>
       <c r="H2928" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2929">
-      <c r="A2929" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2929" t="inlineStr"/>
       <c r="B2929" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2929" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2929" t="inlineStr"/>
       <c r="E2929" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2929" t="inlineStr"/>
       <c r="G2929" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.3T</t>
         </is>
       </c>
       <c r="H2929" t="inlineStr">
@@ -94774,79 +94194,59 @@
       </c>
     </row>
     <row r="2930">
-      <c r="A2930" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2930" t="inlineStr"/>
       <c r="B2930" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2930" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2930" t="inlineStr"/>
-      <c r="E2930" t="inlineStr">
-        <is>
-          <t>256K</t>
-        </is>
-      </c>
+      <c r="E2930" t="inlineStr"/>
       <c r="F2930" t="inlineStr"/>
-      <c r="G2930" t="inlineStr">
-        <is>
-          <t>205K</t>
-        </is>
-      </c>
+      <c r="G2930" t="inlineStr"/>
       <c r="H2930" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2931">
-      <c r="A2931" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2931" t="inlineStr"/>
       <c r="B2931" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2931" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2931" t="inlineStr"/>
       <c r="E2931" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>118.1</t>
         </is>
       </c>
       <c r="F2931" t="inlineStr"/>
       <c r="G2931" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H2931" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2932">
-      <c r="A2932" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2932" t="inlineStr"/>
       <c r="B2932" t="inlineStr">
         <is>
           <t>US</t>
@@ -94854,33 +94254,25 @@
       </c>
       <c r="C2932" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2932" t="inlineStr"/>
       <c r="E2932" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2932" t="inlineStr"/>
-      <c r="G2932" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2932" t="inlineStr"/>
       <c r="H2932" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2933">
-      <c r="A2933" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2933" t="inlineStr"/>
       <c r="B2933" t="inlineStr">
         <is>
           <t>US</t>
@@ -94888,87 +94280,63 @@
       </c>
       <c r="C2933" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2933" t="inlineStr"/>
       <c r="E2933" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2933" t="inlineStr"/>
-      <c r="G2933" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="G2933" t="inlineStr"/>
       <c r="H2933" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2934">
       <c r="A2934" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2934" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2934" t="inlineStr">
-        <is>
-          <t>Participation RateJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2934" t="inlineStr"/>
+      <c r="C2934" t="inlineStr"/>
       <c r="D2934" t="inlineStr"/>
-      <c r="E2934" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="E2934" t="inlineStr"/>
       <c r="F2934" t="inlineStr"/>
-      <c r="G2934" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="H2934" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2934" t="inlineStr"/>
+      <c r="H2934" t="inlineStr"/>
     </row>
     <row r="2935">
       <c r="A2935" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2935" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2935" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2935" t="inlineStr"/>
       <c r="E2935" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2935" t="inlineStr"/>
       <c r="G2935" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2935" t="inlineStr">
@@ -94980,7 +94348,7 @@
     <row r="2936">
       <c r="A2936" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2936" t="inlineStr">
@@ -94990,19 +94358,19 @@
       </c>
       <c r="C2936" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2936" t="inlineStr"/>
       <c r="E2936" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>$-7.49B</t>
         </is>
       </c>
       <c r="F2936" t="inlineStr"/>
       <c r="G2936" t="inlineStr">
         <is>
-          <t>25K</t>
+          <t>$ 18B</t>
         </is>
       </c>
       <c r="H2936" t="inlineStr">
@@ -95014,834 +94382,114 @@
     <row r="2937">
       <c r="A2937" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2937" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2937" t="inlineStr">
-        <is>
-          <t>Manufacturing PayrollsJAN</t>
-        </is>
-      </c>
+          <t>Sunday February 09 2025</t>
+        </is>
+      </c>
+      <c r="B2937" t="inlineStr"/>
+      <c r="C2937" t="inlineStr"/>
       <c r="D2937" t="inlineStr"/>
-      <c r="E2937" t="inlineStr">
-        <is>
-          <t>-13K</t>
-        </is>
-      </c>
+      <c r="E2937" t="inlineStr"/>
       <c r="F2937" t="inlineStr"/>
-      <c r="G2937" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H2937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2937" t="inlineStr"/>
+      <c r="H2937" t="inlineStr"/>
     </row>
     <row r="2938">
       <c r="A2938" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2938" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2938" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2938" t="inlineStr"/>
       <c r="E2938" t="inlineStr">
         <is>
-          <t>223K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2938" t="inlineStr"/>
       <c r="G2938" t="inlineStr">
         <is>
-          <t>180K</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2938" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2939">
       <c r="A2939" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2939" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2939" t="inlineStr">
         <is>
-          <t>U-6 Unemployment Rate</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2939" t="inlineStr"/>
       <c r="E2939" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F2939" t="inlineStr"/>
       <c r="G2939" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2939" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2940">
       <c r="A2940" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2940" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2940" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2940" t="inlineStr"/>
-      <c r="E2940" t="inlineStr"/>
+      <c r="E2940" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="F2940" t="inlineStr"/>
-      <c r="G2940" t="inlineStr"/>
+      <c r="G2940" t="inlineStr">
+        <is>
+          <t>-2.4%</t>
+        </is>
+      </c>
       <c r="H2940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2941">
-      <c r="A2941" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2941" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2941" t="inlineStr">
-        <is>
-          <t>Treasury Cash BalanceJAN</t>
-        </is>
-      </c>
-      <c r="D2941" t="inlineStr"/>
-      <c r="E2941" t="inlineStr">
-        <is>
-          <t>TRY-323.9B</t>
-        </is>
-      </c>
-      <c r="F2941" t="inlineStr"/>
-      <c r="G2941" t="inlineStr"/>
-      <c r="H2941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2942">
-      <c r="A2942" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2942" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2942" t="inlineStr">
-        <is>
-          <t>Full Year GDP Growth2025</t>
-        </is>
-      </c>
-      <c r="D2942" t="inlineStr"/>
-      <c r="E2942" t="inlineStr"/>
-      <c r="F2942" t="inlineStr"/>
-      <c r="G2942" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="H2942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2943">
-      <c r="A2943" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2943" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2943" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2943" t="inlineStr"/>
-      <c r="E2943" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="F2943" t="inlineStr"/>
-      <c r="G2943" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="H2943" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2944">
-      <c r="A2944" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2944" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2944" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2944" t="inlineStr"/>
-      <c r="E2944" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2944" t="inlineStr"/>
-      <c r="G2944" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H2944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2945">
-      <c r="A2945" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2945" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2945" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2945" t="inlineStr"/>
-      <c r="E2945" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="F2945" t="inlineStr"/>
-      <c r="G2945" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
-      </c>
-      <c r="H2945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2946">
-      <c r="A2946" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2946" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2946" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2946" t="inlineStr"/>
-      <c r="E2946" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="F2946" t="inlineStr"/>
-      <c r="G2946" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
-      <c r="H2946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2947">
-      <c r="A2947" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2947" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2947" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2947" t="inlineStr"/>
-      <c r="E2947" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2947" t="inlineStr"/>
-      <c r="G2947" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H2947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2948">
-      <c r="A2948" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2948" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2948" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2948" t="inlineStr"/>
-      <c r="E2948" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2948" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="G2948" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H2948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2949">
-      <c r="A2949" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2949" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2949" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2949" t="inlineStr"/>
-      <c r="E2949" t="inlineStr">
-        <is>
-          <t>$4.8B</t>
-        </is>
-      </c>
-      <c r="F2949" t="inlineStr"/>
-      <c r="G2949" t="inlineStr">
-        <is>
-          <t>$4.1B</t>
-        </is>
-      </c>
-      <c r="H2949" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2950">
-      <c r="A2950" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2950" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2950" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2950" t="inlineStr"/>
-      <c r="E2950" t="inlineStr"/>
-      <c r="F2950" t="inlineStr"/>
-      <c r="G2950" t="inlineStr"/>
-      <c r="H2950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2951">
-      <c r="A2951" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2951" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2951" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2951" t="inlineStr"/>
-      <c r="E2951" t="inlineStr"/>
-      <c r="F2951" t="inlineStr"/>
-      <c r="G2951" t="inlineStr"/>
-      <c r="H2951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2952">
-      <c r="A2952" t="inlineStr"/>
-      <c r="B2952" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2952" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2952" t="inlineStr"/>
-      <c r="E2952" t="inlineStr"/>
-      <c r="F2952" t="inlineStr"/>
-      <c r="G2952" t="inlineStr"/>
-      <c r="H2952" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2953">
-      <c r="A2953" t="inlineStr"/>
-      <c r="B2953" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2953" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2953" t="inlineStr"/>
-      <c r="E2953" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2953" t="inlineStr"/>
-      <c r="G2953" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
-      <c r="H2953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2954">
-      <c r="A2954" t="inlineStr"/>
-      <c r="B2954" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2954" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2954" t="inlineStr"/>
-      <c r="E2954" t="inlineStr"/>
-      <c r="F2954" t="inlineStr"/>
-      <c r="G2954" t="inlineStr"/>
-      <c r="H2954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2955">
-      <c r="A2955" t="inlineStr"/>
-      <c r="B2955" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2955" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D2955" t="inlineStr"/>
-      <c r="E2955" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
-      <c r="F2955" t="inlineStr"/>
-      <c r="G2955" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="H2955" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2956">
-      <c r="A2956" t="inlineStr"/>
-      <c r="B2956" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2956" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2956" t="inlineStr"/>
-      <c r="E2956" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F2956" t="inlineStr"/>
-      <c r="G2956" t="inlineStr"/>
-      <c r="H2956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2957">
-      <c r="A2957" t="inlineStr"/>
-      <c r="B2957" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2957" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2957" t="inlineStr"/>
-      <c r="E2957" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2957" t="inlineStr"/>
-      <c r="G2957" t="inlineStr"/>
-      <c r="H2957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2958">
-      <c r="A2958" t="inlineStr">
-        <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2958" t="inlineStr"/>
-      <c r="C2958" t="inlineStr"/>
-      <c r="D2958" t="inlineStr"/>
-      <c r="E2958" t="inlineStr"/>
-      <c r="F2958" t="inlineStr"/>
-      <c r="G2958" t="inlineStr"/>
-      <c r="H2958" t="inlineStr"/>
-    </row>
-    <row r="2959">
-      <c r="A2959" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B2959" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2959" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2959" t="inlineStr"/>
-      <c r="E2959" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2959" t="inlineStr"/>
-      <c r="G2959" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2960">
-      <c r="A2960" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2960" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2960" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D2960" t="inlineStr"/>
-      <c r="E2960" t="inlineStr">
-        <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="F2960" t="inlineStr"/>
-      <c r="G2960" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
-      <c r="H2960" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2961">
-      <c r="A2961" t="inlineStr">
-        <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B2961" t="inlineStr"/>
-      <c r="C2961" t="inlineStr"/>
-      <c r="D2961" t="inlineStr"/>
-      <c r="E2961" t="inlineStr"/>
-      <c r="F2961" t="inlineStr"/>
-      <c r="G2961" t="inlineStr"/>
-      <c r="H2961" t="inlineStr"/>
-    </row>
-    <row r="2962">
-      <c r="A2962" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2962" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2962" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2962" t="inlineStr"/>
-      <c r="E2962" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2962" t="inlineStr"/>
-      <c r="G2962" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H2962" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2963">
-      <c r="A2963" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2963" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2963" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2963" t="inlineStr"/>
-      <c r="E2963" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F2963" t="inlineStr"/>
-      <c r="G2963" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2963" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2964">
-      <c r="A2964" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2964" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2964" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2964" t="inlineStr"/>
-      <c r="E2964" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="F2964" t="inlineStr"/>
-      <c r="G2964" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="H2964" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-09.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2944"/>
+  <dimension ref="A1:H2920"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85955,10 +85955,8 @@
       </c>
       <c r="F2653" t="inlineStr"/>
       <c r="G2653" t="inlineStr"/>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2654">
@@ -85985,10 +85983,8 @@
       </c>
       <c r="F2654" t="inlineStr"/>
       <c r="G2654" t="inlineStr"/>
-      <c r="H2654" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2654" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2655">
@@ -86019,10 +86015,8 @@
         </is>
       </c>
       <c r="G2655" t="inlineStr"/>
-      <c r="H2655" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2655" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2656">
@@ -86053,10 +86047,8 @@
         </is>
       </c>
       <c r="G2656" t="inlineStr"/>
-      <c r="H2656" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2656" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2657">
@@ -86083,10 +86075,8 @@
       </c>
       <c r="F2657" t="inlineStr"/>
       <c r="G2657" t="inlineStr"/>
-      <c r="H2657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2657" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2658">
@@ -86113,10 +86103,8 @@
       </c>
       <c r="F2658" t="inlineStr"/>
       <c r="G2658" t="inlineStr"/>
-      <c r="H2658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2658" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2659">
@@ -86143,10 +86131,8 @@
       </c>
       <c r="F2659" t="inlineStr"/>
       <c r="G2659" t="inlineStr"/>
-      <c r="H2659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2659" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2660">
@@ -86173,10 +86159,8 @@
       </c>
       <c r="F2660" t="inlineStr"/>
       <c r="G2660" t="inlineStr"/>
-      <c r="H2660" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2660" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2661">
@@ -86203,10 +86187,8 @@
       </c>
       <c r="F2661" t="inlineStr"/>
       <c r="G2661" t="inlineStr"/>
-      <c r="H2661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2661" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2662">
@@ -86233,10 +86215,8 @@
       </c>
       <c r="F2662" t="inlineStr"/>
       <c r="G2662" t="inlineStr"/>
-      <c r="H2662" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2662" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2663">
@@ -86263,10 +86243,8 @@
       </c>
       <c r="F2663" t="inlineStr"/>
       <c r="G2663" t="inlineStr"/>
-      <c r="H2663" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2663" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2664">
@@ -86301,10 +86279,8 @@
           <t>45.3</t>
         </is>
       </c>
-      <c r="H2664" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2664" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2665">
@@ -86339,10 +86315,8 @@
           <t>44.1</t>
         </is>
       </c>
-      <c r="H2665" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2665" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2666">
@@ -86377,10 +86351,8 @@
           <t>46.1</t>
         </is>
       </c>
-      <c r="H2666" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2666" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2667">
@@ -86411,10 +86383,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2667" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2667" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2668">
@@ -86449,10 +86419,8 @@
           <t>48.2</t>
         </is>
       </c>
-      <c r="H2668" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2668" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2669">
@@ -86479,10 +86447,8 @@
       </c>
       <c r="F2669" t="inlineStr"/>
       <c r="G2669" t="inlineStr"/>
-      <c r="H2669" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2669" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2670">
@@ -86509,10 +86475,8 @@
       </c>
       <c r="F2670" t="inlineStr"/>
       <c r="G2670" t="inlineStr"/>
-      <c r="H2670" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2670" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2671">
@@ -86539,10 +86503,8 @@
       </c>
       <c r="F2671" t="inlineStr"/>
       <c r="G2671" t="inlineStr"/>
-      <c r="H2671" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2671" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2672">
@@ -86569,10 +86531,8 @@
       </c>
       <c r="F2672" t="inlineStr"/>
       <c r="G2672" t="inlineStr"/>
-      <c r="H2672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2672" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2673">
@@ -86599,10 +86559,8 @@
       </c>
       <c r="F2673" t="inlineStr"/>
       <c r="G2673" t="inlineStr"/>
-      <c r="H2673" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2673" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2674">
@@ -86629,10 +86587,8 @@
       </c>
       <c r="F2674" t="inlineStr"/>
       <c r="G2674" t="inlineStr"/>
-      <c r="H2674" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2674" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2675">
@@ -86659,10 +86615,8 @@
       </c>
       <c r="F2675" t="inlineStr"/>
       <c r="G2675" t="inlineStr"/>
-      <c r="H2675" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2675" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2676">
@@ -86689,10 +86643,8 @@
       </c>
       <c r="F2676" t="inlineStr"/>
       <c r="G2676" t="inlineStr"/>
-      <c r="H2676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2676" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2677">
@@ -86723,10 +86675,8 @@
           <t>$ 230B</t>
         </is>
       </c>
-      <c r="H2677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2677" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2678">
@@ -86757,10 +86707,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2678" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2679">
@@ -86791,10 +86739,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2679" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2680">
@@ -86821,10 +86767,8 @@
       </c>
       <c r="F2680" t="inlineStr"/>
       <c r="G2680" t="inlineStr"/>
-      <c r="H2680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2680" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2681">
@@ -86851,10 +86795,8 @@
       </c>
       <c r="F2681" t="inlineStr"/>
       <c r="G2681" t="inlineStr"/>
-      <c r="H2681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2681" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2682">
@@ -86881,10 +86823,8 @@
       </c>
       <c r="F2682" t="inlineStr"/>
       <c r="G2682" t="inlineStr"/>
-      <c r="H2682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2682" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2683">
@@ -86915,10 +86855,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2683" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2683" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2684">
@@ -86953,10 +86891,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2684" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2684" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2685">
@@ -86987,10 +86923,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2685" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2685" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2686">
@@ -87021,10 +86955,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2686" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2686" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2687">
@@ -87055,10 +86987,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2687" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2688">
@@ -87089,10 +87019,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2688" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2689">
@@ -87123,10 +87051,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H2689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2689" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2690">
@@ -87153,10 +87079,8 @@
       </c>
       <c r="F2690" t="inlineStr"/>
       <c r="G2690" t="inlineStr"/>
-      <c r="H2690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2690" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2691">
@@ -87183,10 +87107,8 @@
       </c>
       <c r="F2691" t="inlineStr"/>
       <c r="G2691" t="inlineStr"/>
-      <c r="H2691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2691" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2692">
@@ -87209,10 +87131,8 @@
       <c r="E2692" t="inlineStr"/>
       <c r="F2692" t="inlineStr"/>
       <c r="G2692" t="inlineStr"/>
-      <c r="H2692" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2692" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2693">
@@ -87231,10 +87151,8 @@
       <c r="E2693" t="inlineStr"/>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2693" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2694">
@@ -87261,10 +87179,8 @@
           <t>43.0K</t>
         </is>
       </c>
-      <c r="H2694" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2694" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2695">
@@ -87301,10 +87217,8 @@
       <c r="E2696" t="inlineStr"/>
       <c r="F2696" t="inlineStr"/>
       <c r="G2696" t="inlineStr"/>
-      <c r="H2696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2696" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2697">
@@ -87331,10 +87245,8 @@
       </c>
       <c r="F2697" t="inlineStr"/>
       <c r="G2697" t="inlineStr"/>
-      <c r="H2697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2698">
@@ -87361,10 +87273,8 @@
       </c>
       <c r="F2698" t="inlineStr"/>
       <c r="G2698" t="inlineStr"/>
-      <c r="H2698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2698" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2699">
@@ -87395,10 +87305,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H2699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2699" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2700">
@@ -87425,10 +87333,8 @@
       </c>
       <c r="F2700" t="inlineStr"/>
       <c r="G2700" t="inlineStr"/>
-      <c r="H2700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2700" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2701">
@@ -87455,10 +87361,8 @@
       </c>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
-      <c r="H2701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2701" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2702">
@@ -87485,10 +87389,8 @@
       </c>
       <c r="F2702" t="inlineStr"/>
       <c r="G2702" t="inlineStr"/>
-      <c r="H2702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2702" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2703">
@@ -87515,10 +87417,8 @@
       </c>
       <c r="F2703" t="inlineStr"/>
       <c r="G2703" t="inlineStr"/>
-      <c r="H2703" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2703" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2704">
@@ -87549,10 +87449,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2704" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2705">
@@ -87579,10 +87477,8 @@
       </c>
       <c r="F2705" t="inlineStr"/>
       <c r="G2705" t="inlineStr"/>
-      <c r="H2705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2705" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2706">
@@ -87605,10 +87501,8 @@
       <c r="E2706" t="inlineStr"/>
       <c r="F2706" t="inlineStr"/>
       <c r="G2706" t="inlineStr"/>
-      <c r="H2706" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2706" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2707">
@@ -87639,10 +87533,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2708">
@@ -87673,10 +87565,8 @@
           <t>8.2%</t>
         </is>
       </c>
-      <c r="H2708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2709">
@@ -87707,10 +87597,8 @@
           <t>50.8</t>
         </is>
       </c>
-      <c r="H2709" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2709" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2710">
@@ -87737,10 +87625,8 @@
       </c>
       <c r="F2710" t="inlineStr"/>
       <c r="G2710" t="inlineStr"/>
-      <c r="H2710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2711">
@@ -87771,10 +87657,8 @@
           <t>49.7</t>
         </is>
       </c>
-      <c r="H2711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2711" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2712">
@@ -87805,10 +87689,8 @@
           <t>7.8M</t>
         </is>
       </c>
-      <c r="H2712" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2712" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2713">
@@ -87839,10 +87721,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2713" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2713" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2714">
@@ -87873,10 +87753,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2714" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2715">
@@ -87907,10 +87785,8 @@
           <t>3.1M</t>
         </is>
       </c>
-      <c r="H2715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2715" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2716">
@@ -87941,10 +87817,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2717">
@@ -87967,10 +87841,8 @@
       <c r="E2717" t="inlineStr"/>
       <c r="F2717" t="inlineStr"/>
       <c r="G2717" t="inlineStr"/>
-      <c r="H2717" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2717" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2718">
@@ -87989,10 +87861,8 @@
       <c r="E2718" t="inlineStr"/>
       <c r="F2718" t="inlineStr"/>
       <c r="G2718" t="inlineStr"/>
-      <c r="H2718" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2718" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2719">
@@ -88011,10 +87881,8 @@
       <c r="E2719" t="inlineStr"/>
       <c r="F2719" t="inlineStr"/>
       <c r="G2719" t="inlineStr"/>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2719" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2720">
@@ -88033,10 +87901,8 @@
       <c r="E2720" t="inlineStr"/>
       <c r="F2720" t="inlineStr"/>
       <c r="G2720" t="inlineStr"/>
-      <c r="H2720" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2720" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2721">
@@ -88059,10 +87925,8 @@
       </c>
       <c r="F2721" t="inlineStr"/>
       <c r="G2721" t="inlineStr"/>
-      <c r="H2721" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2721" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2722">
@@ -88099,10 +87963,8 @@
       <c r="E2723" t="inlineStr"/>
       <c r="F2723" t="inlineStr"/>
       <c r="G2723" t="inlineStr"/>
-      <c r="H2723" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2723" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2724">
@@ -88129,10 +87991,8 @@
       </c>
       <c r="F2724" t="inlineStr"/>
       <c r="G2724" t="inlineStr"/>
-      <c r="H2724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2724" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2725">
@@ -88159,10 +88019,8 @@
       </c>
       <c r="F2725" t="inlineStr"/>
       <c r="G2725" t="inlineStr"/>
-      <c r="H2725" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2725" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2726">
@@ -88193,10 +88051,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H2726" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2726" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2727">
@@ -88227,10 +88083,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H2727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2727" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2728">
@@ -88257,10 +88111,8 @@
       </c>
       <c r="F2728" t="inlineStr"/>
       <c r="G2728" t="inlineStr"/>
-      <c r="H2728" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2728" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2729">
@@ -88287,10 +88139,8 @@
       </c>
       <c r="F2729" t="inlineStr"/>
       <c r="G2729" t="inlineStr"/>
-      <c r="H2729" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2729" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2730">
@@ -88321,10 +88171,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H2730" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2730" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2731">
@@ -88351,10 +88199,8 @@
       </c>
       <c r="F2731" t="inlineStr"/>
       <c r="G2731" t="inlineStr"/>
-      <c r="H2731" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2731" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2732">
@@ -88389,10 +88235,8 @@
           <t>52.7</t>
         </is>
       </c>
-      <c r="H2732" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2732" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2733">
@@ -88423,10 +88267,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2733" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2734">
@@ -88453,10 +88295,8 @@
       </c>
       <c r="F2734" t="inlineStr"/>
       <c r="G2734" t="inlineStr"/>
-      <c r="H2734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2734" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2735">
@@ -88487,10 +88327,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H2735" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2735" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2736">
@@ -88521,10 +88359,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2736" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2737">
@@ -88555,10 +88391,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2737" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2737" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2738">
@@ -88589,10 +88423,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2738" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2739">
@@ -88623,10 +88455,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2739" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2740">
@@ -88661,10 +88491,8 @@
           <t>57.9</t>
         </is>
       </c>
-      <c r="H2740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2740" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2741">
@@ -88699,10 +88527,8 @@
           <t>56.8</t>
         </is>
       </c>
-      <c r="H2741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2741" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2742">
@@ -88733,10 +88559,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2742" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2743">
@@ -88767,10 +88591,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2743" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2744">
@@ -88797,10 +88619,8 @@
       </c>
       <c r="F2744" t="inlineStr"/>
       <c r="G2744" t="inlineStr"/>
-      <c r="H2744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2745">
@@ -88827,10 +88647,8 @@
       </c>
       <c r="F2745" t="inlineStr"/>
       <c r="G2745" t="inlineStr"/>
-      <c r="H2745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2745" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2746">
@@ -88857,10 +88675,8 @@
       </c>
       <c r="F2746" t="inlineStr"/>
       <c r="G2746" t="inlineStr"/>
-      <c r="H2746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2746" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2747">
@@ -88891,10 +88707,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2747" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2747" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2748">
@@ -88921,10 +88735,8 @@
       </c>
       <c r="F2748" t="inlineStr"/>
       <c r="G2748" t="inlineStr"/>
-      <c r="H2748" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2748" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2749">
@@ -88951,10 +88763,8 @@
       </c>
       <c r="F2749" t="inlineStr"/>
       <c r="G2749" t="inlineStr"/>
-      <c r="H2749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2749" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2750">
@@ -88981,10 +88791,8 @@
       </c>
       <c r="F2750" t="inlineStr"/>
       <c r="G2750" t="inlineStr"/>
-      <c r="H2750" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2750" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2751">
@@ -89011,10 +88819,8 @@
       </c>
       <c r="F2751" t="inlineStr"/>
       <c r="G2751" t="inlineStr"/>
-      <c r="H2751" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2751" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2752">
@@ -89049,10 +88855,8 @@
           <t>48.9</t>
         </is>
       </c>
-      <c r="H2752" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2752" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2753">
@@ -89087,10 +88891,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H2753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2754">
@@ -89125,10 +88927,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2754" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2754" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2755">
@@ -89163,10 +88963,8 @@
           <t>52.5</t>
         </is>
       </c>
-      <c r="H2755" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2755" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2756">
@@ -89201,10 +88999,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2756" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2756" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2757">
@@ -89239,10 +89035,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2757" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2757" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2758">
@@ -89273,10 +89067,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2758" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2758" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2759">
@@ -89307,10 +89099,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2759" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2760">
@@ -89341,10 +89131,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2761">
@@ -89379,10 +89167,8 @@
           <t>51.2</t>
         </is>
       </c>
-      <c r="H2761" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2761" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2762">
@@ -89417,10 +89203,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2763">
@@ -89451,10 +89235,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2764">
@@ -89485,10 +89267,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H2764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2765">
@@ -89515,10 +89295,8 @@
       </c>
       <c r="F2765" t="inlineStr"/>
       <c r="G2765" t="inlineStr"/>
-      <c r="H2765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2766">
@@ -89545,10 +89323,8 @@
       </c>
       <c r="F2766" t="inlineStr"/>
       <c r="G2766" t="inlineStr"/>
-      <c r="H2766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2767">
@@ -89575,10 +89351,8 @@
       </c>
       <c r="F2767" t="inlineStr"/>
       <c r="G2767" t="inlineStr"/>
-      <c r="H2767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2768">
@@ -89605,10 +89379,8 @@
       </c>
       <c r="F2768" t="inlineStr"/>
       <c r="G2768" t="inlineStr"/>
-      <c r="H2768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2769">
@@ -89639,10 +89411,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2769" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2769" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2770">
@@ -89673,10 +89443,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2770" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2771">
@@ -89707,10 +89475,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2771" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2772">
@@ -89741,10 +89507,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H2772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2772" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2773">
@@ -89771,10 +89535,8 @@
       </c>
       <c r="F2773" t="inlineStr"/>
       <c r="G2773" t="inlineStr"/>
-      <c r="H2773" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2773" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2774">
@@ -89801,10 +89563,8 @@
       </c>
       <c r="F2774" t="inlineStr"/>
       <c r="G2774" t="inlineStr"/>
-      <c r="H2774" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2774" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2775">
@@ -89831,10 +89591,8 @@
       </c>
       <c r="F2775" t="inlineStr"/>
       <c r="G2775" t="inlineStr"/>
-      <c r="H2775" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2775" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2776">
@@ -89861,10 +89619,8 @@
       </c>
       <c r="F2776" t="inlineStr"/>
       <c r="G2776" t="inlineStr"/>
-      <c r="H2776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2776" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2777">
@@ -89891,10 +89647,8 @@
       </c>
       <c r="F2777" t="inlineStr"/>
       <c r="G2777" t="inlineStr"/>
-      <c r="H2777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2777" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2778">
@@ -89925,10 +89679,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2778" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2778" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2779">
@@ -89959,10 +89711,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2780">
@@ -89993,10 +89743,8 @@
           <t>115.0K</t>
         </is>
       </c>
-      <c r="H2780" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2780" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2781">
@@ -90027,10 +89775,8 @@
           <t>C$ -1.3B</t>
         </is>
       </c>
-      <c r="H2781" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2781" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2782">
@@ -90061,10 +89807,8 @@
           <t>C$ 65.8B</t>
         </is>
       </c>
-      <c r="H2782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2782" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2783">
@@ -90095,10 +89839,8 @@
           <t>C$ 64.5B</t>
         </is>
       </c>
-      <c r="H2783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2783" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2784">
@@ -90129,10 +89871,8 @@
           <t>$ -103.0B</t>
         </is>
       </c>
-      <c r="H2784" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2784" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2785">
@@ -90163,10 +89903,8 @@
           <t>$ 260B</t>
         </is>
       </c>
-      <c r="H2785" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2785" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2786">
@@ -90197,10 +89935,8 @@
           <t>$ 363.0B</t>
         </is>
       </c>
-      <c r="H2786" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2786" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2787">
@@ -90223,10 +89959,8 @@
       <c r="E2787" t="inlineStr"/>
       <c r="F2787" t="inlineStr"/>
       <c r="G2787" t="inlineStr"/>
-      <c r="H2787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2787" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2788">
@@ -90257,10 +89991,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2789">
@@ -90291,10 +90023,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H2789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2790">
@@ -90329,10 +90059,8 @@
           <t>52.4</t>
         </is>
       </c>
-      <c r="H2790" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2790" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2791">
@@ -90367,10 +90095,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2791" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2791" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2792">
@@ -90401,10 +90127,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H2792" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2792" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2793">
@@ -90435,10 +90159,8 @@
           <t>58.1</t>
         </is>
       </c>
-      <c r="H2793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2794">
@@ -90469,10 +90191,8 @@
           <t>51.3</t>
         </is>
       </c>
-      <c r="H2794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2794" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2795">
@@ -90503,10 +90223,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H2795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2796">
@@ -90537,10 +90255,8 @@
           <t>64.8</t>
         </is>
       </c>
-      <c r="H2796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2796" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2797">
@@ -90567,10 +90283,8 @@
       </c>
       <c r="F2797" t="inlineStr"/>
       <c r="G2797" t="inlineStr"/>
-      <c r="H2797" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2797" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2798">
@@ -90597,10 +90311,8 @@
       </c>
       <c r="F2798" t="inlineStr"/>
       <c r="G2798" t="inlineStr"/>
-      <c r="H2798" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2798" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2799">
@@ -90627,10 +90339,8 @@
       </c>
       <c r="F2799" t="inlineStr"/>
       <c r="G2799" t="inlineStr"/>
-      <c r="H2799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2800">
@@ -90657,10 +90367,8 @@
       </c>
       <c r="F2800" t="inlineStr"/>
       <c r="G2800" t="inlineStr"/>
-      <c r="H2800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2800" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2801">
@@ -90687,10 +90395,8 @@
       </c>
       <c r="F2801" t="inlineStr"/>
       <c r="G2801" t="inlineStr"/>
-      <c r="H2801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2801" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2802">
@@ -90717,10 +90423,8 @@
       </c>
       <c r="F2802" t="inlineStr"/>
       <c r="G2802" t="inlineStr"/>
-      <c r="H2802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2802" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2803">
@@ -90747,10 +90451,8 @@
       </c>
       <c r="F2803" t="inlineStr"/>
       <c r="G2803" t="inlineStr"/>
-      <c r="H2803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2804">
@@ -90777,10 +90479,8 @@
       </c>
       <c r="F2804" t="inlineStr"/>
       <c r="G2804" t="inlineStr"/>
-      <c r="H2804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2804" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2805">
@@ -90807,10 +90507,8 @@
       </c>
       <c r="F2805" t="inlineStr"/>
       <c r="G2805" t="inlineStr"/>
-      <c r="H2805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2805" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2806">
@@ -90841,10 +90539,8 @@
           <t>2.40%</t>
         </is>
       </c>
-      <c r="H2806" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2806" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2807">
@@ -90871,10 +90567,8 @@
       </c>
       <c r="F2807" t="inlineStr"/>
       <c r="G2807" t="inlineStr"/>
-      <c r="H2807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2807" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2808">
@@ -90901,10 +90595,8 @@
       </c>
       <c r="F2808" t="inlineStr"/>
       <c r="G2808" t="inlineStr"/>
-      <c r="H2808" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2808" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2809">
@@ -90935,10 +90627,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2809" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2810">
@@ -90965,10 +90655,8 @@
       </c>
       <c r="F2810" t="inlineStr"/>
       <c r="G2810" t="inlineStr"/>
-      <c r="H2810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2811">
@@ -90999,10 +90687,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2812">
@@ -91029,10 +90715,8 @@
       </c>
       <c r="F2812" t="inlineStr"/>
       <c r="G2812" t="inlineStr"/>
-      <c r="H2812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2813">
@@ -91059,10 +90743,8 @@
       </c>
       <c r="F2813" t="inlineStr"/>
       <c r="G2813" t="inlineStr"/>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2814">
@@ -91085,10 +90767,8 @@
       <c r="E2814" t="inlineStr"/>
       <c r="F2814" t="inlineStr"/>
       <c r="G2814" t="inlineStr"/>
-      <c r="H2814" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2814" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2815">
@@ -91111,10 +90791,8 @@
       </c>
       <c r="F2815" t="inlineStr"/>
       <c r="G2815" t="inlineStr"/>
-      <c r="H2815" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2815" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2816">
@@ -91159,10 +90837,8 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="H2817" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2817" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2818">
@@ -91193,10 +90869,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H2818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2819">
@@ -91227,10 +90901,8 @@
           <t>-13</t>
         </is>
       </c>
-      <c r="H2819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2820">
@@ -91261,10 +90933,8 @@
           <t>$ 8.1B</t>
         </is>
       </c>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2821">
@@ -91291,10 +90961,8 @@
       </c>
       <c r="F2821" t="inlineStr"/>
       <c r="G2821" t="inlineStr"/>
-      <c r="H2821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2822">
@@ -91317,10 +90985,8 @@
       <c r="E2822" t="inlineStr"/>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr"/>
-      <c r="H2822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2823">
@@ -91343,10 +91009,8 @@
       <c r="E2823" t="inlineStr"/>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
-      <c r="H2823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2824">
@@ -91377,10 +91041,8 @@
           <t>A$ 3.2B</t>
         </is>
       </c>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2824" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2825">
@@ -91407,10 +91069,8 @@
       </c>
       <c r="F2825" t="inlineStr"/>
       <c r="G2825" t="inlineStr"/>
-      <c r="H2825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2826">
@@ -91437,10 +91097,8 @@
       </c>
       <c r="F2826" t="inlineStr"/>
       <c r="G2826" t="inlineStr"/>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2827">
@@ -91467,10 +91125,8 @@
       </c>
       <c r="F2827" t="inlineStr"/>
       <c r="G2827" t="inlineStr"/>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2828">
@@ -91497,10 +91153,8 @@
       </c>
       <c r="F2828" t="inlineStr"/>
       <c r="G2828" t="inlineStr"/>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2829">
@@ -91531,10 +91185,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2829" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2830">
@@ -91561,10 +91213,8 @@
       </c>
       <c r="F2830" t="inlineStr"/>
       <c r="G2830" t="inlineStr"/>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2831">
@@ -91591,10 +91241,8 @@
       </c>
       <c r="F2831" t="inlineStr"/>
       <c r="G2831" t="inlineStr"/>
-      <c r="H2831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2832">
@@ -91621,10 +91269,8 @@
       </c>
       <c r="F2832" t="inlineStr"/>
       <c r="G2832" t="inlineStr"/>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2832" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2833">
@@ -91651,10 +91297,8 @@
       </c>
       <c r="F2833" t="inlineStr"/>
       <c r="G2833" t="inlineStr"/>
-      <c r="H2833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2834">
@@ -91685,10 +91329,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H2834" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2834" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2835">
@@ -91719,10 +91361,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2835" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2835" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2836">
@@ -91753,10 +91393,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2836" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2836" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2837">
@@ -91779,10 +91417,8 @@
       <c r="E2837" t="inlineStr"/>
       <c r="F2837" t="inlineStr"/>
       <c r="G2837" t="inlineStr"/>
-      <c r="H2837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2838">
@@ -91805,10 +91441,8 @@
       <c r="E2838" t="inlineStr"/>
       <c r="F2838" t="inlineStr"/>
       <c r="G2838" t="inlineStr"/>
-      <c r="H2838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2839">
@@ -91839,10 +91473,8 @@
           <t>46.5</t>
         </is>
       </c>
-      <c r="H2839" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2839" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2840">
@@ -91877,10 +91509,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2840" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2840" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2841">
@@ -91903,10 +91533,8 @@
       <c r="E2841" t="inlineStr"/>
       <c r="F2841" t="inlineStr"/>
       <c r="G2841" t="inlineStr"/>
-      <c r="H2841" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2841" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2842">
@@ -91929,10 +91557,8 @@
       <c r="E2842" t="inlineStr"/>
       <c r="F2842" t="inlineStr"/>
       <c r="G2842" t="inlineStr"/>
-      <c r="H2842" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2842" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2843">
@@ -91955,10 +91581,8 @@
       <c r="E2843" t="inlineStr"/>
       <c r="F2843" t="inlineStr"/>
       <c r="G2843" t="inlineStr"/>
-      <c r="H2843" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2843" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2844">
@@ -91981,10 +91605,8 @@
       <c r="E2844" t="inlineStr"/>
       <c r="F2844" t="inlineStr"/>
       <c r="G2844" t="inlineStr"/>
-      <c r="H2844" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2844" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2845">
@@ -92007,10 +91629,8 @@
       <c r="E2845" t="inlineStr"/>
       <c r="F2845" t="inlineStr"/>
       <c r="G2845" t="inlineStr"/>
-      <c r="H2845" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2845" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2846">
@@ -92041,10 +91661,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="H2846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2847">
@@ -92067,10 +91685,8 @@
       <c r="E2847" t="inlineStr"/>
       <c r="F2847" t="inlineStr"/>
       <c r="G2847" t="inlineStr"/>
-      <c r="H2847" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2847" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2848">
@@ -92101,10 +91717,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2848" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2848" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2849">
@@ -92135,10 +91749,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2849" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2849" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2850">
@@ -92161,10 +91773,8 @@
       <c r="E2850" t="inlineStr"/>
       <c r="F2850" t="inlineStr"/>
       <c r="G2850" t="inlineStr"/>
-      <c r="H2850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2851">
@@ -92187,10 +91797,8 @@
       <c r="E2851" t="inlineStr"/>
       <c r="F2851" t="inlineStr"/>
       <c r="G2851" t="inlineStr"/>
-      <c r="H2851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2852">
@@ -92221,10 +91829,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H2852" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2852" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2853">
@@ -92247,10 +91853,8 @@
       <c r="E2853" t="inlineStr"/>
       <c r="F2853" t="inlineStr"/>
       <c r="G2853" t="inlineStr"/>
-      <c r="H2853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2854">
@@ -92273,10 +91877,8 @@
       <c r="E2854" t="inlineStr"/>
       <c r="F2854" t="inlineStr"/>
       <c r="G2854" t="inlineStr"/>
-      <c r="H2854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2854" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2855">
@@ -92299,10 +91901,8 @@
       <c r="E2855" t="inlineStr"/>
       <c r="F2855" t="inlineStr"/>
       <c r="G2855" t="inlineStr"/>
-      <c r="H2855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2856">
@@ -92329,10 +91929,8 @@
       </c>
       <c r="F2856" t="inlineStr"/>
       <c r="G2856" t="inlineStr"/>
-      <c r="H2856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2857">
@@ -92355,10 +91953,8 @@
       <c r="E2857" t="inlineStr"/>
       <c r="F2857" t="inlineStr"/>
       <c r="G2857" t="inlineStr"/>
-      <c r="H2857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2858">
@@ -92381,10 +91977,8 @@
       <c r="E2858" t="inlineStr"/>
       <c r="F2858" t="inlineStr"/>
       <c r="G2858" t="inlineStr"/>
-      <c r="H2858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2859">
@@ -92407,10 +92001,8 @@
       </c>
       <c r="F2859" t="inlineStr"/>
       <c r="G2859" t="inlineStr"/>
-      <c r="H2859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2860">
@@ -92433,10 +92025,8 @@
       </c>
       <c r="F2860" t="inlineStr"/>
       <c r="G2860" t="inlineStr"/>
-      <c r="H2860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2861">
@@ -92455,10 +92045,8 @@
       <c r="E2861" t="inlineStr"/>
       <c r="F2861" t="inlineStr"/>
       <c r="G2861" t="inlineStr"/>
-      <c r="H2861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2862">
@@ -92477,10 +92065,8 @@
       <c r="E2862" t="inlineStr"/>
       <c r="F2862" t="inlineStr"/>
       <c r="G2862" t="inlineStr"/>
-      <c r="H2862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2863">
@@ -92499,10 +92085,8 @@
       <c r="E2863" t="inlineStr"/>
       <c r="F2863" t="inlineStr"/>
       <c r="G2863" t="inlineStr"/>
-      <c r="H2863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2864">
@@ -92525,104 +92109,134 @@
       </c>
       <c r="F2864" t="inlineStr"/>
       <c r="G2864" t="inlineStr"/>
-      <c r="H2864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2865">
       <c r="A2865" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2865" t="inlineStr"/>
-      <c r="C2865" t="inlineStr"/>
+          <t>01:15 PM</t>
+        </is>
+      </c>
+      <c r="B2865" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2865" t="inlineStr">
+        <is>
+          <t>ImportsDEC</t>
+        </is>
+      </c>
       <c r="D2865" t="inlineStr"/>
-      <c r="E2865" t="inlineStr"/>
+      <c r="E2865" t="inlineStr">
+        <is>
+          <t>€57.186B</t>
+        </is>
+      </c>
       <c r="F2865" t="inlineStr"/>
-      <c r="G2865" t="inlineStr"/>
-      <c r="H2865" t="inlineStr"/>
+      <c r="G2865" t="inlineStr">
+        <is>
+          <t>€ 56.9B</t>
+        </is>
+      </c>
+      <c r="H2865" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2866">
       <c r="A2866" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2866" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2866" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D2866" t="inlineStr"/>
       <c r="E2866" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2866" t="inlineStr"/>
       <c r="G2866" t="inlineStr">
         <is>
-          <t>9.75%</t>
+          <t>20200%</t>
         </is>
       </c>
       <c r="H2866" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2867">
       <c r="A2867" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2867" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2867" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2867" t="inlineStr"/>
-      <c r="E2867" t="inlineStr"/>
+      <c r="E2867" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2867" t="inlineStr"/>
-      <c r="G2867" t="inlineStr"/>
+      <c r="G2867" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
       <c r="H2867" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2868">
       <c r="A2868" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2868" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2868" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/05</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2868" t="inlineStr"/>
-      <c r="E2868" t="inlineStr"/>
+      <c r="E2868" t="inlineStr">
+        <is>
+          <t>S$506.7B</t>
+        </is>
+      </c>
       <c r="F2868" t="inlineStr"/>
       <c r="G2868" t="inlineStr"/>
       <c r="H2868" t="inlineStr">
@@ -92634,89 +92248,81 @@
     <row r="2869">
       <c r="A2869" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2869" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="C2869" t="inlineStr">
         <is>
-          <t>Household Spending MoMDEC</t>
+          <t>FAO Food Price IndexJAN</t>
         </is>
       </c>
       <c r="D2869" t="inlineStr"/>
       <c r="E2869" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="F2869" t="inlineStr"/>
       <c r="G2869" t="inlineStr"/>
       <c r="H2869" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2870">
       <c r="A2870" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2870" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2870" t="inlineStr">
         <is>
-          <t>Household Spending YoYDEC</t>
+          <t>BBA Mortgage RateJAN</t>
         </is>
       </c>
       <c r="D2870" t="inlineStr"/>
       <c r="E2870" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>7.50%</t>
         </is>
       </c>
       <c r="F2870" t="inlineStr"/>
-      <c r="G2870" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2870" t="inlineStr"/>
       <c r="H2870" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2871">
       <c r="A2871" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2871" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2871" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Foreign Exchange ReservesJAN/31</t>
         </is>
       </c>
       <c r="D2871" t="inlineStr"/>
-      <c r="E2871" t="inlineStr">
-        <is>
-          <t>$155.7B</t>
-        </is>
-      </c>
+      <c r="E2871" t="inlineStr"/>
       <c r="F2871" t="inlineStr"/>
       <c r="G2871" t="inlineStr"/>
       <c r="H2871" t="inlineStr">
@@ -92728,145 +92334,165 @@
     <row r="2872">
       <c r="A2872" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2872" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2872" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2872" t="inlineStr"/>
-      <c r="E2872" t="inlineStr"/>
+      <c r="E2872" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
+      </c>
       <c r="F2872" t="inlineStr"/>
-      <c r="G2872" t="inlineStr"/>
+      <c r="G2872" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2872" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2873">
       <c r="A2873" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2873" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2873" t="inlineStr">
         <is>
-          <t>RBI Interest Rate Decision</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2873" t="inlineStr"/>
       <c r="E2873" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>4.83%</t>
         </is>
       </c>
       <c r="F2873" t="inlineStr"/>
-      <c r="G2873" t="inlineStr"/>
+      <c r="G2873" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
       <c r="H2873" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2874">
       <c r="A2874" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2874" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2874" t="inlineStr">
         <is>
-          <t>Cash Reserve Ratio</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2874" t="inlineStr"/>
       <c r="E2874" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>0.38%</t>
         </is>
       </c>
       <c r="F2874" t="inlineStr"/>
-      <c r="G2874" t="inlineStr"/>
+      <c r="G2874" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2874" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2875">
       <c r="A2875" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2875" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2875" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2875" t="inlineStr"/>
       <c r="E2875" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>4.21%</t>
         </is>
       </c>
       <c r="F2875" t="inlineStr"/>
-      <c r="G2875" t="inlineStr"/>
+      <c r="G2875" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="H2875" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2876">
       <c r="A2876" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2876" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2876" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2876" t="inlineStr"/>
       <c r="E2876" t="inlineStr">
         <is>
-          <t>107.5</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="F2876" t="inlineStr"/>
       <c r="G2876" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2876" t="inlineStr">
@@ -92878,29 +92504,29 @@
     <row r="2877">
       <c r="A2877" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2877" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2877" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2877" t="inlineStr"/>
       <c r="E2877" t="inlineStr">
         <is>
-          <t>$65.46B</t>
+          <t>3.65%</t>
         </is>
       </c>
       <c r="F2877" t="inlineStr"/>
       <c r="G2877" t="inlineStr">
         <is>
-          <t>$65.0B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2877" t="inlineStr">
@@ -92912,163 +92538,167 @@
     <row r="2878">
       <c r="A2878" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2878" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2878" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2878" t="inlineStr"/>
       <c r="E2878" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2878" t="inlineStr"/>
       <c r="G2878" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2878" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2879">
       <c r="A2879" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2879" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2879" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2879" t="inlineStr"/>
       <c r="E2879" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2879" t="inlineStr"/>
       <c r="G2879" t="inlineStr">
         <is>
-          <t>130%</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2879" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2880">
       <c r="A2880" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2880" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2880" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2880" t="inlineStr"/>
       <c r="E2880" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F2880" t="inlineStr"/>
       <c r="G2880" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="H2880" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2881">
       <c r="A2881" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2881" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2881" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2881" t="inlineStr"/>
       <c r="E2881" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2881" t="inlineStr"/>
       <c r="G2881" t="inlineStr">
         <is>
-          <t>108%</t>
+          <t>5K</t>
         </is>
       </c>
       <c r="H2881" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2882">
       <c r="A2882" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2882" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2882" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2882" t="inlineStr"/>
       <c r="E2882" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2882" t="inlineStr"/>
-      <c r="G2882" t="inlineStr"/>
+      <c r="G2882" t="inlineStr">
+        <is>
+          <t>-3K</t>
+        </is>
+      </c>
       <c r="H2882" t="inlineStr">
         <is>
           <t>2</t>
@@ -93078,27 +92708,31 @@
     <row r="2883">
       <c r="A2883" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2883" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2883" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2883" t="inlineStr"/>
       <c r="E2883" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2883" t="inlineStr"/>
-      <c r="G2883" t="inlineStr"/>
+      <c r="G2883" t="inlineStr">
+        <is>
+          <t>8K</t>
+        </is>
+      </c>
       <c r="H2883" t="inlineStr">
         <is>
           <t>2</t>
@@ -93108,23 +92742,31 @@
     <row r="2884">
       <c r="A2884" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2884" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2884" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2884" t="inlineStr"/>
-      <c r="E2884" t="inlineStr"/>
+      <c r="E2884" t="inlineStr">
+        <is>
+          <t>65.1%</t>
+        </is>
+      </c>
       <c r="F2884" t="inlineStr"/>
-      <c r="G2884" t="inlineStr"/>
+      <c r="G2884" t="inlineStr">
+        <is>
+          <t>65.0%</t>
+        </is>
+      </c>
       <c r="H2884" t="inlineStr">
         <is>
           <t>2</t>
@@ -93134,229 +92776,233 @@
     <row r="2885">
       <c r="A2885" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2885" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2885" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2885" t="inlineStr"/>
       <c r="E2885" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F2885" t="inlineStr"/>
       <c r="G2885" t="inlineStr">
         <is>
-          <t>€ -7.2B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2885" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2886">
       <c r="A2886" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2886" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2886" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2886" t="inlineStr"/>
       <c r="E2886" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
+          <t>256K</t>
         </is>
       </c>
       <c r="F2886" t="inlineStr"/>
       <c r="G2886" t="inlineStr">
         <is>
-          <t>€ -2.5B</t>
+          <t>205K</t>
         </is>
       </c>
       <c r="H2886" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2887">
       <c r="A2887" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2887" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2887" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2887" t="inlineStr"/>
       <c r="E2887" t="inlineStr">
         <is>
-          <t>€50.101B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F2887" t="inlineStr"/>
       <c r="G2887" t="inlineStr">
         <is>
-          <t>€ 49.7B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="H2887" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2888">
       <c r="A2888" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2888" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2888" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2888" t="inlineStr"/>
       <c r="E2888" t="inlineStr">
         <is>
-          <t>€275.078B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2888" t="inlineStr"/>
-      <c r="G2888" t="inlineStr"/>
+      <c r="G2888" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2888" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2889">
       <c r="A2889" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2889" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2889" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="D2889" t="inlineStr"/>
       <c r="E2889" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2889" t="inlineStr"/>
       <c r="G2889" t="inlineStr">
         <is>
-          <t>€ 56.9B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H2889" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2890">
       <c r="A2890" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2890" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2890" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2890" t="inlineStr"/>
       <c r="E2890" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2890" t="inlineStr"/>
       <c r="G2890" t="inlineStr">
         <is>
-          <t>20200%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="H2890" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2891">
       <c r="A2891" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2891" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2891" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2891" t="inlineStr"/>
       <c r="E2891" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="F2891" t="inlineStr"/>
       <c r="G2891" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H2891" t="inlineStr">
@@ -93368,27 +93014,31 @@
     <row r="2892">
       <c r="A2892" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2892" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2892" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2892" t="inlineStr"/>
       <c r="E2892" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2892" t="inlineStr"/>
-      <c r="G2892" t="inlineStr"/>
+      <c r="G2892" t="inlineStr">
+        <is>
+          <t>25K</t>
+        </is>
+      </c>
       <c r="H2892" t="inlineStr">
         <is>
           <t>3</t>
@@ -93398,27 +93048,31 @@
     <row r="2893">
       <c r="A2893" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2893" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2893" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2893" t="inlineStr"/>
       <c r="E2893" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>-13K</t>
         </is>
       </c>
       <c r="F2893" t="inlineStr"/>
-      <c r="G2893" t="inlineStr"/>
+      <c r="G2893" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H2893" t="inlineStr">
         <is>
           <t>3</t>
@@ -93428,27 +93082,31 @@
     <row r="2894">
       <c r="A2894" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2894" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2894" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2894" t="inlineStr"/>
       <c r="E2894" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="F2894" t="inlineStr"/>
-      <c r="G2894" t="inlineStr"/>
+      <c r="G2894" t="inlineStr">
+        <is>
+          <t>180K</t>
+        </is>
+      </c>
       <c r="H2894" t="inlineStr">
         <is>
           <t>3</t>
@@ -93458,23 +93116,31 @@
     <row r="2895">
       <c r="A2895" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2895" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2895" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="D2895" t="inlineStr"/>
-      <c r="E2895" t="inlineStr"/>
+      <c r="E2895" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="F2895" t="inlineStr"/>
-      <c r="G2895" t="inlineStr"/>
+      <c r="G2895" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="H2895" t="inlineStr">
         <is>
           <t>3</t>
@@ -93484,165 +93150,149 @@
     <row r="2896">
       <c r="A2896" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B2896" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2896" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2896" t="inlineStr"/>
-      <c r="E2896" t="inlineStr">
-        <is>
-          <t>0.52%</t>
-        </is>
-      </c>
+      <c r="E2896" t="inlineStr"/>
       <c r="F2896" t="inlineStr"/>
-      <c r="G2896" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2896" t="inlineStr"/>
       <c r="H2896" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2897">
       <c r="A2897" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2897" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2897" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2897" t="inlineStr"/>
       <c r="E2897" t="inlineStr">
         <is>
-          <t>4.83%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2897" t="inlineStr"/>
-      <c r="G2897" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="G2897" t="inlineStr"/>
       <c r="H2897" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2898">
       <c r="A2898" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2898" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2898" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2898" t="inlineStr"/>
-      <c r="E2898" t="inlineStr">
-        <is>
-          <t>0.38%</t>
-        </is>
-      </c>
+      <c r="E2898" t="inlineStr"/>
       <c r="F2898" t="inlineStr"/>
       <c r="G2898" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2898" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2899">
       <c r="A2899" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2899" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2899" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2899" t="inlineStr"/>
       <c r="E2899" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F2899" t="inlineStr"/>
       <c r="G2899" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H2899" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2900">
       <c r="A2900" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2900" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2900" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2900" t="inlineStr"/>
       <c r="E2900" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2900" t="inlineStr"/>
       <c r="G2900" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2900" t="inlineStr">
@@ -93654,29 +93304,29 @@
     <row r="2901">
       <c r="A2901" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2901" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2901" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2901" t="inlineStr"/>
       <c r="E2901" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="F2901" t="inlineStr"/>
       <c r="G2901" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="H2901" t="inlineStr">
@@ -93688,29 +93338,29 @@
     <row r="2902">
       <c r="A2902" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2902" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2902" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2902" t="inlineStr"/>
       <c r="E2902" t="inlineStr">
         <is>
-          <t>-19.5%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F2902" t="inlineStr"/>
       <c r="G2902" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="H2902" t="inlineStr">
@@ -93722,29 +93372,29 @@
     <row r="2903">
       <c r="A2903" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2903" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2903" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2903" t="inlineStr"/>
       <c r="E2903" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2903" t="inlineStr"/>
       <c r="G2903" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2903" t="inlineStr">
@@ -93756,63 +93406,67 @@
     <row r="2904">
       <c r="A2904" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2904" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2904" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2904" t="inlineStr"/>
       <c r="E2904" t="inlineStr">
         <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="F2904" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2904" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="G2904" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H2904" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2905">
       <c r="A2905" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2905" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2905" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2905" t="inlineStr"/>
       <c r="E2905" t="inlineStr">
         <is>
-          <t>90.9K</t>
+          <t>$4.8B</t>
         </is>
       </c>
       <c r="F2905" t="inlineStr"/>
       <c r="G2905" t="inlineStr">
         <is>
-          <t>5K</t>
+          <t>$4.1B</t>
         </is>
       </c>
       <c r="H2905" t="inlineStr">
@@ -93824,131 +93478,99 @@
     <row r="2906">
       <c r="A2906" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2906" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2906" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2906" t="inlineStr"/>
-      <c r="E2906" t="inlineStr">
-        <is>
-          <t>57.5K</t>
-        </is>
-      </c>
+      <c r="E2906" t="inlineStr"/>
       <c r="F2906" t="inlineStr"/>
-      <c r="G2906" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="G2906" t="inlineStr"/>
       <c r="H2906" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2907">
       <c r="A2907" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2907" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2907" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2907" t="inlineStr"/>
-      <c r="E2907" t="inlineStr">
-        <is>
-          <t>33.5K</t>
-        </is>
-      </c>
+      <c r="E2907" t="inlineStr"/>
       <c r="F2907" t="inlineStr"/>
-      <c r="G2907" t="inlineStr">
-        <is>
-          <t>8K</t>
-        </is>
-      </c>
+      <c r="G2907" t="inlineStr"/>
       <c r="H2907" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2908">
-      <c r="A2908" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2908" t="inlineStr"/>
       <c r="B2908" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2908" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2908" t="inlineStr"/>
-      <c r="E2908" t="inlineStr">
-        <is>
-          <t>65.1%</t>
-        </is>
-      </c>
+      <c r="E2908" t="inlineStr"/>
       <c r="F2908" t="inlineStr"/>
-      <c r="G2908" t="inlineStr">
-        <is>
-          <t>65.0%</t>
-        </is>
-      </c>
+      <c r="G2908" t="inlineStr"/>
       <c r="H2908" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2909">
-      <c r="A2909" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2909" t="inlineStr"/>
       <c r="B2909" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2909" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2909" t="inlineStr"/>
       <c r="E2909" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2909" t="inlineStr"/>
       <c r="G2909" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.3T</t>
         </is>
       </c>
       <c r="H2909" t="inlineStr">
@@ -93958,79 +93580,59 @@
       </c>
     </row>
     <row r="2910">
-      <c r="A2910" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2910" t="inlineStr"/>
       <c r="B2910" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2910" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2910" t="inlineStr"/>
-      <c r="E2910" t="inlineStr">
-        <is>
-          <t>256K</t>
-        </is>
-      </c>
+      <c r="E2910" t="inlineStr"/>
       <c r="F2910" t="inlineStr"/>
-      <c r="G2910" t="inlineStr">
-        <is>
-          <t>205K</t>
-        </is>
-      </c>
+      <c r="G2910" t="inlineStr"/>
       <c r="H2910" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2911">
-      <c r="A2911" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2911" t="inlineStr"/>
       <c r="B2911" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2911" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2911" t="inlineStr"/>
       <c r="E2911" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>118.1</t>
         </is>
       </c>
       <c r="F2911" t="inlineStr"/>
       <c r="G2911" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H2911" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2912">
-      <c r="A2912" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2912" t="inlineStr"/>
       <c r="B2912" t="inlineStr">
         <is>
           <t>US</t>
@@ -94038,33 +93640,25 @@
       </c>
       <c r="C2912" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2912" t="inlineStr"/>
       <c r="E2912" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2912" t="inlineStr"/>
-      <c r="G2912" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2912" t="inlineStr"/>
       <c r="H2912" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2913">
-      <c r="A2913" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2913" t="inlineStr"/>
       <c r="B2913" t="inlineStr">
         <is>
           <t>US</t>
@@ -94072,87 +93666,63 @@
       </c>
       <c r="C2913" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2913" t="inlineStr"/>
       <c r="E2913" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2913" t="inlineStr"/>
-      <c r="G2913" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="G2913" t="inlineStr"/>
       <c r="H2913" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2914">
       <c r="A2914" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2914" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2914" t="inlineStr">
-        <is>
-          <t>Participation RateJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2914" t="inlineStr"/>
+      <c r="C2914" t="inlineStr"/>
       <c r="D2914" t="inlineStr"/>
-      <c r="E2914" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="E2914" t="inlineStr"/>
       <c r="F2914" t="inlineStr"/>
-      <c r="G2914" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="H2914" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2914" t="inlineStr"/>
+      <c r="H2914" t="inlineStr"/>
     </row>
     <row r="2915">
       <c r="A2915" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2915" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2915" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2915" t="inlineStr"/>
       <c r="E2915" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2915" t="inlineStr"/>
       <c r="G2915" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2915" t="inlineStr">
@@ -94164,7 +93734,7 @@
     <row r="2916">
       <c r="A2916" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2916" t="inlineStr">
@@ -94174,19 +93744,19 @@
       </c>
       <c r="C2916" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2916" t="inlineStr"/>
       <c r="E2916" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>$-7.49B</t>
         </is>
       </c>
       <c r="F2916" t="inlineStr"/>
       <c r="G2916" t="inlineStr">
         <is>
-          <t>25K</t>
+          <t>$ 18B</t>
         </is>
       </c>
       <c r="H2916" t="inlineStr">
@@ -94198,834 +93768,114 @@
     <row r="2917">
       <c r="A2917" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2917" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2917" t="inlineStr">
-        <is>
-          <t>Manufacturing PayrollsJAN</t>
-        </is>
-      </c>
+          <t>Sunday February 09 2025</t>
+        </is>
+      </c>
+      <c r="B2917" t="inlineStr"/>
+      <c r="C2917" t="inlineStr"/>
       <c r="D2917" t="inlineStr"/>
-      <c r="E2917" t="inlineStr">
-        <is>
-          <t>-13K</t>
-        </is>
-      </c>
+      <c r="E2917" t="inlineStr"/>
       <c r="F2917" t="inlineStr"/>
-      <c r="G2917" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H2917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2917" t="inlineStr"/>
+      <c r="H2917" t="inlineStr"/>
     </row>
     <row r="2918">
       <c r="A2918" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2918" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2918" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2918" t="inlineStr"/>
       <c r="E2918" t="inlineStr">
         <is>
-          <t>223K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2918" t="inlineStr"/>
       <c r="G2918" t="inlineStr">
         <is>
-          <t>180K</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2918" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2919">
       <c r="A2919" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2919" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2919" t="inlineStr">
         <is>
-          <t>U-6 Unemployment Rate</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2919" t="inlineStr"/>
       <c r="E2919" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F2919" t="inlineStr"/>
       <c r="G2919" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2919" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2920">
       <c r="A2920" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2920" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2920" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2920" t="inlineStr"/>
-      <c r="E2920" t="inlineStr"/>
+      <c r="E2920" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="F2920" t="inlineStr"/>
-      <c r="G2920" t="inlineStr"/>
+      <c r="G2920" t="inlineStr">
+        <is>
+          <t>-2.4%</t>
+        </is>
+      </c>
       <c r="H2920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2921">
-      <c r="A2921" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2921" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2921" t="inlineStr">
-        <is>
-          <t>Treasury Cash BalanceJAN</t>
-        </is>
-      </c>
-      <c r="D2921" t="inlineStr"/>
-      <c r="E2921" t="inlineStr">
-        <is>
-          <t>TRY-323.9B</t>
-        </is>
-      </c>
-      <c r="F2921" t="inlineStr"/>
-      <c r="G2921" t="inlineStr"/>
-      <c r="H2921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2922">
-      <c r="A2922" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2922" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2922" t="inlineStr">
-        <is>
-          <t>Full Year GDP Growth2025</t>
-        </is>
-      </c>
-      <c r="D2922" t="inlineStr"/>
-      <c r="E2922" t="inlineStr"/>
-      <c r="F2922" t="inlineStr"/>
-      <c r="G2922" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="H2922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2923">
-      <c r="A2923" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2923" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2923" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2923" t="inlineStr"/>
-      <c r="E2923" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="F2923" t="inlineStr"/>
-      <c r="G2923" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="H2923" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2924">
-      <c r="A2924" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2924" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2924" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2924" t="inlineStr"/>
-      <c r="E2924" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2924" t="inlineStr"/>
-      <c r="G2924" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H2924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2925">
-      <c r="A2925" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2925" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2925" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2925" t="inlineStr"/>
-      <c r="E2925" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="F2925" t="inlineStr"/>
-      <c r="G2925" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
-      </c>
-      <c r="H2925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2926">
-      <c r="A2926" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2926" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2926" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2926" t="inlineStr"/>
-      <c r="E2926" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="F2926" t="inlineStr"/>
-      <c r="G2926" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
-      <c r="H2926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2927">
-      <c r="A2927" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2927" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2927" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2927" t="inlineStr"/>
-      <c r="E2927" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2927" t="inlineStr"/>
-      <c r="G2927" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H2927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2928">
-      <c r="A2928" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2928" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2928" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2928" t="inlineStr"/>
-      <c r="E2928" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2928" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="G2928" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H2928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2929">
-      <c r="A2929" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2929" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2929" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2929" t="inlineStr"/>
-      <c r="E2929" t="inlineStr">
-        <is>
-          <t>$4.8B</t>
-        </is>
-      </c>
-      <c r="F2929" t="inlineStr"/>
-      <c r="G2929" t="inlineStr">
-        <is>
-          <t>$4.1B</t>
-        </is>
-      </c>
-      <c r="H2929" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2930">
-      <c r="A2930" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2930" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2930" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2930" t="inlineStr"/>
-      <c r="E2930" t="inlineStr"/>
-      <c r="F2930" t="inlineStr"/>
-      <c r="G2930" t="inlineStr"/>
-      <c r="H2930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2931">
-      <c r="A2931" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2931" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2931" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2931" t="inlineStr"/>
-      <c r="E2931" t="inlineStr"/>
-      <c r="F2931" t="inlineStr"/>
-      <c r="G2931" t="inlineStr"/>
-      <c r="H2931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2932">
-      <c r="A2932" t="inlineStr"/>
-      <c r="B2932" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2932" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2932" t="inlineStr"/>
-      <c r="E2932" t="inlineStr"/>
-      <c r="F2932" t="inlineStr"/>
-      <c r="G2932" t="inlineStr"/>
-      <c r="H2932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2933">
-      <c r="A2933" t="inlineStr"/>
-      <c r="B2933" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2933" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2933" t="inlineStr"/>
-      <c r="E2933" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2933" t="inlineStr"/>
-      <c r="G2933" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
-      <c r="H2933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2934">
-      <c r="A2934" t="inlineStr"/>
-      <c r="B2934" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2934" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2934" t="inlineStr"/>
-      <c r="E2934" t="inlineStr"/>
-      <c r="F2934" t="inlineStr"/>
-      <c r="G2934" t="inlineStr"/>
-      <c r="H2934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2935">
-      <c r="A2935" t="inlineStr"/>
-      <c r="B2935" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2935" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D2935" t="inlineStr"/>
-      <c r="E2935" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
-      <c r="F2935" t="inlineStr"/>
-      <c r="G2935" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="H2935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2936">
-      <c r="A2936" t="inlineStr"/>
-      <c r="B2936" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2936" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2936" t="inlineStr"/>
-      <c r="E2936" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F2936" t="inlineStr"/>
-      <c r="G2936" t="inlineStr"/>
-      <c r="H2936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2937">
-      <c r="A2937" t="inlineStr"/>
-      <c r="B2937" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2937" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2937" t="inlineStr"/>
-      <c r="E2937" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2937" t="inlineStr"/>
-      <c r="G2937" t="inlineStr"/>
-      <c r="H2937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2938">
-      <c r="A2938" t="inlineStr">
-        <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2938" t="inlineStr"/>
-      <c r="C2938" t="inlineStr"/>
-      <c r="D2938" t="inlineStr"/>
-      <c r="E2938" t="inlineStr"/>
-      <c r="F2938" t="inlineStr"/>
-      <c r="G2938" t="inlineStr"/>
-      <c r="H2938" t="inlineStr"/>
-    </row>
-    <row r="2939">
-      <c r="A2939" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B2939" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2939" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2939" t="inlineStr"/>
-      <c r="E2939" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2939" t="inlineStr"/>
-      <c r="G2939" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2940">
-      <c r="A2940" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2940" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2940" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D2940" t="inlineStr"/>
-      <c r="E2940" t="inlineStr">
-        <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="F2940" t="inlineStr"/>
-      <c r="G2940" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
-      <c r="H2940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2941">
-      <c r="A2941" t="inlineStr">
-        <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B2941" t="inlineStr"/>
-      <c r="C2941" t="inlineStr"/>
-      <c r="D2941" t="inlineStr"/>
-      <c r="E2941" t="inlineStr"/>
-      <c r="F2941" t="inlineStr"/>
-      <c r="G2941" t="inlineStr"/>
-      <c r="H2941" t="inlineStr"/>
-    </row>
-    <row r="2942">
-      <c r="A2942" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2942" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2942" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2942" t="inlineStr"/>
-      <c r="E2942" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2942" t="inlineStr"/>
-      <c r="G2942" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H2942" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2943">
-      <c r="A2943" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2943" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2943" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2943" t="inlineStr"/>
-      <c r="E2943" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F2943" t="inlineStr"/>
-      <c r="G2943" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2943" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2944">
-      <c r="A2944" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2944" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2944" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2944" t="inlineStr"/>
-      <c r="E2944" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="F2944" t="inlineStr"/>
-      <c r="G2944" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="H2944" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-09.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2945"/>
+  <dimension ref="A1:H2921"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85849,10 +85849,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2649" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2650">
@@ -85883,10 +85881,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2650" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2650" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2651">
@@ -85917,10 +85913,8 @@
           <t>18.0%</t>
         </is>
       </c>
-      <c r="H2651" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2651" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2652">
@@ -85955,10 +85949,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2653">
@@ -85985,10 +85977,8 @@
       </c>
       <c r="F2653" t="inlineStr"/>
       <c r="G2653" t="inlineStr"/>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2654">
@@ -86015,10 +86005,8 @@
       </c>
       <c r="F2654" t="inlineStr"/>
       <c r="G2654" t="inlineStr"/>
-      <c r="H2654" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2654" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2655">
@@ -86045,10 +86033,8 @@
       </c>
       <c r="F2655" t="inlineStr"/>
       <c r="G2655" t="inlineStr"/>
-      <c r="H2655" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2655" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2656">
@@ -86079,10 +86065,8 @@
         </is>
       </c>
       <c r="G2656" t="inlineStr"/>
-      <c r="H2656" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2656" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2657">
@@ -86113,10 +86097,8 @@
         </is>
       </c>
       <c r="G2657" t="inlineStr"/>
-      <c r="H2657" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2657" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2658">
@@ -86143,10 +86125,8 @@
       </c>
       <c r="F2658" t="inlineStr"/>
       <c r="G2658" t="inlineStr"/>
-      <c r="H2658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2658" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2659">
@@ -86173,10 +86153,8 @@
       </c>
       <c r="F2659" t="inlineStr"/>
       <c r="G2659" t="inlineStr"/>
-      <c r="H2659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2659" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2660">
@@ -86203,10 +86181,8 @@
       </c>
       <c r="F2660" t="inlineStr"/>
       <c r="G2660" t="inlineStr"/>
-      <c r="H2660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2660" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2661">
@@ -86233,10 +86209,8 @@
       </c>
       <c r="F2661" t="inlineStr"/>
       <c r="G2661" t="inlineStr"/>
-      <c r="H2661" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2661" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2662">
@@ -86263,10 +86237,8 @@
       </c>
       <c r="F2662" t="inlineStr"/>
       <c r="G2662" t="inlineStr"/>
-      <c r="H2662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2662" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2663">
@@ -86293,10 +86265,8 @@
       </c>
       <c r="F2663" t="inlineStr"/>
       <c r="G2663" t="inlineStr"/>
-      <c r="H2663" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2663" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2664">
@@ -86323,10 +86293,8 @@
       </c>
       <c r="F2664" t="inlineStr"/>
       <c r="G2664" t="inlineStr"/>
-      <c r="H2664" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2664" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2665">
@@ -86361,10 +86329,8 @@
           <t>45.3</t>
         </is>
       </c>
-      <c r="H2665" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2665" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2666">
@@ -86399,10 +86365,8 @@
           <t>44.1</t>
         </is>
       </c>
-      <c r="H2666" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2666" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2667">
@@ -86437,10 +86401,8 @@
           <t>46.1</t>
         </is>
       </c>
-      <c r="H2667" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2667" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2668">
@@ -86471,10 +86433,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2668" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2669">
@@ -86509,10 +86469,8 @@
           <t>48.2</t>
         </is>
       </c>
-      <c r="H2669" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2669" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2670">
@@ -86539,10 +86497,8 @@
       </c>
       <c r="F2670" t="inlineStr"/>
       <c r="G2670" t="inlineStr"/>
-      <c r="H2670" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2670" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2671">
@@ -86569,10 +86525,8 @@
       </c>
       <c r="F2671" t="inlineStr"/>
       <c r="G2671" t="inlineStr"/>
-      <c r="H2671" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2671" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2672">
@@ -86599,10 +86553,8 @@
       </c>
       <c r="F2672" t="inlineStr"/>
       <c r="G2672" t="inlineStr"/>
-      <c r="H2672" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2672" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2673">
@@ -86629,10 +86581,8 @@
       </c>
       <c r="F2673" t="inlineStr"/>
       <c r="G2673" t="inlineStr"/>
-      <c r="H2673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2673" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2674">
@@ -86659,10 +86609,8 @@
       </c>
       <c r="F2674" t="inlineStr"/>
       <c r="G2674" t="inlineStr"/>
-      <c r="H2674" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2674" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2675">
@@ -86689,10 +86637,8 @@
       </c>
       <c r="F2675" t="inlineStr"/>
       <c r="G2675" t="inlineStr"/>
-      <c r="H2675" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2675" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2676">
@@ -86719,10 +86665,8 @@
       </c>
       <c r="F2676" t="inlineStr"/>
       <c r="G2676" t="inlineStr"/>
-      <c r="H2676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2676" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2677">
@@ -86749,10 +86693,8 @@
       </c>
       <c r="F2677" t="inlineStr"/>
       <c r="G2677" t="inlineStr"/>
-      <c r="H2677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2677" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2678">
@@ -86783,10 +86725,8 @@
           <t>$ 230B</t>
         </is>
       </c>
-      <c r="H2678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2678" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2679">
@@ -86817,10 +86757,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2679" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2680">
@@ -86851,10 +86789,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2680" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2681">
@@ -86881,10 +86817,8 @@
       </c>
       <c r="F2681" t="inlineStr"/>
       <c r="G2681" t="inlineStr"/>
-      <c r="H2681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2681" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2682">
@@ -86911,10 +86845,8 @@
       </c>
       <c r="F2682" t="inlineStr"/>
       <c r="G2682" t="inlineStr"/>
-      <c r="H2682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2682" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2683">
@@ -86941,10 +86873,8 @@
       </c>
       <c r="F2683" t="inlineStr"/>
       <c r="G2683" t="inlineStr"/>
-      <c r="H2683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2683" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2684">
@@ -86975,10 +86905,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2684" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2684" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2685">
@@ -87013,10 +86941,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2685" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2685" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2686">
@@ -87047,10 +86973,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2686" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2686" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2687">
@@ -87081,10 +87005,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2687" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2687" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2688">
@@ -87115,10 +87037,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2688" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2689">
@@ -87149,10 +87069,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2689" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2690">
@@ -87183,10 +87101,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H2690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2690" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2691">
@@ -87213,10 +87129,8 @@
       </c>
       <c r="F2691" t="inlineStr"/>
       <c r="G2691" t="inlineStr"/>
-      <c r="H2691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2691" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2692">
@@ -87243,10 +87157,8 @@
       </c>
       <c r="F2692" t="inlineStr"/>
       <c r="G2692" t="inlineStr"/>
-      <c r="H2692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2692" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2693">
@@ -87269,10 +87181,8 @@
       <c r="E2693" t="inlineStr"/>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2693" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2694">
@@ -87291,10 +87201,8 @@
       <c r="E2694" t="inlineStr"/>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
-      <c r="H2694" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2694" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2695">
@@ -87321,10 +87229,8 @@
           <t>43.0K</t>
         </is>
       </c>
-      <c r="H2695" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2695" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2696">
@@ -87361,10 +87267,8 @@
       <c r="E2697" t="inlineStr"/>
       <c r="F2697" t="inlineStr"/>
       <c r="G2697" t="inlineStr"/>
-      <c r="H2697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2698">
@@ -87391,10 +87295,8 @@
       </c>
       <c r="F2698" t="inlineStr"/>
       <c r="G2698" t="inlineStr"/>
-      <c r="H2698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2698" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2699">
@@ -87421,10 +87323,8 @@
       </c>
       <c r="F2699" t="inlineStr"/>
       <c r="G2699" t="inlineStr"/>
-      <c r="H2699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2699" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2700">
@@ -87455,10 +87355,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H2700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2700" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2701">
@@ -87485,10 +87383,8 @@
       </c>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
-      <c r="H2701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2701" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2702">
@@ -87515,10 +87411,8 @@
       </c>
       <c r="F2702" t="inlineStr"/>
       <c r="G2702" t="inlineStr"/>
-      <c r="H2702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2702" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2703">
@@ -87545,10 +87439,8 @@
       </c>
       <c r="F2703" t="inlineStr"/>
       <c r="G2703" t="inlineStr"/>
-      <c r="H2703" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2703" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2704">
@@ -87575,10 +87467,8 @@
       </c>
       <c r="F2704" t="inlineStr"/>
       <c r="G2704" t="inlineStr"/>
-      <c r="H2704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2704" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2705">
@@ -87609,10 +87499,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2705" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2706">
@@ -87639,10 +87527,8 @@
       </c>
       <c r="F2706" t="inlineStr"/>
       <c r="G2706" t="inlineStr"/>
-      <c r="H2706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2706" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2707">
@@ -87665,10 +87551,8 @@
       <c r="E2707" t="inlineStr"/>
       <c r="F2707" t="inlineStr"/>
       <c r="G2707" t="inlineStr"/>
-      <c r="H2707" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2707" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2708">
@@ -87699,10 +87583,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2709">
@@ -87733,10 +87615,8 @@
           <t>8.2%</t>
         </is>
       </c>
-      <c r="H2709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2709" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2710">
@@ -87767,10 +87647,8 @@
           <t>50.8</t>
         </is>
       </c>
-      <c r="H2710" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2710" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2711">
@@ -87797,10 +87675,8 @@
       </c>
       <c r="F2711" t="inlineStr"/>
       <c r="G2711" t="inlineStr"/>
-      <c r="H2711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2711" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2712">
@@ -87831,10 +87707,8 @@
           <t>49.7</t>
         </is>
       </c>
-      <c r="H2712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2712" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2713">
@@ -87865,10 +87739,8 @@
           <t>7.8M</t>
         </is>
       </c>
-      <c r="H2713" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2713" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2714">
@@ -87899,10 +87771,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2714" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2714" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2715">
@@ -87933,10 +87803,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2715" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2716">
@@ -87967,10 +87835,8 @@
           <t>3.1M</t>
         </is>
       </c>
-      <c r="H2716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2717">
@@ -88001,10 +87867,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2717" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2718">
@@ -88027,10 +87891,8 @@
       <c r="E2718" t="inlineStr"/>
       <c r="F2718" t="inlineStr"/>
       <c r="G2718" t="inlineStr"/>
-      <c r="H2718" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2718" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2719">
@@ -88049,10 +87911,8 @@
       <c r="E2719" t="inlineStr"/>
       <c r="F2719" t="inlineStr"/>
       <c r="G2719" t="inlineStr"/>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2719" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2720">
@@ -88071,10 +87931,8 @@
       <c r="E2720" t="inlineStr"/>
       <c r="F2720" t="inlineStr"/>
       <c r="G2720" t="inlineStr"/>
-      <c r="H2720" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2720" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2721">
@@ -88093,10 +87951,8 @@
       <c r="E2721" t="inlineStr"/>
       <c r="F2721" t="inlineStr"/>
       <c r="G2721" t="inlineStr"/>
-      <c r="H2721" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2721" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2722">
@@ -88119,10 +87975,8 @@
       </c>
       <c r="F2722" t="inlineStr"/>
       <c r="G2722" t="inlineStr"/>
-      <c r="H2722" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2722" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2723">
@@ -88159,10 +88013,8 @@
       <c r="E2724" t="inlineStr"/>
       <c r="F2724" t="inlineStr"/>
       <c r="G2724" t="inlineStr"/>
-      <c r="H2724" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2724" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2725">
@@ -88189,10 +88041,8 @@
       </c>
       <c r="F2725" t="inlineStr"/>
       <c r="G2725" t="inlineStr"/>
-      <c r="H2725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2726">
@@ -88219,10 +88069,8 @@
       </c>
       <c r="F2726" t="inlineStr"/>
       <c r="G2726" t="inlineStr"/>
-      <c r="H2726" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2726" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2727">
@@ -88253,10 +88101,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H2727" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2727" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2728">
@@ -88287,10 +88133,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H2728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2728" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2729">
@@ -88317,10 +88161,8 @@
       </c>
       <c r="F2729" t="inlineStr"/>
       <c r="G2729" t="inlineStr"/>
-      <c r="H2729" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2729" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2730">
@@ -88347,10 +88189,8 @@
       </c>
       <c r="F2730" t="inlineStr"/>
       <c r="G2730" t="inlineStr"/>
-      <c r="H2730" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2730" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2731">
@@ -88381,10 +88221,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H2731" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2731" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2732">
@@ -88411,10 +88249,8 @@
       </c>
       <c r="F2732" t="inlineStr"/>
       <c r="G2732" t="inlineStr"/>
-      <c r="H2732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2732" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2733">
@@ -88449,10 +88285,8 @@
           <t>52.7</t>
         </is>
       </c>
-      <c r="H2733" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2733" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2734">
@@ -88483,10 +88317,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2734" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2735">
@@ -88513,10 +88345,8 @@
       </c>
       <c r="F2735" t="inlineStr"/>
       <c r="G2735" t="inlineStr"/>
-      <c r="H2735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2735" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2736">
@@ -88547,10 +88377,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H2736" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2736" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2737">
@@ -88581,10 +88409,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2737" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2738">
@@ -88615,10 +88441,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2738" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2738" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2739">
@@ -88649,10 +88473,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2739" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2740">
@@ -88683,10 +88505,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2740" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2741">
@@ -88721,10 +88541,8 @@
           <t>57.9</t>
         </is>
       </c>
-      <c r="H2741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2741" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2742">
@@ -88759,10 +88577,8 @@
           <t>56.8</t>
         </is>
       </c>
-      <c r="H2742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2742" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2743">
@@ -88793,10 +88609,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2743" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2744">
@@ -88827,10 +88641,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2745">
@@ -88857,10 +88669,8 @@
       </c>
       <c r="F2745" t="inlineStr"/>
       <c r="G2745" t="inlineStr"/>
-      <c r="H2745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2745" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2746">
@@ -88887,10 +88697,8 @@
       </c>
       <c r="F2746" t="inlineStr"/>
       <c r="G2746" t="inlineStr"/>
-      <c r="H2746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2746" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2747">
@@ -88917,10 +88725,8 @@
       </c>
       <c r="F2747" t="inlineStr"/>
       <c r="G2747" t="inlineStr"/>
-      <c r="H2747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2747" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2748">
@@ -88951,10 +88757,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2748" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2748" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2749">
@@ -88981,10 +88785,8 @@
       </c>
       <c r="F2749" t="inlineStr"/>
       <c r="G2749" t="inlineStr"/>
-      <c r="H2749" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2749" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2750">
@@ -89011,10 +88813,8 @@
       </c>
       <c r="F2750" t="inlineStr"/>
       <c r="G2750" t="inlineStr"/>
-      <c r="H2750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2751">
@@ -89041,10 +88841,8 @@
       </c>
       <c r="F2751" t="inlineStr"/>
       <c r="G2751" t="inlineStr"/>
-      <c r="H2751" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2751" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2752">
@@ -89071,10 +88869,8 @@
       </c>
       <c r="F2752" t="inlineStr"/>
       <c r="G2752" t="inlineStr"/>
-      <c r="H2752" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2752" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2753">
@@ -89109,10 +88905,8 @@
           <t>48.9</t>
         </is>
       </c>
-      <c r="H2753" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2753" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2754">
@@ -89147,10 +88941,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H2754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2754" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2755">
@@ -89185,10 +88977,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2755" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2755" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2756">
@@ -89223,10 +89013,8 @@
           <t>52.5</t>
         </is>
       </c>
-      <c r="H2756" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2756" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2757">
@@ -89261,10 +89049,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2757" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2757" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2758">
@@ -89299,10 +89085,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2758" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2758" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2759">
@@ -89333,10 +89117,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2759" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2759" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2760">
@@ -89367,10 +89149,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2761">
@@ -89401,10 +89181,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2762">
@@ -89439,10 +89217,8 @@
           <t>51.2</t>
         </is>
       </c>
-      <c r="H2762" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2762" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2763">
@@ -89477,10 +89253,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2764">
@@ -89511,10 +89285,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2765">
@@ -89545,10 +89317,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H2765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2766">
@@ -89575,10 +89345,8 @@
       </c>
       <c r="F2766" t="inlineStr"/>
       <c r="G2766" t="inlineStr"/>
-      <c r="H2766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2767">
@@ -89605,10 +89373,8 @@
       </c>
       <c r="F2767" t="inlineStr"/>
       <c r="G2767" t="inlineStr"/>
-      <c r="H2767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2768">
@@ -89635,10 +89401,8 @@
       </c>
       <c r="F2768" t="inlineStr"/>
       <c r="G2768" t="inlineStr"/>
-      <c r="H2768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2769">
@@ -89665,10 +89429,8 @@
       </c>
       <c r="F2769" t="inlineStr"/>
       <c r="G2769" t="inlineStr"/>
-      <c r="H2769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2769" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2770">
@@ -89699,10 +89461,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2770" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2770" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2771">
@@ -89733,10 +89493,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2771" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2772">
@@ -89767,10 +89525,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2772" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2773">
@@ -89801,10 +89557,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H2773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2773" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2774">
@@ -89831,10 +89585,8 @@
       </c>
       <c r="F2774" t="inlineStr"/>
       <c r="G2774" t="inlineStr"/>
-      <c r="H2774" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2774" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2775">
@@ -89861,10 +89613,8 @@
       </c>
       <c r="F2775" t="inlineStr"/>
       <c r="G2775" t="inlineStr"/>
-      <c r="H2775" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2775" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2776">
@@ -89891,10 +89641,8 @@
       </c>
       <c r="F2776" t="inlineStr"/>
       <c r="G2776" t="inlineStr"/>
-      <c r="H2776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2776" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2777">
@@ -89921,10 +89669,8 @@
       </c>
       <c r="F2777" t="inlineStr"/>
       <c r="G2777" t="inlineStr"/>
-      <c r="H2777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2777" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2778">
@@ -89951,10 +89697,8 @@
       </c>
       <c r="F2778" t="inlineStr"/>
       <c r="G2778" t="inlineStr"/>
-      <c r="H2778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2778" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2779">
@@ -89985,10 +89729,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2779" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2779" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2780">
@@ -90019,10 +89761,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2781">
@@ -90053,10 +89793,8 @@
           <t>115.0K</t>
         </is>
       </c>
-      <c r="H2781" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2781" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2782">
@@ -90087,10 +89825,8 @@
           <t>C$ -1.3B</t>
         </is>
       </c>
-      <c r="H2782" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2782" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2783">
@@ -90121,10 +89857,8 @@
           <t>C$ 65.8B</t>
         </is>
       </c>
-      <c r="H2783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2783" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2784">
@@ -90155,10 +89889,8 @@
           <t>C$ 64.5B</t>
         </is>
       </c>
-      <c r="H2784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2784" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2785">
@@ -90189,10 +89921,8 @@
           <t>$ -103.0B</t>
         </is>
       </c>
-      <c r="H2785" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2785" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2786">
@@ -90223,10 +89953,8 @@
           <t>$ 260B</t>
         </is>
       </c>
-      <c r="H2786" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2786" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2787">
@@ -90257,10 +89985,8 @@
           <t>$ 363.0B</t>
         </is>
       </c>
-      <c r="H2787" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2787" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2788">
@@ -90283,10 +90009,8 @@
       <c r="E2788" t="inlineStr"/>
       <c r="F2788" t="inlineStr"/>
       <c r="G2788" t="inlineStr"/>
-      <c r="H2788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2789">
@@ -90317,10 +90041,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2790">
@@ -90351,10 +90073,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H2790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2790" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2791">
@@ -90389,10 +90109,8 @@
           <t>52.4</t>
         </is>
       </c>
-      <c r="H2791" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2791" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2792">
@@ -90427,10 +90145,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2792" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2792" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2793">
@@ -90461,10 +90177,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H2793" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2793" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2794">
@@ -90495,10 +90209,8 @@
           <t>58.1</t>
         </is>
       </c>
-      <c r="H2794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2794" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2795">
@@ -90529,10 +90241,8 @@
           <t>51.3</t>
         </is>
       </c>
-      <c r="H2795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2796">
@@ -90563,10 +90273,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H2796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2796" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2797">
@@ -90597,10 +90305,8 @@
           <t>64.8</t>
         </is>
       </c>
-      <c r="H2797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2798">
@@ -90627,10 +90333,8 @@
       </c>
       <c r="F2798" t="inlineStr"/>
       <c r="G2798" t="inlineStr"/>
-      <c r="H2798" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2798" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2799">
@@ -90657,10 +90361,8 @@
       </c>
       <c r="F2799" t="inlineStr"/>
       <c r="G2799" t="inlineStr"/>
-      <c r="H2799" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2799" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2800">
@@ -90687,10 +90389,8 @@
       </c>
       <c r="F2800" t="inlineStr"/>
       <c r="G2800" t="inlineStr"/>
-      <c r="H2800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2800" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2801">
@@ -90717,10 +90417,8 @@
       </c>
       <c r="F2801" t="inlineStr"/>
       <c r="G2801" t="inlineStr"/>
-      <c r="H2801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2801" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2802">
@@ -90747,10 +90445,8 @@
       </c>
       <c r="F2802" t="inlineStr"/>
       <c r="G2802" t="inlineStr"/>
-      <c r="H2802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2802" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2803">
@@ -90777,10 +90473,8 @@
       </c>
       <c r="F2803" t="inlineStr"/>
       <c r="G2803" t="inlineStr"/>
-      <c r="H2803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2804">
@@ -90807,10 +90501,8 @@
       </c>
       <c r="F2804" t="inlineStr"/>
       <c r="G2804" t="inlineStr"/>
-      <c r="H2804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2804" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2805">
@@ -90837,10 +90529,8 @@
       </c>
       <c r="F2805" t="inlineStr"/>
       <c r="G2805" t="inlineStr"/>
-      <c r="H2805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2805" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2806">
@@ -90867,10 +90557,8 @@
       </c>
       <c r="F2806" t="inlineStr"/>
       <c r="G2806" t="inlineStr"/>
-      <c r="H2806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2806" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2807">
@@ -90901,10 +90589,8 @@
           <t>2.40%</t>
         </is>
       </c>
-      <c r="H2807" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2807" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2808">
@@ -90931,10 +90617,8 @@
       </c>
       <c r="F2808" t="inlineStr"/>
       <c r="G2808" t="inlineStr"/>
-      <c r="H2808" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2808" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2809">
@@ -90961,10 +90645,8 @@
       </c>
       <c r="F2809" t="inlineStr"/>
       <c r="G2809" t="inlineStr"/>
-      <c r="H2809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2809" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2810">
@@ -90995,10 +90677,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2811">
@@ -91025,10 +90705,8 @@
       </c>
       <c r="F2811" t="inlineStr"/>
       <c r="G2811" t="inlineStr"/>
-      <c r="H2811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2812">
@@ -91059,10 +90737,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2813">
@@ -91089,10 +90765,8 @@
       </c>
       <c r="F2813" t="inlineStr"/>
       <c r="G2813" t="inlineStr"/>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2814">
@@ -91119,10 +90793,8 @@
       </c>
       <c r="F2814" t="inlineStr"/>
       <c r="G2814" t="inlineStr"/>
-      <c r="H2814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2815">
@@ -91145,10 +90817,8 @@
       <c r="E2815" t="inlineStr"/>
       <c r="F2815" t="inlineStr"/>
       <c r="G2815" t="inlineStr"/>
-      <c r="H2815" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2815" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2816">
@@ -91171,10 +90841,8 @@
       </c>
       <c r="F2816" t="inlineStr"/>
       <c r="G2816" t="inlineStr"/>
-      <c r="H2816" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2816" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2817">
@@ -91219,10 +90887,8 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="H2818" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2818" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2819">
@@ -91253,10 +90919,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H2819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2820">
@@ -91287,10 +90951,8 @@
           <t>-13</t>
         </is>
       </c>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2821">
@@ -91321,10 +90983,8 @@
           <t>$ 8.1B</t>
         </is>
       </c>
-      <c r="H2821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2822">
@@ -91351,10 +91011,8 @@
       </c>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr"/>
-      <c r="H2822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2823">
@@ -91377,10 +91035,8 @@
       <c r="E2823" t="inlineStr"/>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
-      <c r="H2823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2824">
@@ -91403,10 +91059,8 @@
       <c r="E2824" t="inlineStr"/>
       <c r="F2824" t="inlineStr"/>
       <c r="G2824" t="inlineStr"/>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2825">
@@ -91437,10 +91091,8 @@
           <t>A$ 3.2B</t>
         </is>
       </c>
-      <c r="H2825" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2825" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2826">
@@ -91467,10 +91119,8 @@
       </c>
       <c r="F2826" t="inlineStr"/>
       <c r="G2826" t="inlineStr"/>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2827">
@@ -91497,10 +91147,8 @@
       </c>
       <c r="F2827" t="inlineStr"/>
       <c r="G2827" t="inlineStr"/>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2828">
@@ -91527,10 +91175,8 @@
       </c>
       <c r="F2828" t="inlineStr"/>
       <c r="G2828" t="inlineStr"/>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2829">
@@ -91557,10 +91203,8 @@
       </c>
       <c r="F2829" t="inlineStr"/>
       <c r="G2829" t="inlineStr"/>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2830">
@@ -91591,10 +91235,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2830" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2831">
@@ -91621,10 +91263,8 @@
       </c>
       <c r="F2831" t="inlineStr"/>
       <c r="G2831" t="inlineStr"/>
-      <c r="H2831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2832">
@@ -91651,10 +91291,8 @@
       </c>
       <c r="F2832" t="inlineStr"/>
       <c r="G2832" t="inlineStr"/>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2833">
@@ -91681,10 +91319,8 @@
       </c>
       <c r="F2833" t="inlineStr"/>
       <c r="G2833" t="inlineStr"/>
-      <c r="H2833" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2833" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2834">
@@ -91711,10 +91347,8 @@
       </c>
       <c r="F2834" t="inlineStr"/>
       <c r="G2834" t="inlineStr"/>
-      <c r="H2834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2835">
@@ -91745,10 +91379,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H2835" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2835" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2836">
@@ -91779,10 +91411,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2836" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2836" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2837">
@@ -91813,10 +91443,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2837" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2837" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2838">
@@ -91839,10 +91467,8 @@
       <c r="E2838" t="inlineStr"/>
       <c r="F2838" t="inlineStr"/>
       <c r="G2838" t="inlineStr"/>
-      <c r="H2838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2839">
@@ -91865,10 +91491,8 @@
       <c r="E2839" t="inlineStr"/>
       <c r="F2839" t="inlineStr"/>
       <c r="G2839" t="inlineStr"/>
-      <c r="H2839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2840">
@@ -91899,10 +91523,8 @@
           <t>46.5</t>
         </is>
       </c>
-      <c r="H2840" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2840" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2841">
@@ -91937,10 +91559,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2841" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2841" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2842">
@@ -91963,10 +91583,8 @@
       <c r="E2842" t="inlineStr"/>
       <c r="F2842" t="inlineStr"/>
       <c r="G2842" t="inlineStr"/>
-      <c r="H2842" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2842" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2843">
@@ -91993,10 +91611,8 @@
       </c>
       <c r="F2843" t="inlineStr"/>
       <c r="G2843" t="inlineStr"/>
-      <c r="H2843" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2843" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2844">
@@ -92023,10 +91639,8 @@
       </c>
       <c r="F2844" t="inlineStr"/>
       <c r="G2844" t="inlineStr"/>
-      <c r="H2844" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2844" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2845">
@@ -92053,10 +91667,8 @@
       </c>
       <c r="F2845" t="inlineStr"/>
       <c r="G2845" t="inlineStr"/>
-      <c r="H2845" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2845" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2846">
@@ -92079,10 +91691,8 @@
       <c r="E2846" t="inlineStr"/>
       <c r="F2846" t="inlineStr"/>
       <c r="G2846" t="inlineStr"/>
-      <c r="H2846" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2846" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2847">
@@ -92113,10 +91723,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="H2847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2848">
@@ -92139,10 +91747,8 @@
       <c r="E2848" t="inlineStr"/>
       <c r="F2848" t="inlineStr"/>
       <c r="G2848" t="inlineStr"/>
-      <c r="H2848" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2848" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2849">
@@ -92173,10 +91779,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2849" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2849" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2850">
@@ -92207,10 +91811,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2850" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2850" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2851">
@@ -92233,10 +91835,8 @@
       <c r="E2851" t="inlineStr"/>
       <c r="F2851" t="inlineStr"/>
       <c r="G2851" t="inlineStr"/>
-      <c r="H2851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2852">
@@ -92259,10 +91859,8 @@
       <c r="E2852" t="inlineStr"/>
       <c r="F2852" t="inlineStr"/>
       <c r="G2852" t="inlineStr"/>
-      <c r="H2852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2853">
@@ -92293,10 +91891,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H2853" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2853" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2854">
@@ -92319,10 +91915,8 @@
       <c r="E2854" t="inlineStr"/>
       <c r="F2854" t="inlineStr"/>
       <c r="G2854" t="inlineStr"/>
-      <c r="H2854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2854" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2855">
@@ -92345,10 +91939,8 @@
       <c r="E2855" t="inlineStr"/>
       <c r="F2855" t="inlineStr"/>
       <c r="G2855" t="inlineStr"/>
-      <c r="H2855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2856">
@@ -92371,10 +91963,8 @@
       <c r="E2856" t="inlineStr"/>
       <c r="F2856" t="inlineStr"/>
       <c r="G2856" t="inlineStr"/>
-      <c r="H2856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2857">
@@ -92401,10 +91991,8 @@
       </c>
       <c r="F2857" t="inlineStr"/>
       <c r="G2857" t="inlineStr"/>
-      <c r="H2857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2858">
@@ -92427,10 +92015,8 @@
       <c r="E2858" t="inlineStr"/>
       <c r="F2858" t="inlineStr"/>
       <c r="G2858" t="inlineStr"/>
-      <c r="H2858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2859">
@@ -92453,10 +92039,8 @@
       <c r="E2859" t="inlineStr"/>
       <c r="F2859" t="inlineStr"/>
       <c r="G2859" t="inlineStr"/>
-      <c r="H2859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2860">
@@ -92479,10 +92063,8 @@
       </c>
       <c r="F2860" t="inlineStr"/>
       <c r="G2860" t="inlineStr"/>
-      <c r="H2860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2861">
@@ -92505,10 +92087,8 @@
       </c>
       <c r="F2861" t="inlineStr"/>
       <c r="G2861" t="inlineStr"/>
-      <c r="H2861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2862">
@@ -92531,10 +92111,8 @@
       </c>
       <c r="F2862" t="inlineStr"/>
       <c r="G2862" t="inlineStr"/>
-      <c r="H2862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2863">
@@ -92553,10 +92131,8 @@
       <c r="E2863" t="inlineStr"/>
       <c r="F2863" t="inlineStr"/>
       <c r="G2863" t="inlineStr"/>
-      <c r="H2863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2864">
@@ -92575,10 +92151,8 @@
       <c r="E2864" t="inlineStr"/>
       <c r="F2864" t="inlineStr"/>
       <c r="G2864" t="inlineStr"/>
-      <c r="H2864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2865">
@@ -92601,104 +92175,134 @@
       </c>
       <c r="F2865" t="inlineStr"/>
       <c r="G2865" t="inlineStr"/>
-      <c r="H2865" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2865" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2866">
       <c r="A2866" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2866" t="inlineStr"/>
-      <c r="C2866" t="inlineStr"/>
+          <t>01:15 PM</t>
+        </is>
+      </c>
+      <c r="B2866" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2866" t="inlineStr">
+        <is>
+          <t>ImportsDEC</t>
+        </is>
+      </c>
       <c r="D2866" t="inlineStr"/>
-      <c r="E2866" t="inlineStr"/>
+      <c r="E2866" t="inlineStr">
+        <is>
+          <t>€57.186B</t>
+        </is>
+      </c>
       <c r="F2866" t="inlineStr"/>
-      <c r="G2866" t="inlineStr"/>
-      <c r="H2866" t="inlineStr"/>
+      <c r="G2866" t="inlineStr">
+        <is>
+          <t>€ 56.9B</t>
+        </is>
+      </c>
+      <c r="H2866" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2867">
       <c r="A2867" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2867" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2867" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D2867" t="inlineStr"/>
       <c r="E2867" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2867" t="inlineStr"/>
       <c r="G2867" t="inlineStr">
         <is>
-          <t>9.75%</t>
+          <t>20200%</t>
         </is>
       </c>
       <c r="H2867" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2868">
       <c r="A2868" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2868" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2868" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2868" t="inlineStr"/>
-      <c r="E2868" t="inlineStr"/>
+      <c r="E2868" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2868" t="inlineStr"/>
-      <c r="G2868" t="inlineStr"/>
+      <c r="G2868" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
       <c r="H2868" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2869">
       <c r="A2869" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2869" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2869" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/05</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2869" t="inlineStr"/>
-      <c r="E2869" t="inlineStr"/>
+      <c r="E2869" t="inlineStr">
+        <is>
+          <t>S$506.7B</t>
+        </is>
+      </c>
       <c r="F2869" t="inlineStr"/>
       <c r="G2869" t="inlineStr"/>
       <c r="H2869" t="inlineStr">
@@ -92710,89 +92314,81 @@
     <row r="2870">
       <c r="A2870" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2870" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="C2870" t="inlineStr">
         <is>
-          <t>Household Spending MoMDEC</t>
+          <t>FAO Food Price IndexJAN</t>
         </is>
       </c>
       <c r="D2870" t="inlineStr"/>
       <c r="E2870" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="F2870" t="inlineStr"/>
       <c r="G2870" t="inlineStr"/>
       <c r="H2870" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2871">
       <c r="A2871" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2871" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2871" t="inlineStr">
         <is>
-          <t>Household Spending YoYDEC</t>
+          <t>BBA Mortgage RateJAN</t>
         </is>
       </c>
       <c r="D2871" t="inlineStr"/>
       <c r="E2871" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>7.50%</t>
         </is>
       </c>
       <c r="F2871" t="inlineStr"/>
-      <c r="G2871" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2871" t="inlineStr"/>
       <c r="H2871" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2872">
       <c r="A2872" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2872" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2872" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Foreign Exchange ReservesJAN/31</t>
         </is>
       </c>
       <c r="D2872" t="inlineStr"/>
-      <c r="E2872" t="inlineStr">
-        <is>
-          <t>$155.7B</t>
-        </is>
-      </c>
+      <c r="E2872" t="inlineStr"/>
       <c r="F2872" t="inlineStr"/>
       <c r="G2872" t="inlineStr"/>
       <c r="H2872" t="inlineStr">
@@ -92804,145 +92400,165 @@
     <row r="2873">
       <c r="A2873" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2873" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2873" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2873" t="inlineStr"/>
-      <c r="E2873" t="inlineStr"/>
+      <c r="E2873" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
+      </c>
       <c r="F2873" t="inlineStr"/>
-      <c r="G2873" t="inlineStr"/>
+      <c r="G2873" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2873" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2874">
       <c r="A2874" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2874" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2874" t="inlineStr">
         <is>
-          <t>RBI Interest Rate Decision</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2874" t="inlineStr"/>
       <c r="E2874" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>4.83%</t>
         </is>
       </c>
       <c r="F2874" t="inlineStr"/>
-      <c r="G2874" t="inlineStr"/>
+      <c r="G2874" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
       <c r="H2874" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2875">
       <c r="A2875" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2875" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2875" t="inlineStr">
         <is>
-          <t>Cash Reserve Ratio</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2875" t="inlineStr"/>
       <c r="E2875" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>0.38%</t>
         </is>
       </c>
       <c r="F2875" t="inlineStr"/>
-      <c r="G2875" t="inlineStr"/>
+      <c r="G2875" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2875" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2876">
       <c r="A2876" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2876" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2876" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2876" t="inlineStr"/>
       <c r="E2876" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>4.21%</t>
         </is>
       </c>
       <c r="F2876" t="inlineStr"/>
-      <c r="G2876" t="inlineStr"/>
+      <c r="G2876" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="H2876" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2877">
       <c r="A2877" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2877" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2877" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2877" t="inlineStr"/>
       <c r="E2877" t="inlineStr">
         <is>
-          <t>107.5</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="F2877" t="inlineStr"/>
       <c r="G2877" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2877" t="inlineStr">
@@ -92954,29 +92570,29 @@
     <row r="2878">
       <c r="A2878" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2878" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2878" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2878" t="inlineStr"/>
       <c r="E2878" t="inlineStr">
         <is>
-          <t>$65.46B</t>
+          <t>3.65%</t>
         </is>
       </c>
       <c r="F2878" t="inlineStr"/>
       <c r="G2878" t="inlineStr">
         <is>
-          <t>$65.0B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2878" t="inlineStr">
@@ -92988,163 +92604,167 @@
     <row r="2879">
       <c r="A2879" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2879" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2879" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2879" t="inlineStr"/>
       <c r="E2879" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2879" t="inlineStr"/>
       <c r="G2879" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2879" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2880">
       <c r="A2880" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2880" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2880" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2880" t="inlineStr"/>
       <c r="E2880" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2880" t="inlineStr"/>
       <c r="G2880" t="inlineStr">
         <is>
-          <t>130%</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2880" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2881">
       <c r="A2881" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2881" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2881" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2881" t="inlineStr"/>
       <c r="E2881" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F2881" t="inlineStr"/>
       <c r="G2881" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="H2881" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2882">
       <c r="A2882" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2882" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2882" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2882" t="inlineStr"/>
       <c r="E2882" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2882" t="inlineStr"/>
       <c r="G2882" t="inlineStr">
         <is>
-          <t>108%</t>
+          <t>5K</t>
         </is>
       </c>
       <c r="H2882" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2883">
       <c r="A2883" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2883" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2883" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2883" t="inlineStr"/>
       <c r="E2883" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2883" t="inlineStr"/>
-      <c r="G2883" t="inlineStr"/>
+      <c r="G2883" t="inlineStr">
+        <is>
+          <t>-3K</t>
+        </is>
+      </c>
       <c r="H2883" t="inlineStr">
         <is>
           <t>2</t>
@@ -93154,27 +92774,31 @@
     <row r="2884">
       <c r="A2884" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2884" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2884" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2884" t="inlineStr"/>
       <c r="E2884" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2884" t="inlineStr"/>
-      <c r="G2884" t="inlineStr"/>
+      <c r="G2884" t="inlineStr">
+        <is>
+          <t>8K</t>
+        </is>
+      </c>
       <c r="H2884" t="inlineStr">
         <is>
           <t>2</t>
@@ -93184,23 +92808,31 @@
     <row r="2885">
       <c r="A2885" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2885" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2885" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2885" t="inlineStr"/>
-      <c r="E2885" t="inlineStr"/>
+      <c r="E2885" t="inlineStr">
+        <is>
+          <t>65.1%</t>
+        </is>
+      </c>
       <c r="F2885" t="inlineStr"/>
-      <c r="G2885" t="inlineStr"/>
+      <c r="G2885" t="inlineStr">
+        <is>
+          <t>65.0%</t>
+        </is>
+      </c>
       <c r="H2885" t="inlineStr">
         <is>
           <t>2</t>
@@ -93210,229 +92842,233 @@
     <row r="2886">
       <c r="A2886" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2886" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2886" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2886" t="inlineStr"/>
       <c r="E2886" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F2886" t="inlineStr"/>
       <c r="G2886" t="inlineStr">
         <is>
-          <t>€ -7.2B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2886" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2887">
       <c r="A2887" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2887" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2887" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2887" t="inlineStr"/>
       <c r="E2887" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
+          <t>256K</t>
         </is>
       </c>
       <c r="F2887" t="inlineStr"/>
       <c r="G2887" t="inlineStr">
         <is>
-          <t>€ -2.5B</t>
+          <t>205K</t>
         </is>
       </c>
       <c r="H2887" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2888">
       <c r="A2888" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2888" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2888" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2888" t="inlineStr"/>
       <c r="E2888" t="inlineStr">
         <is>
-          <t>€50.101B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F2888" t="inlineStr"/>
       <c r="G2888" t="inlineStr">
         <is>
-          <t>€ 49.7B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="H2888" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2889">
       <c r="A2889" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2889" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2889" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2889" t="inlineStr"/>
       <c r="E2889" t="inlineStr">
         <is>
-          <t>€275.078B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2889" t="inlineStr"/>
-      <c r="G2889" t="inlineStr"/>
+      <c r="G2889" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2889" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2890">
       <c r="A2890" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2890" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2890" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="D2890" t="inlineStr"/>
       <c r="E2890" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2890" t="inlineStr"/>
       <c r="G2890" t="inlineStr">
         <is>
-          <t>€ 56.9B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H2890" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2891">
       <c r="A2891" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2891" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2891" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2891" t="inlineStr"/>
       <c r="E2891" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2891" t="inlineStr"/>
       <c r="G2891" t="inlineStr">
         <is>
-          <t>20200%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="H2891" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2892">
       <c r="A2892" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2892" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2892" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2892" t="inlineStr"/>
       <c r="E2892" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="F2892" t="inlineStr"/>
       <c r="G2892" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H2892" t="inlineStr">
@@ -93444,27 +93080,31 @@
     <row r="2893">
       <c r="A2893" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2893" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2893" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2893" t="inlineStr"/>
       <c r="E2893" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2893" t="inlineStr"/>
-      <c r="G2893" t="inlineStr"/>
+      <c r="G2893" t="inlineStr">
+        <is>
+          <t>25K</t>
+        </is>
+      </c>
       <c r="H2893" t="inlineStr">
         <is>
           <t>3</t>
@@ -93474,27 +93114,31 @@
     <row r="2894">
       <c r="A2894" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2894" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2894" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2894" t="inlineStr"/>
       <c r="E2894" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>-13K</t>
         </is>
       </c>
       <c r="F2894" t="inlineStr"/>
-      <c r="G2894" t="inlineStr"/>
+      <c r="G2894" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H2894" t="inlineStr">
         <is>
           <t>3</t>
@@ -93504,27 +93148,31 @@
     <row r="2895">
       <c r="A2895" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2895" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2895" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2895" t="inlineStr"/>
       <c r="E2895" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="F2895" t="inlineStr"/>
-      <c r="G2895" t="inlineStr"/>
+      <c r="G2895" t="inlineStr">
+        <is>
+          <t>180K</t>
+        </is>
+      </c>
       <c r="H2895" t="inlineStr">
         <is>
           <t>3</t>
@@ -93534,23 +93182,31 @@
     <row r="2896">
       <c r="A2896" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2896" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2896" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="D2896" t="inlineStr"/>
-      <c r="E2896" t="inlineStr"/>
+      <c r="E2896" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="F2896" t="inlineStr"/>
-      <c r="G2896" t="inlineStr"/>
+      <c r="G2896" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="H2896" t="inlineStr">
         <is>
           <t>3</t>
@@ -93560,165 +93216,157 @@
     <row r="2897">
       <c r="A2897" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B2897" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2897" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2897" t="inlineStr"/>
       <c r="E2897" t="inlineStr">
         <is>
-          <t>0.52%</t>
+          <t>$609.1B</t>
         </is>
       </c>
       <c r="F2897" t="inlineStr"/>
-      <c r="G2897" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2897" t="inlineStr"/>
       <c r="H2897" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2898">
       <c r="A2898" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2898" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2898" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2898" t="inlineStr"/>
       <c r="E2898" t="inlineStr">
         <is>
-          <t>4.83%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2898" t="inlineStr"/>
-      <c r="G2898" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="G2898" t="inlineStr"/>
       <c r="H2898" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2899">
       <c r="A2899" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2899" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2899" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Full Year GDP Growth2024</t>
         </is>
       </c>
       <c r="D2899" t="inlineStr"/>
       <c r="E2899" t="inlineStr">
         <is>
-          <t>0.38%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F2899" t="inlineStr"/>
       <c r="G2899" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2899" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2900">
       <c r="A2900" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2900" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2900" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2900" t="inlineStr"/>
       <c r="E2900" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F2900" t="inlineStr"/>
       <c r="G2900" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H2900" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2901">
       <c r="A2901" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2901" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2901" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2901" t="inlineStr"/>
       <c r="E2901" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2901" t="inlineStr"/>
       <c r="G2901" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2901" t="inlineStr">
@@ -93730,29 +93378,29 @@
     <row r="2902">
       <c r="A2902" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2902" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2902" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2902" t="inlineStr"/>
       <c r="E2902" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="F2902" t="inlineStr"/>
       <c r="G2902" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="H2902" t="inlineStr">
@@ -93764,29 +93412,29 @@
     <row r="2903">
       <c r="A2903" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2903" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2903" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2903" t="inlineStr"/>
       <c r="E2903" t="inlineStr">
         <is>
-          <t>-19.5%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F2903" t="inlineStr"/>
       <c r="G2903" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="H2903" t="inlineStr">
@@ -93798,29 +93446,29 @@
     <row r="2904">
       <c r="A2904" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2904" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2904" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2904" t="inlineStr"/>
       <c r="E2904" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2904" t="inlineStr"/>
       <c r="G2904" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2904" t="inlineStr">
@@ -93832,63 +93480,67 @@
     <row r="2905">
       <c r="A2905" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2905" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2905" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2905" t="inlineStr"/>
       <c r="E2905" t="inlineStr">
         <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="F2905" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2905" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="G2905" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H2905" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2906">
       <c r="A2906" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2906" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2906" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2906" t="inlineStr"/>
       <c r="E2906" t="inlineStr">
         <is>
-          <t>90.9K</t>
+          <t>$4.8B</t>
         </is>
       </c>
       <c r="F2906" t="inlineStr"/>
       <c r="G2906" t="inlineStr">
         <is>
-          <t>5K</t>
+          <t>$4.1B</t>
         </is>
       </c>
       <c r="H2906" t="inlineStr">
@@ -93900,131 +93552,103 @@
     <row r="2907">
       <c r="A2907" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2907" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2907" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2907" t="inlineStr"/>
-      <c r="E2907" t="inlineStr">
-        <is>
-          <t>57.5K</t>
-        </is>
-      </c>
+      <c r="E2907" t="inlineStr"/>
       <c r="F2907" t="inlineStr"/>
-      <c r="G2907" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="G2907" t="inlineStr"/>
       <c r="H2907" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2908">
       <c r="A2908" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2908" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2908" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2908" t="inlineStr"/>
-      <c r="E2908" t="inlineStr">
-        <is>
-          <t>33.5K</t>
-        </is>
-      </c>
+      <c r="E2908" t="inlineStr"/>
       <c r="F2908" t="inlineStr"/>
-      <c r="G2908" t="inlineStr">
-        <is>
-          <t>8K</t>
-        </is>
-      </c>
+      <c r="G2908" t="inlineStr"/>
       <c r="H2908" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2909">
-      <c r="A2909" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2909" t="inlineStr"/>
       <c r="B2909" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2909" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2909" t="inlineStr"/>
       <c r="E2909" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>$1230.7B</t>
         </is>
       </c>
       <c r="F2909" t="inlineStr"/>
-      <c r="G2909" t="inlineStr">
-        <is>
-          <t>65.0%</t>
-        </is>
-      </c>
+      <c r="G2909" t="inlineStr"/>
       <c r="H2909" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2910">
-      <c r="A2910" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2910" t="inlineStr"/>
       <c r="B2910" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2910" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2910" t="inlineStr"/>
       <c r="E2910" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2910" t="inlineStr"/>
       <c r="G2910" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.3T</t>
         </is>
       </c>
       <c r="H2910" t="inlineStr">
@@ -94034,79 +93658,59 @@
       </c>
     </row>
     <row r="2911">
-      <c r="A2911" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2911" t="inlineStr"/>
       <c r="B2911" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2911" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2911" t="inlineStr"/>
-      <c r="E2911" t="inlineStr">
-        <is>
-          <t>256K</t>
-        </is>
-      </c>
+      <c r="E2911" t="inlineStr"/>
       <c r="F2911" t="inlineStr"/>
-      <c r="G2911" t="inlineStr">
-        <is>
-          <t>205K</t>
-        </is>
-      </c>
+      <c r="G2911" t="inlineStr"/>
       <c r="H2911" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2912">
-      <c r="A2912" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2912" t="inlineStr"/>
       <c r="B2912" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2912" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2912" t="inlineStr"/>
       <c r="E2912" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>118.1</t>
         </is>
       </c>
       <c r="F2912" t="inlineStr"/>
       <c r="G2912" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H2912" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2913">
-      <c r="A2913" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2913" t="inlineStr"/>
       <c r="B2913" t="inlineStr">
         <is>
           <t>US</t>
@@ -94114,33 +93718,25 @@
       </c>
       <c r="C2913" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2913" t="inlineStr"/>
       <c r="E2913" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2913" t="inlineStr"/>
-      <c r="G2913" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2913" t="inlineStr"/>
       <c r="H2913" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2914">
-      <c r="A2914" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2914" t="inlineStr"/>
       <c r="B2914" t="inlineStr">
         <is>
           <t>US</t>
@@ -94148,87 +93744,63 @@
       </c>
       <c r="C2914" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2914" t="inlineStr"/>
       <c r="E2914" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2914" t="inlineStr"/>
-      <c r="G2914" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="G2914" t="inlineStr"/>
       <c r="H2914" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2915">
       <c r="A2915" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2915" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2915" t="inlineStr">
-        <is>
-          <t>Participation RateJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2915" t="inlineStr"/>
+      <c r="C2915" t="inlineStr"/>
       <c r="D2915" t="inlineStr"/>
-      <c r="E2915" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="E2915" t="inlineStr"/>
       <c r="F2915" t="inlineStr"/>
-      <c r="G2915" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="H2915" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2915" t="inlineStr"/>
+      <c r="H2915" t="inlineStr"/>
     </row>
     <row r="2916">
       <c r="A2916" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2916" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2916" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2916" t="inlineStr"/>
       <c r="E2916" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2916" t="inlineStr"/>
       <c r="G2916" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2916" t="inlineStr">
@@ -94240,7 +93812,7 @@
     <row r="2917">
       <c r="A2917" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2917" t="inlineStr">
@@ -94250,19 +93822,19 @@
       </c>
       <c r="C2917" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2917" t="inlineStr"/>
       <c r="E2917" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>$-7.49B</t>
         </is>
       </c>
       <c r="F2917" t="inlineStr"/>
       <c r="G2917" t="inlineStr">
         <is>
-          <t>25K</t>
+          <t>$ 18B</t>
         </is>
       </c>
       <c r="H2917" t="inlineStr">
@@ -94274,846 +93846,114 @@
     <row r="2918">
       <c r="A2918" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2918" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2918" t="inlineStr">
-        <is>
-          <t>Manufacturing PayrollsJAN</t>
-        </is>
-      </c>
+          <t>Sunday February 09 2025</t>
+        </is>
+      </c>
+      <c r="B2918" t="inlineStr"/>
+      <c r="C2918" t="inlineStr"/>
       <c r="D2918" t="inlineStr"/>
-      <c r="E2918" t="inlineStr">
-        <is>
-          <t>-13K</t>
-        </is>
-      </c>
+      <c r="E2918" t="inlineStr"/>
       <c r="F2918" t="inlineStr"/>
-      <c r="G2918" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H2918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2918" t="inlineStr"/>
+      <c r="H2918" t="inlineStr"/>
     </row>
     <row r="2919">
       <c r="A2919" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2919" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2919" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2919" t="inlineStr"/>
       <c r="E2919" t="inlineStr">
         <is>
-          <t>223K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2919" t="inlineStr"/>
       <c r="G2919" t="inlineStr">
         <is>
-          <t>180K</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2919" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2920">
       <c r="A2920" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2920" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2920" t="inlineStr">
         <is>
-          <t>U-6 Unemployment Rate</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2920" t="inlineStr"/>
       <c r="E2920" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F2920" t="inlineStr"/>
       <c r="G2920" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2920" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2921">
       <c r="A2921" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2921" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2921" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2921" t="inlineStr"/>
       <c r="E2921" t="inlineStr">
         <is>
-          <t>$609.1B</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="F2921" t="inlineStr"/>
-      <c r="G2921" t="inlineStr"/>
+      <c r="G2921" t="inlineStr">
+        <is>
+          <t>-2.4%</t>
+        </is>
+      </c>
       <c r="H2921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2922">
-      <c r="A2922" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2922" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2922" t="inlineStr">
-        <is>
-          <t>Treasury Cash BalanceJAN</t>
-        </is>
-      </c>
-      <c r="D2922" t="inlineStr"/>
-      <c r="E2922" t="inlineStr">
-        <is>
-          <t>TRY-323.9B</t>
-        </is>
-      </c>
-      <c r="F2922" t="inlineStr"/>
-      <c r="G2922" t="inlineStr"/>
-      <c r="H2922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2923">
-      <c r="A2923" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2923" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2923" t="inlineStr">
-        <is>
-          <t>Full Year GDP Growth2024</t>
-        </is>
-      </c>
-      <c r="D2923" t="inlineStr"/>
-      <c r="E2923" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F2923" t="inlineStr"/>
-      <c r="G2923" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="H2923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2924">
-      <c r="A2924" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2924" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2924" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2924" t="inlineStr"/>
-      <c r="E2924" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="F2924" t="inlineStr"/>
-      <c r="G2924" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="H2924" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2925">
-      <c r="A2925" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2925" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2925" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2925" t="inlineStr"/>
-      <c r="E2925" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2925" t="inlineStr"/>
-      <c r="G2925" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H2925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2926">
-      <c r="A2926" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2926" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2926" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2926" t="inlineStr"/>
-      <c r="E2926" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="F2926" t="inlineStr"/>
-      <c r="G2926" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
-      </c>
-      <c r="H2926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2927">
-      <c r="A2927" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2927" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2927" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2927" t="inlineStr"/>
-      <c r="E2927" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="F2927" t="inlineStr"/>
-      <c r="G2927" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
-      <c r="H2927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2928">
-      <c r="A2928" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2928" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2928" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2928" t="inlineStr"/>
-      <c r="E2928" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2928" t="inlineStr"/>
-      <c r="G2928" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H2928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2929">
-      <c r="A2929" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2929" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2929" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2929" t="inlineStr"/>
-      <c r="E2929" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2929" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="G2929" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H2929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2930">
-      <c r="A2930" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2930" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2930" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2930" t="inlineStr"/>
-      <c r="E2930" t="inlineStr">
-        <is>
-          <t>$4.8B</t>
-        </is>
-      </c>
-      <c r="F2930" t="inlineStr"/>
-      <c r="G2930" t="inlineStr">
-        <is>
-          <t>$4.1B</t>
-        </is>
-      </c>
-      <c r="H2930" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2931">
-      <c r="A2931" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2931" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2931" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2931" t="inlineStr"/>
-      <c r="E2931" t="inlineStr"/>
-      <c r="F2931" t="inlineStr"/>
-      <c r="G2931" t="inlineStr"/>
-      <c r="H2931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2932">
-      <c r="A2932" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2932" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2932" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2932" t="inlineStr"/>
-      <c r="E2932" t="inlineStr"/>
-      <c r="F2932" t="inlineStr"/>
-      <c r="G2932" t="inlineStr"/>
-      <c r="H2932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2933">
-      <c r="A2933" t="inlineStr"/>
-      <c r="B2933" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2933" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2933" t="inlineStr"/>
-      <c r="E2933" t="inlineStr">
-        <is>
-          <t>$1230.7B</t>
-        </is>
-      </c>
-      <c r="F2933" t="inlineStr"/>
-      <c r="G2933" t="inlineStr"/>
-      <c r="H2933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2934">
-      <c r="A2934" t="inlineStr"/>
-      <c r="B2934" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2934" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2934" t="inlineStr"/>
-      <c r="E2934" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2934" t="inlineStr"/>
-      <c r="G2934" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
-      <c r="H2934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2935">
-      <c r="A2935" t="inlineStr"/>
-      <c r="B2935" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2935" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2935" t="inlineStr"/>
-      <c r="E2935" t="inlineStr"/>
-      <c r="F2935" t="inlineStr"/>
-      <c r="G2935" t="inlineStr"/>
-      <c r="H2935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2936">
-      <c r="A2936" t="inlineStr"/>
-      <c r="B2936" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2936" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D2936" t="inlineStr"/>
-      <c r="E2936" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
-      <c r="F2936" t="inlineStr"/>
-      <c r="G2936" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="H2936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2937">
-      <c r="A2937" t="inlineStr"/>
-      <c r="B2937" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2937" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2937" t="inlineStr"/>
-      <c r="E2937" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F2937" t="inlineStr"/>
-      <c r="G2937" t="inlineStr"/>
-      <c r="H2937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2938">
-      <c r="A2938" t="inlineStr"/>
-      <c r="B2938" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2938" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2938" t="inlineStr"/>
-      <c r="E2938" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2938" t="inlineStr"/>
-      <c r="G2938" t="inlineStr"/>
-      <c r="H2938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2939">
-      <c r="A2939" t="inlineStr">
-        <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2939" t="inlineStr"/>
-      <c r="C2939" t="inlineStr"/>
-      <c r="D2939" t="inlineStr"/>
-      <c r="E2939" t="inlineStr"/>
-      <c r="F2939" t="inlineStr"/>
-      <c r="G2939" t="inlineStr"/>
-      <c r="H2939" t="inlineStr"/>
-    </row>
-    <row r="2940">
-      <c r="A2940" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B2940" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2940" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2940" t="inlineStr"/>
-      <c r="E2940" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2940" t="inlineStr"/>
-      <c r="G2940" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2941">
-      <c r="A2941" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2941" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2941" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D2941" t="inlineStr"/>
-      <c r="E2941" t="inlineStr">
-        <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="F2941" t="inlineStr"/>
-      <c r="G2941" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
-      <c r="H2941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2942">
-      <c r="A2942" t="inlineStr">
-        <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B2942" t="inlineStr"/>
-      <c r="C2942" t="inlineStr"/>
-      <c r="D2942" t="inlineStr"/>
-      <c r="E2942" t="inlineStr"/>
-      <c r="F2942" t="inlineStr"/>
-      <c r="G2942" t="inlineStr"/>
-      <c r="H2942" t="inlineStr"/>
-    </row>
-    <row r="2943">
-      <c r="A2943" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2943" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2943" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2943" t="inlineStr"/>
-      <c r="E2943" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2943" t="inlineStr"/>
-      <c r="G2943" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H2943" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2944">
-      <c r="A2944" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2944" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2944" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2944" t="inlineStr"/>
-      <c r="E2944" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F2944" t="inlineStr"/>
-      <c r="G2944" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2944" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2945">
-      <c r="A2945" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2945" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2945" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2945" t="inlineStr"/>
-      <c r="E2945" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="F2945" t="inlineStr"/>
-      <c r="G2945" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="H2945" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-09.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2922"/>
+  <dimension ref="A1:H2898"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90873,10 +90873,8 @@
           <t>46.5</t>
         </is>
       </c>
-      <c r="H2817" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2817" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2818">
@@ -90911,10 +90909,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2818" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2818" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2819">
@@ -90937,10 +90933,8 @@
       <c r="E2819" t="inlineStr"/>
       <c r="F2819" t="inlineStr"/>
       <c r="G2819" t="inlineStr"/>
-      <c r="H2819" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2819" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2820">
@@ -90967,10 +90961,8 @@
       </c>
       <c r="F2820" t="inlineStr"/>
       <c r="G2820" t="inlineStr"/>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2820" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2821">
@@ -90997,10 +90989,8 @@
       </c>
       <c r="F2821" t="inlineStr"/>
       <c r="G2821" t="inlineStr"/>
-      <c r="H2821" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2821" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2822">
@@ -91027,10 +91017,8 @@
       </c>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr"/>
-      <c r="H2822" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2822" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2823">
@@ -91053,10 +91041,8 @@
       <c r="E2823" t="inlineStr"/>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
-      <c r="H2823" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2823" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2824">
@@ -91087,10 +91073,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2825">
@@ -91121,10 +91105,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H2825" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2825" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2826">
@@ -91155,10 +91137,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2826" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2827">
@@ -91189,10 +91169,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2827" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2828">
@@ -91223,10 +91201,8 @@
           <t>1855.0K</t>
         </is>
       </c>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2829">
@@ -91257,10 +91233,8 @@
           <t>215.5K</t>
         </is>
       </c>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2830">
@@ -91291,10 +91265,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2830" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2831">
@@ -91317,10 +91289,8 @@
       <c r="E2831" t="inlineStr"/>
       <c r="F2831" t="inlineStr"/>
       <c r="G2831" t="inlineStr"/>
-      <c r="H2831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2832">
@@ -91343,10 +91313,8 @@
       <c r="E2832" t="inlineStr"/>
       <c r="F2832" t="inlineStr"/>
       <c r="G2832" t="inlineStr"/>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2833">
@@ -91369,10 +91337,8 @@
       <c r="E2833" t="inlineStr"/>
       <c r="F2833" t="inlineStr"/>
       <c r="G2833" t="inlineStr"/>
-      <c r="H2833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2834">
@@ -91399,10 +91365,8 @@
       </c>
       <c r="F2834" t="inlineStr"/>
       <c r="G2834" t="inlineStr"/>
-      <c r="H2834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2835">
@@ -91425,10 +91389,8 @@
       <c r="E2835" t="inlineStr"/>
       <c r="F2835" t="inlineStr"/>
       <c r="G2835" t="inlineStr"/>
-      <c r="H2835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2836">
@@ -91451,10 +91413,8 @@
       <c r="E2836" t="inlineStr"/>
       <c r="F2836" t="inlineStr"/>
       <c r="G2836" t="inlineStr"/>
-      <c r="H2836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2837">
@@ -91477,10 +91437,8 @@
       </c>
       <c r="F2837" t="inlineStr"/>
       <c r="G2837" t="inlineStr"/>
-      <c r="H2837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2838">
@@ -91503,10 +91461,8 @@
       </c>
       <c r="F2838" t="inlineStr"/>
       <c r="G2838" t="inlineStr"/>
-      <c r="H2838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2839">
@@ -91529,10 +91485,8 @@
       </c>
       <c r="F2839" t="inlineStr"/>
       <c r="G2839" t="inlineStr"/>
-      <c r="H2839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2840">
@@ -91551,10 +91505,8 @@
       <c r="E2840" t="inlineStr"/>
       <c r="F2840" t="inlineStr"/>
       <c r="G2840" t="inlineStr"/>
-      <c r="H2840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2841">
@@ -91573,10 +91525,8 @@
       <c r="E2841" t="inlineStr"/>
       <c r="F2841" t="inlineStr"/>
       <c r="G2841" t="inlineStr"/>
-      <c r="H2841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2842">
@@ -91599,104 +91549,134 @@
       </c>
       <c r="F2842" t="inlineStr"/>
       <c r="G2842" t="inlineStr"/>
-      <c r="H2842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2843">
       <c r="A2843" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2843" t="inlineStr"/>
-      <c r="C2843" t="inlineStr"/>
+          <t>01:15 PM</t>
+        </is>
+      </c>
+      <c r="B2843" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2843" t="inlineStr">
+        <is>
+          <t>ImportsDEC</t>
+        </is>
+      </c>
       <c r="D2843" t="inlineStr"/>
-      <c r="E2843" t="inlineStr"/>
+      <c r="E2843" t="inlineStr">
+        <is>
+          <t>€57.186B</t>
+        </is>
+      </c>
       <c r="F2843" t="inlineStr"/>
-      <c r="G2843" t="inlineStr"/>
-      <c r="H2843" t="inlineStr"/>
+      <c r="G2843" t="inlineStr">
+        <is>
+          <t>€ 56.9B</t>
+        </is>
+      </c>
+      <c r="H2843" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2844">
       <c r="A2844" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2844" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2844" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D2844" t="inlineStr"/>
       <c r="E2844" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2844" t="inlineStr"/>
       <c r="G2844" t="inlineStr">
         <is>
-          <t>9.75%</t>
+          <t>20200%</t>
         </is>
       </c>
       <c r="H2844" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2845">
       <c r="A2845" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2845" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2845" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2845" t="inlineStr"/>
-      <c r="E2845" t="inlineStr"/>
+      <c r="E2845" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2845" t="inlineStr"/>
-      <c r="G2845" t="inlineStr"/>
+      <c r="G2845" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
       <c r="H2845" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2846">
       <c r="A2846" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2846" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2846" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/05</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2846" t="inlineStr"/>
-      <c r="E2846" t="inlineStr"/>
+      <c r="E2846" t="inlineStr">
+        <is>
+          <t>S$506.7B</t>
+        </is>
+      </c>
       <c r="F2846" t="inlineStr"/>
       <c r="G2846" t="inlineStr"/>
       <c r="H2846" t="inlineStr">
@@ -91708,89 +91688,81 @@
     <row r="2847">
       <c r="A2847" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2847" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="C2847" t="inlineStr">
         <is>
-          <t>Household Spending MoMDEC</t>
+          <t>FAO Food Price IndexJAN</t>
         </is>
       </c>
       <c r="D2847" t="inlineStr"/>
       <c r="E2847" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="F2847" t="inlineStr"/>
       <c r="G2847" t="inlineStr"/>
       <c r="H2847" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2848">
       <c r="A2848" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2848" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2848" t="inlineStr">
         <is>
-          <t>Household Spending YoYDEC</t>
+          <t>BBA Mortgage RateJAN</t>
         </is>
       </c>
       <c r="D2848" t="inlineStr"/>
       <c r="E2848" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>7.50%</t>
         </is>
       </c>
       <c r="F2848" t="inlineStr"/>
-      <c r="G2848" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2848" t="inlineStr"/>
       <c r="H2848" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2849">
       <c r="A2849" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2849" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2849" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Foreign Exchange ReservesJAN/31</t>
         </is>
       </c>
       <c r="D2849" t="inlineStr"/>
-      <c r="E2849" t="inlineStr">
-        <is>
-          <t>$155.7B</t>
-        </is>
-      </c>
+      <c r="E2849" t="inlineStr"/>
       <c r="F2849" t="inlineStr"/>
       <c r="G2849" t="inlineStr"/>
       <c r="H2849" t="inlineStr">
@@ -91802,145 +91774,165 @@
     <row r="2850">
       <c r="A2850" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2850" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2850" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2850" t="inlineStr"/>
-      <c r="E2850" t="inlineStr"/>
+      <c r="E2850" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
+      </c>
       <c r="F2850" t="inlineStr"/>
-      <c r="G2850" t="inlineStr"/>
+      <c r="G2850" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2850" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2851">
       <c r="A2851" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2851" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2851" t="inlineStr">
         <is>
-          <t>RBI Interest Rate Decision</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2851" t="inlineStr"/>
       <c r="E2851" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>4.83%</t>
         </is>
       </c>
       <c r="F2851" t="inlineStr"/>
-      <c r="G2851" t="inlineStr"/>
+      <c r="G2851" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
       <c r="H2851" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2852">
       <c r="A2852" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2852" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2852" t="inlineStr">
         <is>
-          <t>Cash Reserve Ratio</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2852" t="inlineStr"/>
       <c r="E2852" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>0.38%</t>
         </is>
       </c>
       <c r="F2852" t="inlineStr"/>
-      <c r="G2852" t="inlineStr"/>
+      <c r="G2852" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2852" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2853">
       <c r="A2853" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2853" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2853" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2853" t="inlineStr"/>
       <c r="E2853" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>4.21%</t>
         </is>
       </c>
       <c r="F2853" t="inlineStr"/>
-      <c r="G2853" t="inlineStr"/>
+      <c r="G2853" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="H2853" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2854">
       <c r="A2854" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2854" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2854" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2854" t="inlineStr"/>
       <c r="E2854" t="inlineStr">
         <is>
-          <t>107.5</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="F2854" t="inlineStr"/>
       <c r="G2854" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2854" t="inlineStr">
@@ -91952,29 +91944,29 @@
     <row r="2855">
       <c r="A2855" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2855" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2855" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2855" t="inlineStr"/>
       <c r="E2855" t="inlineStr">
         <is>
-          <t>$65.46B</t>
+          <t>3.65%</t>
         </is>
       </c>
       <c r="F2855" t="inlineStr"/>
       <c r="G2855" t="inlineStr">
         <is>
-          <t>$65.0B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2855" t="inlineStr">
@@ -91986,163 +91978,167 @@
     <row r="2856">
       <c r="A2856" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2856" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2856" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2856" t="inlineStr"/>
       <c r="E2856" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2856" t="inlineStr"/>
       <c r="G2856" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2856" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2857">
       <c r="A2857" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2857" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2857" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2857" t="inlineStr"/>
       <c r="E2857" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2857" t="inlineStr"/>
       <c r="G2857" t="inlineStr">
         <is>
-          <t>130%</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2857" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2858">
       <c r="A2858" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2858" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2858" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2858" t="inlineStr"/>
       <c r="E2858" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F2858" t="inlineStr"/>
       <c r="G2858" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="H2858" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2859">
       <c r="A2859" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2859" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2859" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2859" t="inlineStr"/>
       <c r="E2859" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2859" t="inlineStr"/>
       <c r="G2859" t="inlineStr">
         <is>
-          <t>108%</t>
+          <t>5K</t>
         </is>
       </c>
       <c r="H2859" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2860">
       <c r="A2860" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2860" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2860" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2860" t="inlineStr"/>
       <c r="E2860" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2860" t="inlineStr"/>
-      <c r="G2860" t="inlineStr"/>
+      <c r="G2860" t="inlineStr">
+        <is>
+          <t>-3K</t>
+        </is>
+      </c>
       <c r="H2860" t="inlineStr">
         <is>
           <t>2</t>
@@ -92152,27 +92148,31 @@
     <row r="2861">
       <c r="A2861" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2861" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2861" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2861" t="inlineStr"/>
       <c r="E2861" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2861" t="inlineStr"/>
-      <c r="G2861" t="inlineStr"/>
+      <c r="G2861" t="inlineStr">
+        <is>
+          <t>8K</t>
+        </is>
+      </c>
       <c r="H2861" t="inlineStr">
         <is>
           <t>2</t>
@@ -92182,23 +92182,31 @@
     <row r="2862">
       <c r="A2862" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2862" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2862" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2862" t="inlineStr"/>
-      <c r="E2862" t="inlineStr"/>
+      <c r="E2862" t="inlineStr">
+        <is>
+          <t>65.1%</t>
+        </is>
+      </c>
       <c r="F2862" t="inlineStr"/>
-      <c r="G2862" t="inlineStr"/>
+      <c r="G2862" t="inlineStr">
+        <is>
+          <t>65.0%</t>
+        </is>
+      </c>
       <c r="H2862" t="inlineStr">
         <is>
           <t>2</t>
@@ -92208,229 +92216,233 @@
     <row r="2863">
       <c r="A2863" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2863" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2863" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2863" t="inlineStr"/>
       <c r="E2863" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F2863" t="inlineStr"/>
       <c r="G2863" t="inlineStr">
         <is>
-          <t>€ -7.2B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2863" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2864">
       <c r="A2864" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2864" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2864" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2864" t="inlineStr"/>
       <c r="E2864" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
+          <t>256K</t>
         </is>
       </c>
       <c r="F2864" t="inlineStr"/>
       <c r="G2864" t="inlineStr">
         <is>
-          <t>€ -2.5B</t>
+          <t>205K</t>
         </is>
       </c>
       <c r="H2864" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2865">
       <c r="A2865" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2865" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2865" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2865" t="inlineStr"/>
       <c r="E2865" t="inlineStr">
         <is>
-          <t>€50.101B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F2865" t="inlineStr"/>
       <c r="G2865" t="inlineStr">
         <is>
-          <t>€ 49.7B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="H2865" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2866">
       <c r="A2866" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2866" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2866" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2866" t="inlineStr"/>
       <c r="E2866" t="inlineStr">
         <is>
-          <t>€275.078B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2866" t="inlineStr"/>
-      <c r="G2866" t="inlineStr"/>
+      <c r="G2866" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2866" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2867">
       <c r="A2867" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2867" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2867" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="D2867" t="inlineStr"/>
       <c r="E2867" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2867" t="inlineStr"/>
       <c r="G2867" t="inlineStr">
         <is>
-          <t>€ 56.9B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H2867" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2868">
       <c r="A2868" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2868" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2868" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2868" t="inlineStr"/>
       <c r="E2868" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2868" t="inlineStr"/>
       <c r="G2868" t="inlineStr">
         <is>
-          <t>20200%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="H2868" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2869">
       <c r="A2869" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2869" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2869" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2869" t="inlineStr"/>
       <c r="E2869" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="F2869" t="inlineStr"/>
       <c r="G2869" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H2869" t="inlineStr">
@@ -92442,27 +92454,31 @@
     <row r="2870">
       <c r="A2870" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2870" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2870" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2870" t="inlineStr"/>
       <c r="E2870" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2870" t="inlineStr"/>
-      <c r="G2870" t="inlineStr"/>
+      <c r="G2870" t="inlineStr">
+        <is>
+          <t>25K</t>
+        </is>
+      </c>
       <c r="H2870" t="inlineStr">
         <is>
           <t>3</t>
@@ -92472,27 +92488,31 @@
     <row r="2871">
       <c r="A2871" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2871" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2871" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2871" t="inlineStr"/>
       <c r="E2871" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>-13K</t>
         </is>
       </c>
       <c r="F2871" t="inlineStr"/>
-      <c r="G2871" t="inlineStr"/>
+      <c r="G2871" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H2871" t="inlineStr">
         <is>
           <t>3</t>
@@ -92502,27 +92522,31 @@
     <row r="2872">
       <c r="A2872" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2872" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2872" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2872" t="inlineStr"/>
       <c r="E2872" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="F2872" t="inlineStr"/>
-      <c r="G2872" t="inlineStr"/>
+      <c r="G2872" t="inlineStr">
+        <is>
+          <t>180K</t>
+        </is>
+      </c>
       <c r="H2872" t="inlineStr">
         <is>
           <t>3</t>
@@ -92532,23 +92556,31 @@
     <row r="2873">
       <c r="A2873" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2873" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2873" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="D2873" t="inlineStr"/>
-      <c r="E2873" t="inlineStr"/>
+      <c r="E2873" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="F2873" t="inlineStr"/>
-      <c r="G2873" t="inlineStr"/>
+      <c r="G2873" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="H2873" t="inlineStr">
         <is>
           <t>3</t>
@@ -92558,165 +92590,161 @@
     <row r="2874">
       <c r="A2874" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B2874" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2874" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2874" t="inlineStr"/>
       <c r="E2874" t="inlineStr">
         <is>
-          <t>0.52%</t>
+          <t>$609.1B</t>
         </is>
       </c>
       <c r="F2874" t="inlineStr"/>
       <c r="G2874" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$607.0B</t>
         </is>
       </c>
       <c r="H2874" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2875">
       <c r="A2875" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2875" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2875" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2875" t="inlineStr"/>
       <c r="E2875" t="inlineStr">
         <is>
-          <t>4.83%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2875" t="inlineStr"/>
-      <c r="G2875" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="G2875" t="inlineStr"/>
       <c r="H2875" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2876">
       <c r="A2876" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2876" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2876" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Full Year GDP Growth2024</t>
         </is>
       </c>
       <c r="D2876" t="inlineStr"/>
       <c r="E2876" t="inlineStr">
         <is>
-          <t>0.38%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F2876" t="inlineStr"/>
       <c r="G2876" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H2876" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2877">
       <c r="A2877" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2877" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2877" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2877" t="inlineStr"/>
       <c r="E2877" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F2877" t="inlineStr"/>
       <c r="G2877" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H2877" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2878">
       <c r="A2878" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2878" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2878" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2878" t="inlineStr"/>
       <c r="E2878" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2878" t="inlineStr"/>
       <c r="G2878" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2878" t="inlineStr">
@@ -92728,29 +92756,29 @@
     <row r="2879">
       <c r="A2879" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2879" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2879" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2879" t="inlineStr"/>
       <c r="E2879" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="F2879" t="inlineStr"/>
       <c r="G2879" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="H2879" t="inlineStr">
@@ -92762,29 +92790,29 @@
     <row r="2880">
       <c r="A2880" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2880" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2880" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2880" t="inlineStr"/>
       <c r="E2880" t="inlineStr">
         <is>
-          <t>-19.5%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F2880" t="inlineStr"/>
       <c r="G2880" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="H2880" t="inlineStr">
@@ -92796,29 +92824,29 @@
     <row r="2881">
       <c r="A2881" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2881" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2881" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2881" t="inlineStr"/>
       <c r="E2881" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2881" t="inlineStr"/>
       <c r="G2881" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2881" t="inlineStr">
@@ -92830,63 +92858,67 @@
     <row r="2882">
       <c r="A2882" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2882" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2882" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2882" t="inlineStr"/>
       <c r="E2882" t="inlineStr">
         <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="F2882" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2882" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="G2882" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H2882" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2883">
       <c r="A2883" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2883" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2883" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2883" t="inlineStr"/>
       <c r="E2883" t="inlineStr">
         <is>
-          <t>90.9K</t>
+          <t>$4.8B</t>
         </is>
       </c>
       <c r="F2883" t="inlineStr"/>
       <c r="G2883" t="inlineStr">
         <is>
-          <t>5K</t>
+          <t>$4.1B</t>
         </is>
       </c>
       <c r="H2883" t="inlineStr">
@@ -92898,131 +92930,103 @@
     <row r="2884">
       <c r="A2884" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2884" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2884" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2884" t="inlineStr"/>
-      <c r="E2884" t="inlineStr">
-        <is>
-          <t>57.5K</t>
-        </is>
-      </c>
+      <c r="E2884" t="inlineStr"/>
       <c r="F2884" t="inlineStr"/>
-      <c r="G2884" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="G2884" t="inlineStr"/>
       <c r="H2884" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2885">
       <c r="A2885" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2885" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2885" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2885" t="inlineStr"/>
-      <c r="E2885" t="inlineStr">
-        <is>
-          <t>33.5K</t>
-        </is>
-      </c>
+      <c r="E2885" t="inlineStr"/>
       <c r="F2885" t="inlineStr"/>
-      <c r="G2885" t="inlineStr">
-        <is>
-          <t>8K</t>
-        </is>
-      </c>
+      <c r="G2885" t="inlineStr"/>
       <c r="H2885" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2886">
-      <c r="A2886" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2886" t="inlineStr"/>
       <c r="B2886" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2886" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2886" t="inlineStr"/>
       <c r="E2886" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>$1230.7B</t>
         </is>
       </c>
       <c r="F2886" t="inlineStr"/>
-      <c r="G2886" t="inlineStr">
-        <is>
-          <t>65.0%</t>
-        </is>
-      </c>
+      <c r="G2886" t="inlineStr"/>
       <c r="H2886" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2887">
-      <c r="A2887" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2887" t="inlineStr"/>
       <c r="B2887" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2887" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2887" t="inlineStr"/>
       <c r="E2887" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2887" t="inlineStr"/>
       <c r="G2887" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.3T</t>
         </is>
       </c>
       <c r="H2887" t="inlineStr">
@@ -93032,79 +93036,59 @@
       </c>
     </row>
     <row r="2888">
-      <c r="A2888" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2888" t="inlineStr"/>
       <c r="B2888" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2888" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2888" t="inlineStr"/>
-      <c r="E2888" t="inlineStr">
-        <is>
-          <t>256K</t>
-        </is>
-      </c>
+      <c r="E2888" t="inlineStr"/>
       <c r="F2888" t="inlineStr"/>
-      <c r="G2888" t="inlineStr">
-        <is>
-          <t>205K</t>
-        </is>
-      </c>
+      <c r="G2888" t="inlineStr"/>
       <c r="H2888" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2889">
-      <c r="A2889" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2889" t="inlineStr"/>
       <c r="B2889" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2889" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2889" t="inlineStr"/>
       <c r="E2889" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>118.1</t>
         </is>
       </c>
       <c r="F2889" t="inlineStr"/>
       <c r="G2889" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H2889" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2890">
-      <c r="A2890" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2890" t="inlineStr"/>
       <c r="B2890" t="inlineStr">
         <is>
           <t>US</t>
@@ -93112,33 +93096,25 @@
       </c>
       <c r="C2890" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2890" t="inlineStr"/>
       <c r="E2890" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2890" t="inlineStr"/>
-      <c r="G2890" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2890" t="inlineStr"/>
       <c r="H2890" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2891">
-      <c r="A2891" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2891" t="inlineStr"/>
       <c r="B2891" t="inlineStr">
         <is>
           <t>US</t>
@@ -93146,87 +93122,63 @@
       </c>
       <c r="C2891" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2891" t="inlineStr"/>
       <c r="E2891" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2891" t="inlineStr"/>
-      <c r="G2891" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="G2891" t="inlineStr"/>
       <c r="H2891" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2892">
       <c r="A2892" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2892" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2892" t="inlineStr">
-        <is>
-          <t>Participation RateJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2892" t="inlineStr"/>
+      <c r="C2892" t="inlineStr"/>
       <c r="D2892" t="inlineStr"/>
-      <c r="E2892" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="E2892" t="inlineStr"/>
       <c r="F2892" t="inlineStr"/>
-      <c r="G2892" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="H2892" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2892" t="inlineStr"/>
+      <c r="H2892" t="inlineStr"/>
     </row>
     <row r="2893">
       <c r="A2893" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2893" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2893" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2893" t="inlineStr"/>
       <c r="E2893" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2893" t="inlineStr"/>
       <c r="G2893" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2893" t="inlineStr">
@@ -93238,7 +93190,7 @@
     <row r="2894">
       <c r="A2894" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2894" t="inlineStr">
@@ -93248,19 +93200,19 @@
       </c>
       <c r="C2894" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2894" t="inlineStr"/>
       <c r="E2894" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>$-7.49B</t>
         </is>
       </c>
       <c r="F2894" t="inlineStr"/>
       <c r="G2894" t="inlineStr">
         <is>
-          <t>25K</t>
+          <t>$ 18B</t>
         </is>
       </c>
       <c r="H2894" t="inlineStr">
@@ -93272,850 +93224,114 @@
     <row r="2895">
       <c r="A2895" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2895" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2895" t="inlineStr">
-        <is>
-          <t>Manufacturing PayrollsJAN</t>
-        </is>
-      </c>
+          <t>Sunday February 09 2025</t>
+        </is>
+      </c>
+      <c r="B2895" t="inlineStr"/>
+      <c r="C2895" t="inlineStr"/>
       <c r="D2895" t="inlineStr"/>
-      <c r="E2895" t="inlineStr">
-        <is>
-          <t>-13K</t>
-        </is>
-      </c>
+      <c r="E2895" t="inlineStr"/>
       <c r="F2895" t="inlineStr"/>
-      <c r="G2895" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H2895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2895" t="inlineStr"/>
+      <c r="H2895" t="inlineStr"/>
     </row>
     <row r="2896">
       <c r="A2896" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2896" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2896" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2896" t="inlineStr"/>
       <c r="E2896" t="inlineStr">
         <is>
-          <t>223K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2896" t="inlineStr"/>
       <c r="G2896" t="inlineStr">
         <is>
-          <t>180K</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2896" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2897">
       <c r="A2897" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2897" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2897" t="inlineStr">
         <is>
-          <t>U-6 Unemployment Rate</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2897" t="inlineStr"/>
       <c r="E2897" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F2897" t="inlineStr"/>
       <c r="G2897" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2897" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2898">
       <c r="A2898" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2898" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2898" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2898" t="inlineStr"/>
       <c r="E2898" t="inlineStr">
         <is>
-          <t>$609.1B</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="F2898" t="inlineStr"/>
       <c r="G2898" t="inlineStr">
         <is>
-          <t>$607.0B</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="H2898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2899">
-      <c r="A2899" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2899" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2899" t="inlineStr">
-        <is>
-          <t>Treasury Cash BalanceJAN</t>
-        </is>
-      </c>
-      <c r="D2899" t="inlineStr"/>
-      <c r="E2899" t="inlineStr">
-        <is>
-          <t>TRY-323.9B</t>
-        </is>
-      </c>
-      <c r="F2899" t="inlineStr"/>
-      <c r="G2899" t="inlineStr"/>
-      <c r="H2899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2900">
-      <c r="A2900" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2900" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2900" t="inlineStr">
-        <is>
-          <t>Full Year GDP Growth2024</t>
-        </is>
-      </c>
-      <c r="D2900" t="inlineStr"/>
-      <c r="E2900" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F2900" t="inlineStr"/>
-      <c r="G2900" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="H2900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2901">
-      <c r="A2901" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2901" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2901" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2901" t="inlineStr"/>
-      <c r="E2901" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="F2901" t="inlineStr"/>
-      <c r="G2901" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="H2901" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2902">
-      <c r="A2902" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2902" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2902" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2902" t="inlineStr"/>
-      <c r="E2902" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2902" t="inlineStr"/>
-      <c r="G2902" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H2902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2903">
-      <c r="A2903" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2903" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2903" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2903" t="inlineStr"/>
-      <c r="E2903" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="F2903" t="inlineStr"/>
-      <c r="G2903" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
-      </c>
-      <c r="H2903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2904">
-      <c r="A2904" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2904" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2904" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2904" t="inlineStr"/>
-      <c r="E2904" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="F2904" t="inlineStr"/>
-      <c r="G2904" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
-      <c r="H2904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2905">
-      <c r="A2905" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2905" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2905" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2905" t="inlineStr"/>
-      <c r="E2905" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2905" t="inlineStr"/>
-      <c r="G2905" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H2905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2906">
-      <c r="A2906" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2906" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2906" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2906" t="inlineStr"/>
-      <c r="E2906" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2906" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="G2906" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H2906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2907">
-      <c r="A2907" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2907" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2907" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2907" t="inlineStr"/>
-      <c r="E2907" t="inlineStr">
-        <is>
-          <t>$4.8B</t>
-        </is>
-      </c>
-      <c r="F2907" t="inlineStr"/>
-      <c r="G2907" t="inlineStr">
-        <is>
-          <t>$4.1B</t>
-        </is>
-      </c>
-      <c r="H2907" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2908">
-      <c r="A2908" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2908" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2908" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2908" t="inlineStr"/>
-      <c r="E2908" t="inlineStr"/>
-      <c r="F2908" t="inlineStr"/>
-      <c r="G2908" t="inlineStr"/>
-      <c r="H2908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2909">
-      <c r="A2909" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2909" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2909" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2909" t="inlineStr"/>
-      <c r="E2909" t="inlineStr"/>
-      <c r="F2909" t="inlineStr"/>
-      <c r="G2909" t="inlineStr"/>
-      <c r="H2909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2910">
-      <c r="A2910" t="inlineStr"/>
-      <c r="B2910" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2910" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2910" t="inlineStr"/>
-      <c r="E2910" t="inlineStr">
-        <is>
-          <t>$1230.7B</t>
-        </is>
-      </c>
-      <c r="F2910" t="inlineStr"/>
-      <c r="G2910" t="inlineStr"/>
-      <c r="H2910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2911">
-      <c r="A2911" t="inlineStr"/>
-      <c r="B2911" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2911" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2911" t="inlineStr"/>
-      <c r="E2911" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2911" t="inlineStr"/>
-      <c r="G2911" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
-      <c r="H2911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2912">
-      <c r="A2912" t="inlineStr"/>
-      <c r="B2912" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2912" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2912" t="inlineStr"/>
-      <c r="E2912" t="inlineStr"/>
-      <c r="F2912" t="inlineStr"/>
-      <c r="G2912" t="inlineStr"/>
-      <c r="H2912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2913">
-      <c r="A2913" t="inlineStr"/>
-      <c r="B2913" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2913" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D2913" t="inlineStr"/>
-      <c r="E2913" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
-      <c r="F2913" t="inlineStr"/>
-      <c r="G2913" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="H2913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2914">
-      <c r="A2914" t="inlineStr"/>
-      <c r="B2914" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2914" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2914" t="inlineStr"/>
-      <c r="E2914" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F2914" t="inlineStr"/>
-      <c r="G2914" t="inlineStr"/>
-      <c r="H2914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2915">
-      <c r="A2915" t="inlineStr"/>
-      <c r="B2915" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2915" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2915" t="inlineStr"/>
-      <c r="E2915" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2915" t="inlineStr"/>
-      <c r="G2915" t="inlineStr"/>
-      <c r="H2915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2916">
-      <c r="A2916" t="inlineStr">
-        <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2916" t="inlineStr"/>
-      <c r="C2916" t="inlineStr"/>
-      <c r="D2916" t="inlineStr"/>
-      <c r="E2916" t="inlineStr"/>
-      <c r="F2916" t="inlineStr"/>
-      <c r="G2916" t="inlineStr"/>
-      <c r="H2916" t="inlineStr"/>
-    </row>
-    <row r="2917">
-      <c r="A2917" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B2917" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2917" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2917" t="inlineStr"/>
-      <c r="E2917" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2917" t="inlineStr"/>
-      <c r="G2917" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2918">
-      <c r="A2918" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2918" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2918" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D2918" t="inlineStr"/>
-      <c r="E2918" t="inlineStr">
-        <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="F2918" t="inlineStr"/>
-      <c r="G2918" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
-      <c r="H2918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2919">
-      <c r="A2919" t="inlineStr">
-        <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B2919" t="inlineStr"/>
-      <c r="C2919" t="inlineStr"/>
-      <c r="D2919" t="inlineStr"/>
-      <c r="E2919" t="inlineStr"/>
-      <c r="F2919" t="inlineStr"/>
-      <c r="G2919" t="inlineStr"/>
-      <c r="H2919" t="inlineStr"/>
-    </row>
-    <row r="2920">
-      <c r="A2920" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2920" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2920" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2920" t="inlineStr"/>
-      <c r="E2920" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2920" t="inlineStr"/>
-      <c r="G2920" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H2920" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2921">
-      <c r="A2921" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2921" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2921" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2921" t="inlineStr"/>
-      <c r="E2921" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F2921" t="inlineStr"/>
-      <c r="G2921" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2921" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2922">
-      <c r="A2922" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2922" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2922" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2922" t="inlineStr"/>
-      <c r="E2922" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="F2922" t="inlineStr"/>
-      <c r="G2922" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="H2922" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-09.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2924"/>
+  <dimension ref="A1:H2899"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87261,10 +87261,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2696" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2697">
@@ -87287,10 +87285,8 @@
       <c r="E2697" t="inlineStr"/>
       <c r="F2697" t="inlineStr"/>
       <c r="G2697" t="inlineStr"/>
-      <c r="H2697" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2697" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2698">
@@ -87313,10 +87309,8 @@
           <t>$-9.4B</t>
         </is>
       </c>
-      <c r="H2698" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2698" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2699">
@@ -87339,10 +87333,8 @@
           <t>$24.3B</t>
         </is>
       </c>
-      <c r="H2699" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2699" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2700">
@@ -87365,10 +87357,8 @@
           <t>$33.7B</t>
         </is>
       </c>
-      <c r="H2700" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2700" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2701">
@@ -87391,10 +87381,8 @@
       </c>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
-      <c r="H2701" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2701" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2702">
@@ -87431,10 +87419,8 @@
       <c r="E2703" t="inlineStr"/>
       <c r="F2703" t="inlineStr"/>
       <c r="G2703" t="inlineStr"/>
-      <c r="H2703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2703" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2704">
@@ -87461,10 +87447,8 @@
       </c>
       <c r="F2704" t="inlineStr"/>
       <c r="G2704" t="inlineStr"/>
-      <c r="H2704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2704" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2705">
@@ -87491,10 +87475,8 @@
       </c>
       <c r="F2705" t="inlineStr"/>
       <c r="G2705" t="inlineStr"/>
-      <c r="H2705" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2705" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2706">
@@ -87525,10 +87507,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H2706" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2706" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2707">
@@ -87559,10 +87539,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H2707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2708">
@@ -87589,10 +87567,8 @@
       </c>
       <c r="F2708" t="inlineStr"/>
       <c r="G2708" t="inlineStr"/>
-      <c r="H2708" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2708" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2709">
@@ -87619,10 +87595,8 @@
       </c>
       <c r="F2709" t="inlineStr"/>
       <c r="G2709" t="inlineStr"/>
-      <c r="H2709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2709" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2710">
@@ -87653,10 +87627,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H2710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2711">
@@ -87683,10 +87655,8 @@
       </c>
       <c r="F2711" t="inlineStr"/>
       <c r="G2711" t="inlineStr"/>
-      <c r="H2711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2711" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2712">
@@ -87721,10 +87691,8 @@
           <t>52.7</t>
         </is>
       </c>
-      <c r="H2712" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2712" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2713">
@@ -87755,10 +87723,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2714">
@@ -87785,10 +87751,8 @@
       </c>
       <c r="F2714" t="inlineStr"/>
       <c r="G2714" t="inlineStr"/>
-      <c r="H2714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2714" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2715">
@@ -87819,10 +87783,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H2715" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2715" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2716">
@@ -87853,10 +87815,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2717">
@@ -87887,10 +87847,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2717" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2717" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2718">
@@ -87921,10 +87879,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2719">
@@ -87955,10 +87911,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2719" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2720">
@@ -87993,10 +87947,8 @@
           <t>57.9</t>
         </is>
       </c>
-      <c r="H2720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2720" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2721">
@@ -88031,10 +87983,8 @@
           <t>56.8</t>
         </is>
       </c>
-      <c r="H2721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2721" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2722">
@@ -88065,10 +88015,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2722" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2723">
@@ -88099,10 +88047,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2723" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2724">
@@ -88133,10 +88079,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2724" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2725">
@@ -88167,10 +88111,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2726">
@@ -88197,10 +88139,8 @@
       </c>
       <c r="F2726" t="inlineStr"/>
       <c r="G2726" t="inlineStr"/>
-      <c r="H2726" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2726" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2727">
@@ -88231,10 +88171,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2727" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2727" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2728">
@@ -88261,10 +88199,8 @@
       </c>
       <c r="F2728" t="inlineStr"/>
       <c r="G2728" t="inlineStr"/>
-      <c r="H2728" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2728" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2729">
@@ -88291,10 +88227,8 @@
       </c>
       <c r="F2729" t="inlineStr"/>
       <c r="G2729" t="inlineStr"/>
-      <c r="H2729" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2729" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2730">
@@ -88321,10 +88255,8 @@
       </c>
       <c r="F2730" t="inlineStr"/>
       <c r="G2730" t="inlineStr"/>
-      <c r="H2730" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2730" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2731">
@@ -88351,10 +88283,8 @@
       </c>
       <c r="F2731" t="inlineStr"/>
       <c r="G2731" t="inlineStr"/>
-      <c r="H2731" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2731" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2732">
@@ -88389,10 +88319,8 @@
           <t>48.9</t>
         </is>
       </c>
-      <c r="H2732" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2732" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2733">
@@ -88427,10 +88355,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H2733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2733" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2734">
@@ -88465,10 +88391,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2734" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2734" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2735">
@@ -88503,10 +88427,8 @@
           <t>52.5</t>
         </is>
       </c>
-      <c r="H2735" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2735" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2736">
@@ -88541,10 +88463,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2736" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2736" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2737">
@@ -88579,10 +88499,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2737" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2737" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2738">
@@ -88613,10 +88531,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2738" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2738" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2739">
@@ -88647,10 +88563,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2739" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2740">
@@ -88681,10 +88595,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2740" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2741">
@@ -88719,10 +88631,8 @@
           <t>51.2</t>
         </is>
       </c>
-      <c r="H2741" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2741" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2742">
@@ -88757,10 +88667,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2742" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2743">
@@ -88791,10 +88699,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2743" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2744">
@@ -88825,10 +88731,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H2744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2745">
@@ -88855,10 +88759,8 @@
       </c>
       <c r="F2745" t="inlineStr"/>
       <c r="G2745" t="inlineStr"/>
-      <c r="H2745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2745" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2746">
@@ -88885,10 +88787,8 @@
       </c>
       <c r="F2746" t="inlineStr"/>
       <c r="G2746" t="inlineStr"/>
-      <c r="H2746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2746" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2747">
@@ -88915,10 +88815,8 @@
       </c>
       <c r="F2747" t="inlineStr"/>
       <c r="G2747" t="inlineStr"/>
-      <c r="H2747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2747" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2748">
@@ -88945,10 +88843,8 @@
       </c>
       <c r="F2748" t="inlineStr"/>
       <c r="G2748" t="inlineStr"/>
-      <c r="H2748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2748" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2749">
@@ -88979,10 +88875,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2749" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2749" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2750">
@@ -89013,10 +88907,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2751">
@@ -89047,10 +88939,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2751" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2752">
@@ -89081,10 +88971,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H2752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2752" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2753">
@@ -89111,10 +88999,8 @@
       </c>
       <c r="F2753" t="inlineStr"/>
       <c r="G2753" t="inlineStr"/>
-      <c r="H2753" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2753" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2754">
@@ -89141,10 +89027,8 @@
       </c>
       <c r="F2754" t="inlineStr"/>
       <c r="G2754" t="inlineStr"/>
-      <c r="H2754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2754" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2755">
@@ -89171,10 +89055,8 @@
       </c>
       <c r="F2755" t="inlineStr"/>
       <c r="G2755" t="inlineStr"/>
-      <c r="H2755" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2755" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2756">
@@ -89201,10 +89083,8 @@
       </c>
       <c r="F2756" t="inlineStr"/>
       <c r="G2756" t="inlineStr"/>
-      <c r="H2756" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2756" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2757">
@@ -89231,10 +89111,8 @@
       </c>
       <c r="F2757" t="inlineStr"/>
       <c r="G2757" t="inlineStr"/>
-      <c r="H2757" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2757" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2758">
@@ -89265,10 +89143,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2758" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2758" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2759">
@@ -89299,10 +89175,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2759" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2760">
@@ -89333,10 +89207,8 @@
           <t>115.0K</t>
         </is>
       </c>
-      <c r="H2760" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2760" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2761">
@@ -89367,10 +89239,8 @@
           <t>C$ -1.3B</t>
         </is>
       </c>
-      <c r="H2761" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2761" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2762">
@@ -89401,10 +89271,8 @@
           <t>C$ 65.8B</t>
         </is>
       </c>
-      <c r="H2762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2763">
@@ -89435,10 +89303,8 @@
           <t>C$ 64.5B</t>
         </is>
       </c>
-      <c r="H2763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2764">
@@ -89469,10 +89335,8 @@
           <t>$ -103.0B</t>
         </is>
       </c>
-      <c r="H2764" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2764" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2765">
@@ -89503,10 +89367,8 @@
           <t>$ 260B</t>
         </is>
       </c>
-      <c r="H2765" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2765" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2766">
@@ -89537,10 +89399,8 @@
           <t>$ 363.0B</t>
         </is>
       </c>
-      <c r="H2766" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2766" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2767">
@@ -89563,10 +89423,8 @@
       <c r="E2767" t="inlineStr"/>
       <c r="F2767" t="inlineStr"/>
       <c r="G2767" t="inlineStr"/>
-      <c r="H2767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2768">
@@ -89597,10 +89455,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2769">
@@ -89631,10 +89487,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H2769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2769" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2770">
@@ -89669,10 +89523,8 @@
           <t>52.4</t>
         </is>
       </c>
-      <c r="H2770" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2770" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2771">
@@ -89707,10 +89559,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2771" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2771" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2772">
@@ -89741,10 +89591,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H2772" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2772" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2773">
@@ -89775,10 +89623,8 @@
           <t>58.1</t>
         </is>
       </c>
-      <c r="H2773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2773" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2774">
@@ -89809,10 +89655,8 @@
           <t>51.3</t>
         </is>
       </c>
-      <c r="H2774" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2774" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2775">
@@ -89843,10 +89687,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H2775" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2775" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2776">
@@ -89877,10 +89719,8 @@
           <t>64.8</t>
         </is>
       </c>
-      <c r="H2776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2776" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2777">
@@ -89907,10 +89747,8 @@
       </c>
       <c r="F2777" t="inlineStr"/>
       <c r="G2777" t="inlineStr"/>
-      <c r="H2777" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2777" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2778">
@@ -89937,10 +89775,8 @@
       </c>
       <c r="F2778" t="inlineStr"/>
       <c r="G2778" t="inlineStr"/>
-      <c r="H2778" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2778" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2779">
@@ -89967,10 +89803,8 @@
       </c>
       <c r="F2779" t="inlineStr"/>
       <c r="G2779" t="inlineStr"/>
-      <c r="H2779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2780">
@@ -89997,10 +89831,8 @@
       </c>
       <c r="F2780" t="inlineStr"/>
       <c r="G2780" t="inlineStr"/>
-      <c r="H2780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2781">
@@ -90027,10 +89859,8 @@
       </c>
       <c r="F2781" t="inlineStr"/>
       <c r="G2781" t="inlineStr"/>
-      <c r="H2781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2781" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2782">
@@ -90057,10 +89887,8 @@
       </c>
       <c r="F2782" t="inlineStr"/>
       <c r="G2782" t="inlineStr"/>
-      <c r="H2782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2782" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2783">
@@ -90087,10 +89915,8 @@
       </c>
       <c r="F2783" t="inlineStr"/>
       <c r="G2783" t="inlineStr"/>
-      <c r="H2783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2783" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2784">
@@ -90117,10 +89943,8 @@
       </c>
       <c r="F2784" t="inlineStr"/>
       <c r="G2784" t="inlineStr"/>
-      <c r="H2784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2784" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2785">
@@ -90147,10 +89971,8 @@
       </c>
       <c r="F2785" t="inlineStr"/>
       <c r="G2785" t="inlineStr"/>
-      <c r="H2785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2785" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2786">
@@ -90181,10 +90003,8 @@
           <t>2.40%</t>
         </is>
       </c>
-      <c r="H2786" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2786" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2787">
@@ -90215,10 +90035,8 @@
           <t>6.8</t>
         </is>
       </c>
-      <c r="H2787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2787" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2788">
@@ -90249,10 +90067,8 @@
           <t>RUB 26.0T</t>
         </is>
       </c>
-      <c r="H2788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2789">
@@ -90283,10 +90099,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2790">
@@ -90317,10 +90131,8 @@
           <t>7.0%</t>
         </is>
       </c>
-      <c r="H2790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2790" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2791">
@@ -90351,10 +90163,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2791" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2792">
@@ -90381,10 +90191,8 @@
       </c>
       <c r="F2792" t="inlineStr"/>
       <c r="G2792" t="inlineStr"/>
-      <c r="H2792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2793">
@@ -90411,10 +90219,8 @@
       </c>
       <c r="F2793" t="inlineStr"/>
       <c r="G2793" t="inlineStr"/>
-      <c r="H2793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2794">
@@ -90437,10 +90243,8 @@
       <c r="E2794" t="inlineStr"/>
       <c r="F2794" t="inlineStr"/>
       <c r="G2794" t="inlineStr"/>
-      <c r="H2794" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2794" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2795">
@@ -90463,10 +90267,8 @@
       </c>
       <c r="F2795" t="inlineStr"/>
       <c r="G2795" t="inlineStr"/>
-      <c r="H2795" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2795" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2796">
@@ -90511,10 +90313,8 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="H2797" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2797" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2798">
@@ -90545,10 +90345,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H2798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2799">
@@ -90579,10 +90377,8 @@
           <t>-13</t>
         </is>
       </c>
-      <c r="H2799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2800">
@@ -90613,10 +90409,8 @@
           <t>$ 8.1B</t>
         </is>
       </c>
-      <c r="H2800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2800" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2801">
@@ -90643,10 +90437,8 @@
       </c>
       <c r="F2801" t="inlineStr"/>
       <c r="G2801" t="inlineStr"/>
-      <c r="H2801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2801" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2802">
@@ -90673,10 +90465,8 @@
       </c>
       <c r="F2802" t="inlineStr"/>
       <c r="G2802" t="inlineStr"/>
-      <c r="H2802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2802" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2803">
@@ -90703,10 +90493,8 @@
       </c>
       <c r="F2803" t="inlineStr"/>
       <c r="G2803" t="inlineStr"/>
-      <c r="H2803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2804">
@@ -90737,10 +90525,8 @@
           <t>A$ 3.2B</t>
         </is>
       </c>
-      <c r="H2804" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2804" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2805">
@@ -90767,10 +90553,8 @@
       </c>
       <c r="F2805" t="inlineStr"/>
       <c r="G2805" t="inlineStr"/>
-      <c r="H2805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2805" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2806">
@@ -90797,10 +90581,8 @@
       </c>
       <c r="F2806" t="inlineStr"/>
       <c r="G2806" t="inlineStr"/>
-      <c r="H2806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2806" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2807">
@@ -90827,10 +90609,8 @@
       </c>
       <c r="F2807" t="inlineStr"/>
       <c r="G2807" t="inlineStr"/>
-      <c r="H2807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2807" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2808">
@@ -90857,10 +90637,8 @@
       </c>
       <c r="F2808" t="inlineStr"/>
       <c r="G2808" t="inlineStr"/>
-      <c r="H2808" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2808" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2809">
@@ -90891,10 +90669,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2809" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2809" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2810">
@@ -90921,10 +90697,8 @@
       </c>
       <c r="F2810" t="inlineStr"/>
       <c r="G2810" t="inlineStr"/>
-      <c r="H2810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2811">
@@ -90951,10 +90725,8 @@
       </c>
       <c r="F2811" t="inlineStr"/>
       <c r="G2811" t="inlineStr"/>
-      <c r="H2811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2812">
@@ -90981,10 +90753,8 @@
       </c>
       <c r="F2812" t="inlineStr"/>
       <c r="G2812" t="inlineStr"/>
-      <c r="H2812" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2812" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2813">
@@ -91011,10 +90781,8 @@
       </c>
       <c r="F2813" t="inlineStr"/>
       <c r="G2813" t="inlineStr"/>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2814">
@@ -91045,10 +90813,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H2814" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2814" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2815">
@@ -91079,10 +90845,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2815" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2815" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2816">
@@ -91113,10 +90877,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2816" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2816" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2817">
@@ -91139,10 +90901,8 @@
       <c r="E2817" t="inlineStr"/>
       <c r="F2817" t="inlineStr"/>
       <c r="G2817" t="inlineStr"/>
-      <c r="H2817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2818">
@@ -91169,10 +90929,8 @@
       </c>
       <c r="F2818" t="inlineStr"/>
       <c r="G2818" t="inlineStr"/>
-      <c r="H2818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2819">
@@ -91203,10 +90961,8 @@
           <t>46.5</t>
         </is>
       </c>
-      <c r="H2819" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2819" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2820">
@@ -91241,10 +90997,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2820" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2821">
@@ -91267,10 +91021,8 @@
       <c r="E2821" t="inlineStr"/>
       <c r="F2821" t="inlineStr"/>
       <c r="G2821" t="inlineStr"/>
-      <c r="H2821" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2821" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2822">
@@ -91297,10 +91049,8 @@
       </c>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr"/>
-      <c r="H2822" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2822" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2823">
@@ -91327,10 +91077,8 @@
       </c>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
-      <c r="H2823" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2823" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2824">
@@ -91357,10 +91105,8 @@
       </c>
       <c r="F2824" t="inlineStr"/>
       <c r="G2824" t="inlineStr"/>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2824" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2825">
@@ -91383,10 +91129,8 @@
       <c r="E2825" t="inlineStr"/>
       <c r="F2825" t="inlineStr"/>
       <c r="G2825" t="inlineStr"/>
-      <c r="H2825" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2825" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2826">
@@ -91417,10 +91161,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2827">
@@ -91451,10 +91193,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2827" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2828">
@@ -91485,10 +91225,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2828" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2829">
@@ -91519,10 +91257,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2829" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2830">
@@ -91553,10 +91289,8 @@
           <t>1855.0K</t>
         </is>
       </c>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2831">
@@ -91587,10 +91321,8 @@
           <t>215.5K</t>
         </is>
       </c>
-      <c r="H2831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2832">
@@ -91621,10 +91353,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2832" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2833">
@@ -91651,10 +91381,8 @@
       </c>
       <c r="F2833" t="inlineStr"/>
       <c r="G2833" t="inlineStr"/>
-      <c r="H2833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2834">
@@ -91681,10 +91409,8 @@
       </c>
       <c r="F2834" t="inlineStr"/>
       <c r="G2834" t="inlineStr"/>
-      <c r="H2834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2835">
@@ -91711,10 +91437,8 @@
       </c>
       <c r="F2835" t="inlineStr"/>
       <c r="G2835" t="inlineStr"/>
-      <c r="H2835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2836">
@@ -91741,10 +91465,8 @@
       </c>
       <c r="F2836" t="inlineStr"/>
       <c r="G2836" t="inlineStr"/>
-      <c r="H2836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2837">
@@ -91767,10 +91489,8 @@
       <c r="E2837" t="inlineStr"/>
       <c r="F2837" t="inlineStr"/>
       <c r="G2837" t="inlineStr"/>
-      <c r="H2837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2838">
@@ -91793,10 +91513,8 @@
       <c r="E2838" t="inlineStr"/>
       <c r="F2838" t="inlineStr"/>
       <c r="G2838" t="inlineStr"/>
-      <c r="H2838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2839">
@@ -91819,10 +91537,8 @@
       </c>
       <c r="F2839" t="inlineStr"/>
       <c r="G2839" t="inlineStr"/>
-      <c r="H2839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2840">
@@ -91845,10 +91561,8 @@
       </c>
       <c r="F2840" t="inlineStr"/>
       <c r="G2840" t="inlineStr"/>
-      <c r="H2840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2841">
@@ -91871,10 +91585,8 @@
       </c>
       <c r="F2841" t="inlineStr"/>
       <c r="G2841" t="inlineStr"/>
-      <c r="H2841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2842">
@@ -91897,10 +91609,8 @@
       </c>
       <c r="F2842" t="inlineStr"/>
       <c r="G2842" t="inlineStr"/>
-      <c r="H2842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2843">
@@ -91923,10 +91633,8 @@
       </c>
       <c r="F2843" t="inlineStr"/>
       <c r="G2843" t="inlineStr"/>
-      <c r="H2843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2844">
@@ -91949,104 +91657,130 @@
       </c>
       <c r="F2844" t="inlineStr"/>
       <c r="G2844" t="inlineStr"/>
-      <c r="H2844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2845">
       <c r="A2845" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2845" t="inlineStr"/>
-      <c r="C2845" t="inlineStr"/>
+          <t>01:15 PM</t>
+        </is>
+      </c>
+      <c r="B2845" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2845" t="inlineStr">
+        <is>
+          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+        </is>
+      </c>
       <c r="D2845" t="inlineStr"/>
-      <c r="E2845" t="inlineStr"/>
+      <c r="E2845" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F2845" t="inlineStr"/>
-      <c r="G2845" t="inlineStr"/>
-      <c r="H2845" t="inlineStr"/>
+      <c r="G2845" t="inlineStr">
+        <is>
+          <t>20200%</t>
+        </is>
+      </c>
+      <c r="H2845" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2846">
       <c r="A2846" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2846" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2846" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2846" t="inlineStr"/>
       <c r="E2846" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F2846" t="inlineStr"/>
       <c r="G2846" t="inlineStr">
         <is>
-          <t>9.75%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="H2846" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2847">
       <c r="A2847" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2847" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2847" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2847" t="inlineStr"/>
-      <c r="E2847" t="inlineStr"/>
+      <c r="E2847" t="inlineStr">
+        <is>
+          <t>S$506.7B</t>
+        </is>
+      </c>
       <c r="F2847" t="inlineStr"/>
       <c r="G2847" t="inlineStr"/>
       <c r="H2847" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2848">
       <c r="A2848" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2848" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="C2848" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/05</t>
+          <t>FAO Food Price IndexJAN</t>
         </is>
       </c>
       <c r="D2848" t="inlineStr"/>
-      <c r="E2848" t="inlineStr"/>
+      <c r="E2848" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
       <c r="F2848" t="inlineStr"/>
       <c r="G2848" t="inlineStr"/>
       <c r="H2848" t="inlineStr">
@@ -92058,207 +91792,223 @@
     <row r="2849">
       <c r="A2849" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2849" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2849" t="inlineStr">
         <is>
-          <t>Household Spending MoMDEC</t>
+          <t>BBA Mortgage RateJAN</t>
         </is>
       </c>
       <c r="D2849" t="inlineStr"/>
       <c r="E2849" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>7.50%</t>
         </is>
       </c>
       <c r="F2849" t="inlineStr"/>
       <c r="G2849" t="inlineStr"/>
       <c r="H2849" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2850">
       <c r="A2850" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2850" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2850" t="inlineStr">
         <is>
-          <t>Household Spending YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/31</t>
         </is>
       </c>
       <c r="D2850" t="inlineStr"/>
-      <c r="E2850" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
+      <c r="E2850" t="inlineStr"/>
       <c r="F2850" t="inlineStr"/>
-      <c r="G2850" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2850" t="inlineStr"/>
       <c r="H2850" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2851">
       <c r="A2851" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2851" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2851" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2851" t="inlineStr"/>
       <c r="E2851" t="inlineStr">
         <is>
-          <t>$155.7B</t>
+          <t>0.52%</t>
         </is>
       </c>
       <c r="F2851" t="inlineStr"/>
-      <c r="G2851" t="inlineStr"/>
+      <c r="G2851" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2851" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2852">
       <c r="A2852" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2852" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2852" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2852" t="inlineStr"/>
-      <c r="E2852" t="inlineStr"/>
+      <c r="E2852" t="inlineStr">
+        <is>
+          <t>4.83%</t>
+        </is>
+      </c>
       <c r="F2852" t="inlineStr"/>
-      <c r="G2852" t="inlineStr"/>
+      <c r="G2852" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
       <c r="H2852" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2853">
       <c r="A2853" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2853" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2853" t="inlineStr">
         <is>
-          <t>RBI Interest Rate Decision</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2853" t="inlineStr"/>
       <c r="E2853" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>0.38%</t>
         </is>
       </c>
       <c r="F2853" t="inlineStr"/>
-      <c r="G2853" t="inlineStr"/>
+      <c r="G2853" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2853" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2854">
       <c r="A2854" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2854" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2854" t="inlineStr">
         <is>
-          <t>Cash Reserve Ratio</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2854" t="inlineStr"/>
       <c r="E2854" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>4.21%</t>
         </is>
       </c>
       <c r="F2854" t="inlineStr"/>
-      <c r="G2854" t="inlineStr"/>
+      <c r="G2854" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="H2854" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2855">
       <c r="A2855" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2855" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2855" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2855" t="inlineStr"/>
       <c r="E2855" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="F2855" t="inlineStr"/>
-      <c r="G2855" t="inlineStr"/>
+      <c r="G2855" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H2855" t="inlineStr">
         <is>
           <t>3</t>
@@ -92268,29 +92018,29 @@
     <row r="2856">
       <c r="A2856" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2856" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2856" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2856" t="inlineStr"/>
       <c r="E2856" t="inlineStr">
         <is>
-          <t>107.5</t>
+          <t>3.65%</t>
         </is>
       </c>
       <c r="F2856" t="inlineStr"/>
       <c r="G2856" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2856" t="inlineStr">
@@ -92302,29 +92052,29 @@
     <row r="2857">
       <c r="A2857" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2857" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2857" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2857" t="inlineStr"/>
       <c r="E2857" t="inlineStr">
         <is>
-          <t>$65.46B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2857" t="inlineStr"/>
       <c r="G2857" t="inlineStr">
         <is>
-          <t>$65.0B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2857" t="inlineStr">
@@ -92336,97 +92086,97 @@
     <row r="2858">
       <c r="A2858" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2858" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2858" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2858" t="inlineStr"/>
       <c r="E2858" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2858" t="inlineStr"/>
       <c r="G2858" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2858" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2859">
       <c r="A2859" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2859" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2859" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2859" t="inlineStr"/>
       <c r="E2859" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F2859" t="inlineStr"/>
       <c r="G2859" t="inlineStr">
         <is>
-          <t>130%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="H2859" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2860">
       <c r="A2860" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2860" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2860" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2860" t="inlineStr"/>
       <c r="E2860" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2860" t="inlineStr"/>
       <c r="G2860" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>5K</t>
         </is>
       </c>
       <c r="H2860" t="inlineStr">
@@ -92438,61 +92188,65 @@
     <row r="2861">
       <c r="A2861" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2861" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2861" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2861" t="inlineStr"/>
       <c r="E2861" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2861" t="inlineStr"/>
       <c r="G2861" t="inlineStr">
         <is>
-          <t>108%</t>
+          <t>-3K</t>
         </is>
       </c>
       <c r="H2861" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2862">
       <c r="A2862" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2862" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2862" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2862" t="inlineStr"/>
       <c r="E2862" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2862" t="inlineStr"/>
-      <c r="G2862" t="inlineStr"/>
+      <c r="G2862" t="inlineStr">
+        <is>
+          <t>8K</t>
+        </is>
+      </c>
       <c r="H2862" t="inlineStr">
         <is>
           <t>2</t>
@@ -92502,27 +92256,31 @@
     <row r="2863">
       <c r="A2863" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2863" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2863" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2863" t="inlineStr"/>
       <c r="E2863" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>65.1%</t>
         </is>
       </c>
       <c r="F2863" t="inlineStr"/>
-      <c r="G2863" t="inlineStr"/>
+      <c r="G2863" t="inlineStr">
+        <is>
+          <t>65.0%</t>
+        </is>
+      </c>
       <c r="H2863" t="inlineStr">
         <is>
           <t>2</t>
@@ -92532,221 +92290,233 @@
     <row r="2864">
       <c r="A2864" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2864" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2864" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2864" t="inlineStr"/>
-      <c r="E2864" t="inlineStr"/>
+      <c r="E2864" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2864" t="inlineStr"/>
-      <c r="G2864" t="inlineStr"/>
+      <c r="G2864" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2864" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2865">
       <c r="A2865" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2865" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2865" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2865" t="inlineStr"/>
       <c r="E2865" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
+          <t>256K</t>
         </is>
       </c>
       <c r="F2865" t="inlineStr"/>
       <c r="G2865" t="inlineStr">
         <is>
-          <t>€ -7.2B</t>
+          <t>205K</t>
         </is>
       </c>
       <c r="H2865" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2866">
       <c r="A2866" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2866" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2866" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2866" t="inlineStr"/>
       <c r="E2866" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F2866" t="inlineStr"/>
       <c r="G2866" t="inlineStr">
         <is>
-          <t>€ -2.5B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="H2866" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2867">
       <c r="A2867" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2867" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2867" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2867" t="inlineStr"/>
       <c r="E2867" t="inlineStr">
         <is>
-          <t>€50.101B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2867" t="inlineStr"/>
       <c r="G2867" t="inlineStr">
         <is>
-          <t>€ 49.7B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2867" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2868">
       <c r="A2868" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2868" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2868" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings YoYJAN</t>
         </is>
       </c>
       <c r="D2868" t="inlineStr"/>
       <c r="E2868" t="inlineStr">
         <is>
-          <t>€275.078B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2868" t="inlineStr"/>
-      <c r="G2868" t="inlineStr"/>
+      <c r="G2868" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="H2868" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2869">
       <c r="A2869" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2869" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2869" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2869" t="inlineStr"/>
       <c r="E2869" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2869" t="inlineStr"/>
       <c r="G2869" t="inlineStr">
         <is>
-          <t>€ 56.9B</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="H2869" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2870">
       <c r="A2870" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2870" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2870" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2870" t="inlineStr"/>
       <c r="E2870" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="F2870" t="inlineStr"/>
       <c r="G2870" t="inlineStr">
         <is>
-          <t>20200%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H2870" t="inlineStr">
@@ -92758,29 +92528,29 @@
     <row r="2871">
       <c r="A2871" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2871" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2871" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2871" t="inlineStr"/>
       <c r="E2871" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2871" t="inlineStr"/>
       <c r="G2871" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>25K</t>
         </is>
       </c>
       <c r="H2871" t="inlineStr">
@@ -92792,27 +92562,31 @@
     <row r="2872">
       <c r="A2872" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2872" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2872" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2872" t="inlineStr"/>
       <c r="E2872" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
+          <t>-13K</t>
         </is>
       </c>
       <c r="F2872" t="inlineStr"/>
-      <c r="G2872" t="inlineStr"/>
+      <c r="G2872" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H2872" t="inlineStr">
         <is>
           <t>3</t>
@@ -92822,27 +92596,31 @@
     <row r="2873">
       <c r="A2873" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2873" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2873" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2873" t="inlineStr"/>
       <c r="E2873" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="F2873" t="inlineStr"/>
-      <c r="G2873" t="inlineStr"/>
+      <c r="G2873" t="inlineStr">
+        <is>
+          <t>180K</t>
+        </is>
+      </c>
       <c r="H2873" t="inlineStr">
         <is>
           <t>3</t>
@@ -92852,27 +92630,31 @@
     <row r="2874">
       <c r="A2874" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2874" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2874" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>U-6 Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2874" t="inlineStr"/>
       <c r="E2874" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="F2874" t="inlineStr"/>
-      <c r="G2874" t="inlineStr"/>
+      <c r="G2874" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="H2874" t="inlineStr">
         <is>
           <t>3</t>
@@ -92882,23 +92664,31 @@
     <row r="2875">
       <c r="A2875" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B2875" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2875" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2875" t="inlineStr"/>
-      <c r="E2875" t="inlineStr"/>
+      <c r="E2875" t="inlineStr">
+        <is>
+          <t>$609.1B</t>
+        </is>
+      </c>
       <c r="F2875" t="inlineStr"/>
-      <c r="G2875" t="inlineStr"/>
+      <c r="G2875" t="inlineStr">
+        <is>
+          <t>$607.0B</t>
+        </is>
+      </c>
       <c r="H2875" t="inlineStr">
         <is>
           <t>3</t>
@@ -92908,165 +92698,161 @@
     <row r="2876">
       <c r="A2876" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2876" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2876" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2876" t="inlineStr"/>
       <c r="E2876" t="inlineStr">
         <is>
-          <t>0.52%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2876" t="inlineStr"/>
-      <c r="G2876" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2876" t="inlineStr"/>
       <c r="H2876" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2877">
       <c r="A2877" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2877" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2877" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Full Year GDP Growth2024</t>
         </is>
       </c>
       <c r="D2877" t="inlineStr"/>
       <c r="E2877" t="inlineStr">
         <is>
-          <t>4.83%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F2877" t="inlineStr"/>
       <c r="G2877" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H2877" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2878">
       <c r="A2878" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2878" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2878" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2878" t="inlineStr"/>
       <c r="E2878" t="inlineStr">
         <is>
-          <t>0.38%</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F2878" t="inlineStr"/>
       <c r="G2878" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H2878" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2879">
       <c r="A2879" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2879" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2879" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2879" t="inlineStr"/>
       <c r="E2879" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2879" t="inlineStr"/>
       <c r="G2879" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2879" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2880">
       <c r="A2880" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2880" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2880" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2880" t="inlineStr"/>
       <c r="E2880" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="F2880" t="inlineStr"/>
       <c r="G2880" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="H2880" t="inlineStr">
@@ -93078,29 +92864,29 @@
     <row r="2881">
       <c r="A2881" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2881" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2881" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2881" t="inlineStr"/>
       <c r="E2881" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F2881" t="inlineStr"/>
       <c r="G2881" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="H2881" t="inlineStr">
@@ -93112,29 +92898,29 @@
     <row r="2882">
       <c r="A2882" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2882" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2882" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2882" t="inlineStr"/>
       <c r="E2882" t="inlineStr">
         <is>
-          <t>-19.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2882" t="inlineStr"/>
       <c r="G2882" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2882" t="inlineStr">
@@ -93146,29 +92932,33 @@
     <row r="2883">
       <c r="A2883" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2883" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2883" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2883" t="inlineStr"/>
       <c r="E2883" t="inlineStr">
         <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F2883" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2883" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="G2883" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H2883" t="inlineStr">
@@ -93180,201 +92970,161 @@
     <row r="2884">
       <c r="A2884" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2884" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2884" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2884" t="inlineStr"/>
       <c r="E2884" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>$4.8B</t>
         </is>
       </c>
       <c r="F2884" t="inlineStr"/>
       <c r="G2884" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>$4.1B</t>
         </is>
       </c>
       <c r="H2884" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2885">
       <c r="A2885" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2885" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2885" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2885" t="inlineStr"/>
-      <c r="E2885" t="inlineStr">
-        <is>
-          <t>90.9K</t>
-        </is>
-      </c>
+      <c r="E2885" t="inlineStr"/>
       <c r="F2885" t="inlineStr"/>
-      <c r="G2885" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
+      <c r="G2885" t="inlineStr"/>
       <c r="H2885" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2886">
       <c r="A2886" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2886" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2886" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2886" t="inlineStr"/>
-      <c r="E2886" t="inlineStr">
-        <is>
-          <t>57.5K</t>
-        </is>
-      </c>
+      <c r="E2886" t="inlineStr"/>
       <c r="F2886" t="inlineStr"/>
-      <c r="G2886" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="G2886" t="inlineStr"/>
       <c r="H2886" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2887">
-      <c r="A2887" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2887" t="inlineStr"/>
       <c r="B2887" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2887" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2887" t="inlineStr"/>
       <c r="E2887" t="inlineStr">
         <is>
-          <t>33.5K</t>
+          <t>$1230.7B</t>
         </is>
       </c>
       <c r="F2887" t="inlineStr"/>
-      <c r="G2887" t="inlineStr">
-        <is>
-          <t>8K</t>
-        </is>
-      </c>
+      <c r="G2887" t="inlineStr"/>
       <c r="H2887" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2888">
-      <c r="A2888" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2888" t="inlineStr"/>
       <c r="B2888" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2888" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2888" t="inlineStr"/>
       <c r="E2888" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2888" t="inlineStr"/>
       <c r="G2888" t="inlineStr">
         <is>
-          <t>65.0%</t>
+          <t>$3.3T</t>
         </is>
       </c>
       <c r="H2888" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2889">
-      <c r="A2889" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2889" t="inlineStr"/>
       <c r="B2889" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2889" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2889" t="inlineStr"/>
-      <c r="E2889" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="E2889" t="inlineStr"/>
       <c r="F2889" t="inlineStr"/>
-      <c r="G2889" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="G2889" t="inlineStr"/>
       <c r="H2889" t="inlineStr">
         <is>
           <t>3</t>
@@ -93382,45 +93132,37 @@
       </c>
     </row>
     <row r="2890">
-      <c r="A2890" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2890" t="inlineStr"/>
       <c r="B2890" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2890" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2890" t="inlineStr"/>
       <c r="E2890" t="inlineStr">
         <is>
-          <t>256K</t>
+          <t>118.1</t>
         </is>
       </c>
       <c r="F2890" t="inlineStr"/>
       <c r="G2890" t="inlineStr">
         <is>
-          <t>205K</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H2890" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2891">
-      <c r="A2891" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2891" t="inlineStr"/>
       <c r="B2891" t="inlineStr">
         <is>
           <t>US</t>
@@ -93428,33 +93170,25 @@
       </c>
       <c r="C2891" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2891" t="inlineStr"/>
       <c r="E2891" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2891" t="inlineStr"/>
-      <c r="G2891" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+      <c r="G2891" t="inlineStr"/>
       <c r="H2891" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2892">
-      <c r="A2892" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2892" t="inlineStr"/>
       <c r="B2892" t="inlineStr">
         <is>
           <t>US</t>
@@ -93462,99 +93196,75 @@
       </c>
       <c r="C2892" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2892" t="inlineStr"/>
       <c r="E2892" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2892" t="inlineStr"/>
-      <c r="G2892" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2892" t="inlineStr"/>
       <c r="H2892" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2893">
       <c r="A2893" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2893" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2893" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings YoYJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2893" t="inlineStr"/>
+      <c r="C2893" t="inlineStr"/>
       <c r="D2893" t="inlineStr"/>
-      <c r="E2893" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="E2893" t="inlineStr"/>
       <c r="F2893" t="inlineStr"/>
-      <c r="G2893" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="H2893" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2893" t="inlineStr"/>
+      <c r="H2893" t="inlineStr"/>
     </row>
     <row r="2894">
       <c r="A2894" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2894" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2894" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2894" t="inlineStr"/>
       <c r="E2894" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2894" t="inlineStr"/>
       <c r="G2894" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2894" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2895">
       <c r="A2895" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2895" t="inlineStr">
@@ -93564,19 +93274,19 @@
       </c>
       <c r="C2895" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2895" t="inlineStr"/>
       <c r="E2895" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>$-7.49B</t>
         </is>
       </c>
       <c r="F2895" t="inlineStr"/>
       <c r="G2895" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>$ 18B</t>
         </is>
       </c>
       <c r="H2895" t="inlineStr">
@@ -93588,884 +93298,114 @@
     <row r="2896">
       <c r="A2896" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2896" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2896" t="inlineStr">
-        <is>
-          <t>Government PayrollsJAN</t>
-        </is>
-      </c>
+          <t>Sunday February 09 2025</t>
+        </is>
+      </c>
+      <c r="B2896" t="inlineStr"/>
+      <c r="C2896" t="inlineStr"/>
       <c r="D2896" t="inlineStr"/>
-      <c r="E2896" t="inlineStr">
-        <is>
-          <t>33K</t>
-        </is>
-      </c>
+      <c r="E2896" t="inlineStr"/>
       <c r="F2896" t="inlineStr"/>
-      <c r="G2896" t="inlineStr">
-        <is>
-          <t>25K</t>
-        </is>
-      </c>
-      <c r="H2896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2896" t="inlineStr"/>
+      <c r="H2896" t="inlineStr"/>
     </row>
     <row r="2897">
       <c r="A2897" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2897" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2897" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2897" t="inlineStr"/>
       <c r="E2897" t="inlineStr">
         <is>
-          <t>-13K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2897" t="inlineStr"/>
       <c r="G2897" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2897" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2898">
       <c r="A2898" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2898" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2898" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2898" t="inlineStr"/>
       <c r="E2898" t="inlineStr">
         <is>
-          <t>223K</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F2898" t="inlineStr"/>
       <c r="G2898" t="inlineStr">
         <is>
-          <t>180K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2898" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2899">
       <c r="A2899" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2899" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2899" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateJAN</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2899" t="inlineStr"/>
       <c r="E2899" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="F2899" t="inlineStr"/>
       <c r="G2899" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="H2899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2900">
-      <c r="A2900" t="inlineStr">
-        <is>
-          <t>07:15 PM</t>
-        </is>
-      </c>
-      <c r="B2900" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2900" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2900" t="inlineStr"/>
-      <c r="E2900" t="inlineStr">
-        <is>
-          <t>$609.1B</t>
-        </is>
-      </c>
-      <c r="F2900" t="inlineStr"/>
-      <c r="G2900" t="inlineStr">
-        <is>
-          <t>$607.0B</t>
-        </is>
-      </c>
-      <c r="H2900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2901">
-      <c r="A2901" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2901" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2901" t="inlineStr">
-        <is>
-          <t>Treasury Cash BalanceJAN</t>
-        </is>
-      </c>
-      <c r="D2901" t="inlineStr"/>
-      <c r="E2901" t="inlineStr">
-        <is>
-          <t>TRY-323.9B</t>
-        </is>
-      </c>
-      <c r="F2901" t="inlineStr"/>
-      <c r="G2901" t="inlineStr"/>
-      <c r="H2901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2902">
-      <c r="A2902" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2902" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2902" t="inlineStr">
-        <is>
-          <t>Full Year GDP Growth2024</t>
-        </is>
-      </c>
-      <c r="D2902" t="inlineStr"/>
-      <c r="E2902" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F2902" t="inlineStr"/>
-      <c r="G2902" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="H2902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2903">
-      <c r="A2903" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2903" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2903" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2903" t="inlineStr"/>
-      <c r="E2903" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="F2903" t="inlineStr"/>
-      <c r="G2903" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="H2903" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2904">
-      <c r="A2904" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2904" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2904" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2904" t="inlineStr"/>
-      <c r="E2904" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2904" t="inlineStr"/>
-      <c r="G2904" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H2904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2905">
-      <c r="A2905" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2905" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2905" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2905" t="inlineStr"/>
-      <c r="E2905" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="F2905" t="inlineStr"/>
-      <c r="G2905" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
-      </c>
-      <c r="H2905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2906">
-      <c r="A2906" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2906" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2906" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2906" t="inlineStr"/>
-      <c r="E2906" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="F2906" t="inlineStr"/>
-      <c r="G2906" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
-      <c r="H2906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2907">
-      <c r="A2907" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2907" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2907" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2907" t="inlineStr"/>
-      <c r="E2907" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2907" t="inlineStr"/>
-      <c r="G2907" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H2907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2908">
-      <c r="A2908" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2908" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2908" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2908" t="inlineStr"/>
-      <c r="E2908" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2908" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="G2908" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H2908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2909">
-      <c r="A2909" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2909" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2909" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2909" t="inlineStr"/>
-      <c r="E2909" t="inlineStr">
-        <is>
-          <t>$4.8B</t>
-        </is>
-      </c>
-      <c r="F2909" t="inlineStr"/>
-      <c r="G2909" t="inlineStr">
-        <is>
-          <t>$4.1B</t>
-        </is>
-      </c>
-      <c r="H2909" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2910">
-      <c r="A2910" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2910" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2910" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2910" t="inlineStr"/>
-      <c r="E2910" t="inlineStr"/>
-      <c r="F2910" t="inlineStr"/>
-      <c r="G2910" t="inlineStr"/>
-      <c r="H2910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2911">
-      <c r="A2911" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2911" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2911" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2911" t="inlineStr"/>
-      <c r="E2911" t="inlineStr"/>
-      <c r="F2911" t="inlineStr"/>
-      <c r="G2911" t="inlineStr"/>
-      <c r="H2911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2912">
-      <c r="A2912" t="inlineStr"/>
-      <c r="B2912" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2912" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2912" t="inlineStr"/>
-      <c r="E2912" t="inlineStr">
-        <is>
-          <t>$1230.7B</t>
-        </is>
-      </c>
-      <c r="F2912" t="inlineStr"/>
-      <c r="G2912" t="inlineStr"/>
-      <c r="H2912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2913">
-      <c r="A2913" t="inlineStr"/>
-      <c r="B2913" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2913" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2913" t="inlineStr"/>
-      <c r="E2913" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2913" t="inlineStr"/>
-      <c r="G2913" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
-      <c r="H2913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2914">
-      <c r="A2914" t="inlineStr"/>
-      <c r="B2914" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2914" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2914" t="inlineStr"/>
-      <c r="E2914" t="inlineStr"/>
-      <c r="F2914" t="inlineStr"/>
-      <c r="G2914" t="inlineStr"/>
-      <c r="H2914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2915">
-      <c r="A2915" t="inlineStr"/>
-      <c r="B2915" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2915" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D2915" t="inlineStr"/>
-      <c r="E2915" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
-      <c r="F2915" t="inlineStr"/>
-      <c r="G2915" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="H2915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2916">
-      <c r="A2916" t="inlineStr"/>
-      <c r="B2916" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2916" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2916" t="inlineStr"/>
-      <c r="E2916" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F2916" t="inlineStr"/>
-      <c r="G2916" t="inlineStr"/>
-      <c r="H2916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2917">
-      <c r="A2917" t="inlineStr"/>
-      <c r="B2917" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2917" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2917" t="inlineStr"/>
-      <c r="E2917" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2917" t="inlineStr"/>
-      <c r="G2917" t="inlineStr"/>
-      <c r="H2917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2918">
-      <c r="A2918" t="inlineStr">
-        <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2918" t="inlineStr"/>
-      <c r="C2918" t="inlineStr"/>
-      <c r="D2918" t="inlineStr"/>
-      <c r="E2918" t="inlineStr"/>
-      <c r="F2918" t="inlineStr"/>
-      <c r="G2918" t="inlineStr"/>
-      <c r="H2918" t="inlineStr"/>
-    </row>
-    <row r="2919">
-      <c r="A2919" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B2919" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2919" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2919" t="inlineStr"/>
-      <c r="E2919" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2919" t="inlineStr"/>
-      <c r="G2919" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2920">
-      <c r="A2920" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2920" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2920" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D2920" t="inlineStr"/>
-      <c r="E2920" t="inlineStr">
-        <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="F2920" t="inlineStr"/>
-      <c r="G2920" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
-      <c r="H2920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2921">
-      <c r="A2921" t="inlineStr">
-        <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B2921" t="inlineStr"/>
-      <c r="C2921" t="inlineStr"/>
-      <c r="D2921" t="inlineStr"/>
-      <c r="E2921" t="inlineStr"/>
-      <c r="F2921" t="inlineStr"/>
-      <c r="G2921" t="inlineStr"/>
-      <c r="H2921" t="inlineStr"/>
-    </row>
-    <row r="2922">
-      <c r="A2922" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2922" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2922" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2922" t="inlineStr"/>
-      <c r="E2922" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2922" t="inlineStr"/>
-      <c r="G2922" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H2922" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2923">
-      <c r="A2923" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2923" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2923" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2923" t="inlineStr"/>
-      <c r="E2923" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F2923" t="inlineStr"/>
-      <c r="G2923" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2923" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2924">
-      <c r="A2924" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2924" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2924" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2924" t="inlineStr"/>
-      <c r="E2924" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="F2924" t="inlineStr"/>
-      <c r="G2924" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="H2924" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-09.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2900"/>
+  <dimension ref="A1:H2875"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90303,10 +90303,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2796" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2796" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2797">
@@ -90329,10 +90327,8 @@
       <c r="E2797" t="inlineStr"/>
       <c r="F2797" t="inlineStr"/>
       <c r="G2797" t="inlineStr"/>
-      <c r="H2797" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2797" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2798">
@@ -90359,10 +90355,8 @@
       </c>
       <c r="F2798" t="inlineStr"/>
       <c r="G2798" t="inlineStr"/>
-      <c r="H2798" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2798" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2799">
@@ -90389,10 +90383,8 @@
       </c>
       <c r="F2799" t="inlineStr"/>
       <c r="G2799" t="inlineStr"/>
-      <c r="H2799" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2799" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2800">
@@ -90419,10 +90411,8 @@
       </c>
       <c r="F2800" t="inlineStr"/>
       <c r="G2800" t="inlineStr"/>
-      <c r="H2800" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2800" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2801">
@@ -90445,10 +90435,8 @@
       <c r="E2801" t="inlineStr"/>
       <c r="F2801" t="inlineStr"/>
       <c r="G2801" t="inlineStr"/>
-      <c r="H2801" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2801" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2802">
@@ -90479,10 +90467,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="H2802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2802" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2803">
@@ -90513,10 +90499,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H2803" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2803" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2804">
@@ -90547,10 +90531,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2804" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2804" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2805">
@@ -90581,10 +90563,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2805" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2805" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2806">
@@ -90615,10 +90595,8 @@
           <t>1855.0K</t>
         </is>
       </c>
-      <c r="H2806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2806" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2807">
@@ -90649,10 +90627,8 @@
           <t>215.5K</t>
         </is>
       </c>
-      <c r="H2807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2807" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2808">
@@ -90683,10 +90659,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H2808" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2808" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2809">
@@ -90713,10 +90687,8 @@
       </c>
       <c r="F2809" t="inlineStr"/>
       <c r="G2809" t="inlineStr"/>
-      <c r="H2809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2809" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2810">
@@ -90743,10 +90715,8 @@
       </c>
       <c r="F2810" t="inlineStr"/>
       <c r="G2810" t="inlineStr"/>
-      <c r="H2810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2811">
@@ -90773,10 +90743,8 @@
       </c>
       <c r="F2811" t="inlineStr"/>
       <c r="G2811" t="inlineStr"/>
-      <c r="H2811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2812">
@@ -90803,10 +90771,8 @@
       </c>
       <c r="F2812" t="inlineStr"/>
       <c r="G2812" t="inlineStr"/>
-      <c r="H2812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2813">
@@ -90833,10 +90799,8 @@
       </c>
       <c r="F2813" t="inlineStr"/>
       <c r="G2813" t="inlineStr"/>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2814">
@@ -90863,10 +90827,8 @@
       </c>
       <c r="F2814" t="inlineStr"/>
       <c r="G2814" t="inlineStr"/>
-      <c r="H2814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2815">
@@ -90889,10 +90851,8 @@
       </c>
       <c r="F2815" t="inlineStr"/>
       <c r="G2815" t="inlineStr"/>
-      <c r="H2815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2815" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2816">
@@ -90915,10 +90875,8 @@
       </c>
       <c r="F2816" t="inlineStr"/>
       <c r="G2816" t="inlineStr"/>
-      <c r="H2816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2817">
@@ -90941,10 +90899,8 @@
       </c>
       <c r="F2817" t="inlineStr"/>
       <c r="G2817" t="inlineStr"/>
-      <c r="H2817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2818">
@@ -90967,10 +90923,8 @@
       </c>
       <c r="F2818" t="inlineStr"/>
       <c r="G2818" t="inlineStr"/>
-      <c r="H2818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2819">
@@ -90993,10 +90947,8 @@
       </c>
       <c r="F2819" t="inlineStr"/>
       <c r="G2819" t="inlineStr"/>
-      <c r="H2819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2820">
@@ -91019,104 +90971,130 @@
       </c>
       <c r="F2820" t="inlineStr"/>
       <c r="G2820" t="inlineStr"/>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2821">
       <c r="A2821" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2821" t="inlineStr"/>
-      <c r="C2821" t="inlineStr"/>
+          <t>01:15 PM</t>
+        </is>
+      </c>
+      <c r="B2821" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2821" t="inlineStr">
+        <is>
+          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+        </is>
+      </c>
       <c r="D2821" t="inlineStr"/>
-      <c r="E2821" t="inlineStr"/>
+      <c r="E2821" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F2821" t="inlineStr"/>
-      <c r="G2821" t="inlineStr"/>
-      <c r="H2821" t="inlineStr"/>
+      <c r="G2821" t="inlineStr">
+        <is>
+          <t>20200%</t>
+        </is>
+      </c>
+      <c r="H2821" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2822">
       <c r="A2822" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2822" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2822" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2822" t="inlineStr"/>
       <c r="E2822" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr">
         <is>
-          <t>9.75%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="H2822" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2823">
       <c r="A2823" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2823" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2823" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2823" t="inlineStr"/>
-      <c r="E2823" t="inlineStr"/>
+      <c r="E2823" t="inlineStr">
+        <is>
+          <t>S$506.7B</t>
+        </is>
+      </c>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
       <c r="H2823" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2824">
       <c r="A2824" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2824" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="C2824" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/05</t>
+          <t>FAO Food Price IndexJAN</t>
         </is>
       </c>
       <c r="D2824" t="inlineStr"/>
-      <c r="E2824" t="inlineStr"/>
+      <c r="E2824" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
       <c r="F2824" t="inlineStr"/>
       <c r="G2824" t="inlineStr"/>
       <c r="H2824" t="inlineStr">
@@ -91128,213 +91106,221 @@
     <row r="2825">
       <c r="A2825" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2825" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2825" t="inlineStr">
         <is>
-          <t>Household Spending MoMDEC</t>
+          <t>BBA Mortgage RateJAN</t>
         </is>
       </c>
       <c r="D2825" t="inlineStr"/>
       <c r="E2825" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>7.50%</t>
         </is>
       </c>
       <c r="F2825" t="inlineStr"/>
-      <c r="G2825" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2825" t="inlineStr"/>
       <c r="H2825" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2826">
       <c r="A2826" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2826" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2826" t="inlineStr">
         <is>
-          <t>Household Spending YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/31</t>
         </is>
       </c>
       <c r="D2826" t="inlineStr"/>
-      <c r="E2826" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
+      <c r="E2826" t="inlineStr"/>
       <c r="F2826" t="inlineStr"/>
-      <c r="G2826" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2826" t="inlineStr"/>
       <c r="H2826" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2827">
       <c r="A2827" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2827" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2827" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2827" t="inlineStr"/>
       <c r="E2827" t="inlineStr">
         <is>
-          <t>$155.7B</t>
+          <t>0.52%</t>
         </is>
       </c>
       <c r="F2827" t="inlineStr"/>
-      <c r="G2827" t="inlineStr"/>
+      <c r="G2827" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2827" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2828">
       <c r="A2828" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2828" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2828" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2828" t="inlineStr"/>
-      <c r="E2828" t="inlineStr"/>
+      <c r="E2828" t="inlineStr">
+        <is>
+          <t>4.83%</t>
+        </is>
+      </c>
       <c r="F2828" t="inlineStr"/>
-      <c r="G2828" t="inlineStr"/>
+      <c r="G2828" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
       <c r="H2828" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2829">
       <c r="A2829" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2829" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2829" t="inlineStr">
         <is>
-          <t>RBI Interest Rate Decision</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2829" t="inlineStr"/>
       <c r="E2829" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>0.38%</t>
         </is>
       </c>
       <c r="F2829" t="inlineStr"/>
-      <c r="G2829" t="inlineStr"/>
+      <c r="G2829" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2829" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2830">
       <c r="A2830" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2830" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2830" t="inlineStr">
         <is>
-          <t>Cash Reserve Ratio</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2830" t="inlineStr"/>
       <c r="E2830" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>4.21%</t>
         </is>
       </c>
       <c r="F2830" t="inlineStr"/>
-      <c r="G2830" t="inlineStr"/>
+      <c r="G2830" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="H2830" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2831">
       <c r="A2831" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2831" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2831" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2831" t="inlineStr"/>
       <c r="E2831" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="F2831" t="inlineStr"/>
       <c r="G2831" t="inlineStr">
         <is>
-          <t>115.9</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2831" t="inlineStr">
@@ -91346,29 +91332,29 @@
     <row r="2832">
       <c r="A2832" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2832" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2832" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2832" t="inlineStr"/>
       <c r="E2832" t="inlineStr">
         <is>
-          <t>107.5</t>
+          <t>3.65%</t>
         </is>
       </c>
       <c r="F2832" t="inlineStr"/>
       <c r="G2832" t="inlineStr">
         <is>
-          <t>108.2</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2832" t="inlineStr">
@@ -91380,29 +91366,29 @@
     <row r="2833">
       <c r="A2833" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2833" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2833" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2833" t="inlineStr"/>
       <c r="E2833" t="inlineStr">
         <is>
-          <t>$65.46B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2833" t="inlineStr"/>
       <c r="G2833" t="inlineStr">
         <is>
-          <t>$65.0B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2833" t="inlineStr">
@@ -91414,97 +91400,97 @@
     <row r="2834">
       <c r="A2834" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2834" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2834" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2834" t="inlineStr"/>
       <c r="E2834" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2834" t="inlineStr"/>
       <c r="G2834" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2834" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2835">
       <c r="A2835" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2835" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2835" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2835" t="inlineStr"/>
       <c r="E2835" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F2835" t="inlineStr"/>
       <c r="G2835" t="inlineStr">
         <is>
-          <t>130%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="H2835" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2836">
       <c r="A2836" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2836" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2836" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2836" t="inlineStr"/>
       <c r="E2836" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2836" t="inlineStr"/>
       <c r="G2836" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>5K</t>
         </is>
       </c>
       <c r="H2836" t="inlineStr">
@@ -91516,61 +91502,65 @@
     <row r="2837">
       <c r="A2837" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2837" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2837" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2837" t="inlineStr"/>
       <c r="E2837" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2837" t="inlineStr"/>
       <c r="G2837" t="inlineStr">
         <is>
-          <t>108%</t>
+          <t>-3K</t>
         </is>
       </c>
       <c r="H2837" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2838">
       <c r="A2838" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2838" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2838" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2838" t="inlineStr"/>
       <c r="E2838" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2838" t="inlineStr"/>
-      <c r="G2838" t="inlineStr"/>
+      <c r="G2838" t="inlineStr">
+        <is>
+          <t>8K</t>
+        </is>
+      </c>
       <c r="H2838" t="inlineStr">
         <is>
           <t>2</t>
@@ -91580,27 +91570,31 @@
     <row r="2839">
       <c r="A2839" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2839" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2839" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2839" t="inlineStr"/>
       <c r="E2839" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>65.1%</t>
         </is>
       </c>
       <c r="F2839" t="inlineStr"/>
-      <c r="G2839" t="inlineStr"/>
+      <c r="G2839" t="inlineStr">
+        <is>
+          <t>65.0%</t>
+        </is>
+      </c>
       <c r="H2839" t="inlineStr">
         <is>
           <t>2</t>
@@ -91610,221 +91604,233 @@
     <row r="2840">
       <c r="A2840" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2840" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2840" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2840" t="inlineStr"/>
-      <c r="E2840" t="inlineStr"/>
+      <c r="E2840" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2840" t="inlineStr"/>
-      <c r="G2840" t="inlineStr"/>
+      <c r="G2840" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2840" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2841">
       <c r="A2841" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2841" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2841" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2841" t="inlineStr"/>
       <c r="E2841" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
+          <t>256K</t>
         </is>
       </c>
       <c r="F2841" t="inlineStr"/>
       <c r="G2841" t="inlineStr">
         <is>
-          <t>€ -7.2B</t>
+          <t>205K</t>
         </is>
       </c>
       <c r="H2841" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2842">
       <c r="A2842" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2842" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2842" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2842" t="inlineStr"/>
       <c r="E2842" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F2842" t="inlineStr"/>
       <c r="G2842" t="inlineStr">
         <is>
-          <t>€ -2.5B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="H2842" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2843">
       <c r="A2843" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2843" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2843" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2843" t="inlineStr"/>
       <c r="E2843" t="inlineStr">
         <is>
-          <t>€50.101B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2843" t="inlineStr"/>
       <c r="G2843" t="inlineStr">
         <is>
-          <t>€ 49.7B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2843" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2844">
       <c r="A2844" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2844" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2844" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings YoYJAN</t>
         </is>
       </c>
       <c r="D2844" t="inlineStr"/>
       <c r="E2844" t="inlineStr">
         <is>
-          <t>€275.078B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2844" t="inlineStr"/>
-      <c r="G2844" t="inlineStr"/>
+      <c r="G2844" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="H2844" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2845">
       <c r="A2845" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2845" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2845" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2845" t="inlineStr"/>
       <c r="E2845" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2845" t="inlineStr"/>
       <c r="G2845" t="inlineStr">
         <is>
-          <t>€ 56.9B</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="H2845" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2846">
       <c r="A2846" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2846" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2846" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2846" t="inlineStr"/>
       <c r="E2846" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="F2846" t="inlineStr"/>
       <c r="G2846" t="inlineStr">
         <is>
-          <t>20200%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H2846" t="inlineStr">
@@ -91836,29 +91842,29 @@
     <row r="2847">
       <c r="A2847" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2847" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2847" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2847" t="inlineStr"/>
       <c r="E2847" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2847" t="inlineStr"/>
       <c r="G2847" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>25K</t>
         </is>
       </c>
       <c r="H2847" t="inlineStr">
@@ -91870,27 +91876,31 @@
     <row r="2848">
       <c r="A2848" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2848" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2848" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2848" t="inlineStr"/>
       <c r="E2848" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
+          <t>-13K</t>
         </is>
       </c>
       <c r="F2848" t="inlineStr"/>
-      <c r="G2848" t="inlineStr"/>
+      <c r="G2848" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H2848" t="inlineStr">
         <is>
           <t>3</t>
@@ -91900,27 +91910,31 @@
     <row r="2849">
       <c r="A2849" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2849" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2849" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2849" t="inlineStr"/>
       <c r="E2849" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="F2849" t="inlineStr"/>
-      <c r="G2849" t="inlineStr"/>
+      <c r="G2849" t="inlineStr">
+        <is>
+          <t>180K</t>
+        </is>
+      </c>
       <c r="H2849" t="inlineStr">
         <is>
           <t>3</t>
@@ -91930,27 +91944,31 @@
     <row r="2850">
       <c r="A2850" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2850" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2850" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>U-6 Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2850" t="inlineStr"/>
       <c r="E2850" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="F2850" t="inlineStr"/>
-      <c r="G2850" t="inlineStr"/>
+      <c r="G2850" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="H2850" t="inlineStr">
         <is>
           <t>3</t>
@@ -91960,23 +91978,31 @@
     <row r="2851">
       <c r="A2851" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B2851" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2851" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2851" t="inlineStr"/>
-      <c r="E2851" t="inlineStr"/>
+      <c r="E2851" t="inlineStr">
+        <is>
+          <t>$609.1B</t>
+        </is>
+      </c>
       <c r="F2851" t="inlineStr"/>
-      <c r="G2851" t="inlineStr"/>
+      <c r="G2851" t="inlineStr">
+        <is>
+          <t>$607.0B</t>
+        </is>
+      </c>
       <c r="H2851" t="inlineStr">
         <is>
           <t>3</t>
@@ -91986,165 +92012,161 @@
     <row r="2852">
       <c r="A2852" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2852" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2852" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2852" t="inlineStr"/>
       <c r="E2852" t="inlineStr">
         <is>
-          <t>0.52%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2852" t="inlineStr"/>
-      <c r="G2852" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2852" t="inlineStr"/>
       <c r="H2852" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2853">
       <c r="A2853" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2853" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2853" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Full Year GDP Growth2024</t>
         </is>
       </c>
       <c r="D2853" t="inlineStr"/>
       <c r="E2853" t="inlineStr">
         <is>
-          <t>4.83%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F2853" t="inlineStr"/>
       <c r="G2853" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H2853" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2854">
       <c r="A2854" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2854" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2854" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2854" t="inlineStr"/>
       <c r="E2854" t="inlineStr">
         <is>
-          <t>0.38%</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F2854" t="inlineStr"/>
       <c r="G2854" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H2854" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2855">
       <c r="A2855" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2855" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2855" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2855" t="inlineStr"/>
       <c r="E2855" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2855" t="inlineStr"/>
       <c r="G2855" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2855" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2856">
       <c r="A2856" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2856" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2856" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2856" t="inlineStr"/>
       <c r="E2856" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="F2856" t="inlineStr"/>
       <c r="G2856" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="H2856" t="inlineStr">
@@ -92156,29 +92178,29 @@
     <row r="2857">
       <c r="A2857" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2857" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2857" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2857" t="inlineStr"/>
       <c r="E2857" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F2857" t="inlineStr"/>
       <c r="G2857" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="H2857" t="inlineStr">
@@ -92190,29 +92212,29 @@
     <row r="2858">
       <c r="A2858" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2858" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2858" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2858" t="inlineStr"/>
       <c r="E2858" t="inlineStr">
         <is>
-          <t>-19.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2858" t="inlineStr"/>
       <c r="G2858" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2858" t="inlineStr">
@@ -92224,29 +92246,33 @@
     <row r="2859">
       <c r="A2859" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2859" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2859" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2859" t="inlineStr"/>
       <c r="E2859" t="inlineStr">
         <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F2859" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2859" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="G2859" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H2859" t="inlineStr">
@@ -92258,201 +92284,161 @@
     <row r="2860">
       <c r="A2860" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2860" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2860" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2860" t="inlineStr"/>
       <c r="E2860" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>$4.8B</t>
         </is>
       </c>
       <c r="F2860" t="inlineStr"/>
       <c r="G2860" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>$4.1B</t>
         </is>
       </c>
       <c r="H2860" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2861">
       <c r="A2861" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2861" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2861" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2861" t="inlineStr"/>
-      <c r="E2861" t="inlineStr">
-        <is>
-          <t>90.9K</t>
-        </is>
-      </c>
+      <c r="E2861" t="inlineStr"/>
       <c r="F2861" t="inlineStr"/>
-      <c r="G2861" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
+      <c r="G2861" t="inlineStr"/>
       <c r="H2861" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2862">
       <c r="A2862" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2862" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2862" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2862" t="inlineStr"/>
-      <c r="E2862" t="inlineStr">
-        <is>
-          <t>57.5K</t>
-        </is>
-      </c>
+      <c r="E2862" t="inlineStr"/>
       <c r="F2862" t="inlineStr"/>
-      <c r="G2862" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="G2862" t="inlineStr"/>
       <c r="H2862" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2863">
-      <c r="A2863" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2863" t="inlineStr"/>
       <c r="B2863" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2863" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2863" t="inlineStr"/>
       <c r="E2863" t="inlineStr">
         <is>
-          <t>33.5K</t>
+          <t>$1230.7B</t>
         </is>
       </c>
       <c r="F2863" t="inlineStr"/>
-      <c r="G2863" t="inlineStr">
-        <is>
-          <t>8K</t>
-        </is>
-      </c>
+      <c r="G2863" t="inlineStr"/>
       <c r="H2863" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2864">
-      <c r="A2864" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2864" t="inlineStr"/>
       <c r="B2864" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2864" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2864" t="inlineStr"/>
       <c r="E2864" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2864" t="inlineStr"/>
       <c r="G2864" t="inlineStr">
         <is>
-          <t>65.0%</t>
+          <t>$3.3T</t>
         </is>
       </c>
       <c r="H2864" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2865">
-      <c r="A2865" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2865" t="inlineStr"/>
       <c r="B2865" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2865" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2865" t="inlineStr"/>
-      <c r="E2865" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="E2865" t="inlineStr"/>
       <c r="F2865" t="inlineStr"/>
-      <c r="G2865" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="G2865" t="inlineStr"/>
       <c r="H2865" t="inlineStr">
         <is>
           <t>3</t>
@@ -92460,45 +92446,37 @@
       </c>
     </row>
     <row r="2866">
-      <c r="A2866" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2866" t="inlineStr"/>
       <c r="B2866" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2866" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2866" t="inlineStr"/>
       <c r="E2866" t="inlineStr">
         <is>
-          <t>256K</t>
+          <t>118.1</t>
         </is>
       </c>
       <c r="F2866" t="inlineStr"/>
       <c r="G2866" t="inlineStr">
         <is>
-          <t>205K</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H2866" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2867">
-      <c r="A2867" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2867" t="inlineStr"/>
       <c r="B2867" t="inlineStr">
         <is>
           <t>US</t>
@@ -92506,33 +92484,25 @@
       </c>
       <c r="C2867" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2867" t="inlineStr"/>
       <c r="E2867" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2867" t="inlineStr"/>
-      <c r="G2867" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+      <c r="G2867" t="inlineStr"/>
       <c r="H2867" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2868">
-      <c r="A2868" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2868" t="inlineStr"/>
       <c r="B2868" t="inlineStr">
         <is>
           <t>US</t>
@@ -92540,99 +92510,75 @@
       </c>
       <c r="C2868" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2868" t="inlineStr"/>
       <c r="E2868" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2868" t="inlineStr"/>
-      <c r="G2868" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2868" t="inlineStr"/>
       <c r="H2868" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2869">
       <c r="A2869" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2869" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2869" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings YoYJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2869" t="inlineStr"/>
+      <c r="C2869" t="inlineStr"/>
       <c r="D2869" t="inlineStr"/>
-      <c r="E2869" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="E2869" t="inlineStr"/>
       <c r="F2869" t="inlineStr"/>
-      <c r="G2869" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="H2869" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2869" t="inlineStr"/>
+      <c r="H2869" t="inlineStr"/>
     </row>
     <row r="2870">
       <c r="A2870" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2870" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2870" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2870" t="inlineStr"/>
       <c r="E2870" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2870" t="inlineStr"/>
       <c r="G2870" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2870" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2871">
       <c r="A2871" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2871" t="inlineStr">
@@ -92642,19 +92588,19 @@
       </c>
       <c r="C2871" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2871" t="inlineStr"/>
       <c r="E2871" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>$-7.49B</t>
         </is>
       </c>
       <c r="F2871" t="inlineStr"/>
       <c r="G2871" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>$ 18B</t>
         </is>
       </c>
       <c r="H2871" t="inlineStr">
@@ -92666,884 +92612,114 @@
     <row r="2872">
       <c r="A2872" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2872" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2872" t="inlineStr">
-        <is>
-          <t>Government PayrollsJAN</t>
-        </is>
-      </c>
+          <t>Sunday February 09 2025</t>
+        </is>
+      </c>
+      <c r="B2872" t="inlineStr"/>
+      <c r="C2872" t="inlineStr"/>
       <c r="D2872" t="inlineStr"/>
-      <c r="E2872" t="inlineStr">
-        <is>
-          <t>33K</t>
-        </is>
-      </c>
+      <c r="E2872" t="inlineStr"/>
       <c r="F2872" t="inlineStr"/>
-      <c r="G2872" t="inlineStr">
-        <is>
-          <t>25K</t>
-        </is>
-      </c>
-      <c r="H2872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2872" t="inlineStr"/>
+      <c r="H2872" t="inlineStr"/>
     </row>
     <row r="2873">
       <c r="A2873" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2873" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2873" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2873" t="inlineStr"/>
       <c r="E2873" t="inlineStr">
         <is>
-          <t>-13K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2873" t="inlineStr"/>
       <c r="G2873" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2873" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2874">
       <c r="A2874" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2874" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2874" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2874" t="inlineStr"/>
       <c r="E2874" t="inlineStr">
         <is>
-          <t>223K</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F2874" t="inlineStr"/>
       <c r="G2874" t="inlineStr">
         <is>
-          <t>180K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2874" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2875">
       <c r="A2875" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2875" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2875" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateJAN</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2875" t="inlineStr"/>
       <c r="E2875" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="F2875" t="inlineStr"/>
       <c r="G2875" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="H2875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2876">
-      <c r="A2876" t="inlineStr">
-        <is>
-          <t>07:15 PM</t>
-        </is>
-      </c>
-      <c r="B2876" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2876" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2876" t="inlineStr"/>
-      <c r="E2876" t="inlineStr">
-        <is>
-          <t>$609.1B</t>
-        </is>
-      </c>
-      <c r="F2876" t="inlineStr"/>
-      <c r="G2876" t="inlineStr">
-        <is>
-          <t>$607.0B</t>
-        </is>
-      </c>
-      <c r="H2876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2877">
-      <c r="A2877" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2877" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2877" t="inlineStr">
-        <is>
-          <t>Treasury Cash BalanceJAN</t>
-        </is>
-      </c>
-      <c r="D2877" t="inlineStr"/>
-      <c r="E2877" t="inlineStr">
-        <is>
-          <t>TRY-323.9B</t>
-        </is>
-      </c>
-      <c r="F2877" t="inlineStr"/>
-      <c r="G2877" t="inlineStr"/>
-      <c r="H2877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2878">
-      <c r="A2878" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2878" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2878" t="inlineStr">
-        <is>
-          <t>Full Year GDP Growth2024</t>
-        </is>
-      </c>
-      <c r="D2878" t="inlineStr"/>
-      <c r="E2878" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F2878" t="inlineStr"/>
-      <c r="G2878" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="H2878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2879">
-      <c r="A2879" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2879" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2879" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2879" t="inlineStr"/>
-      <c r="E2879" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="F2879" t="inlineStr"/>
-      <c r="G2879" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="H2879" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2880">
-      <c r="A2880" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2880" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2880" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2880" t="inlineStr"/>
-      <c r="E2880" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2880" t="inlineStr"/>
-      <c r="G2880" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H2880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2881">
-      <c r="A2881" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2881" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2881" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2881" t="inlineStr"/>
-      <c r="E2881" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="F2881" t="inlineStr"/>
-      <c r="G2881" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
-      </c>
-      <c r="H2881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2882">
-      <c r="A2882" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2882" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2882" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2882" t="inlineStr"/>
-      <c r="E2882" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="F2882" t="inlineStr"/>
-      <c r="G2882" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
-      <c r="H2882" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2883">
-      <c r="A2883" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2883" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2883" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2883" t="inlineStr"/>
-      <c r="E2883" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2883" t="inlineStr"/>
-      <c r="G2883" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H2883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2884">
-      <c r="A2884" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2884" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2884" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2884" t="inlineStr"/>
-      <c r="E2884" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2884" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="G2884" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H2884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2885">
-      <c r="A2885" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2885" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2885" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2885" t="inlineStr"/>
-      <c r="E2885" t="inlineStr">
-        <is>
-          <t>$4.8B</t>
-        </is>
-      </c>
-      <c r="F2885" t="inlineStr"/>
-      <c r="G2885" t="inlineStr">
-        <is>
-          <t>$4.1B</t>
-        </is>
-      </c>
-      <c r="H2885" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2886">
-      <c r="A2886" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2886" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2886" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2886" t="inlineStr"/>
-      <c r="E2886" t="inlineStr"/>
-      <c r="F2886" t="inlineStr"/>
-      <c r="G2886" t="inlineStr"/>
-      <c r="H2886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2887">
-      <c r="A2887" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2887" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2887" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2887" t="inlineStr"/>
-      <c r="E2887" t="inlineStr"/>
-      <c r="F2887" t="inlineStr"/>
-      <c r="G2887" t="inlineStr"/>
-      <c r="H2887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2888">
-      <c r="A2888" t="inlineStr"/>
-      <c r="B2888" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2888" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2888" t="inlineStr"/>
-      <c r="E2888" t="inlineStr">
-        <is>
-          <t>$1230.7B</t>
-        </is>
-      </c>
-      <c r="F2888" t="inlineStr"/>
-      <c r="G2888" t="inlineStr"/>
-      <c r="H2888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2889">
-      <c r="A2889" t="inlineStr"/>
-      <c r="B2889" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2889" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2889" t="inlineStr"/>
-      <c r="E2889" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2889" t="inlineStr"/>
-      <c r="G2889" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
-      <c r="H2889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2890">
-      <c r="A2890" t="inlineStr"/>
-      <c r="B2890" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2890" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2890" t="inlineStr"/>
-      <c r="E2890" t="inlineStr"/>
-      <c r="F2890" t="inlineStr"/>
-      <c r="G2890" t="inlineStr"/>
-      <c r="H2890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2891">
-      <c r="A2891" t="inlineStr"/>
-      <c r="B2891" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2891" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D2891" t="inlineStr"/>
-      <c r="E2891" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
-      <c r="F2891" t="inlineStr"/>
-      <c r="G2891" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="H2891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2892">
-      <c r="A2892" t="inlineStr"/>
-      <c r="B2892" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2892" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2892" t="inlineStr"/>
-      <c r="E2892" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F2892" t="inlineStr"/>
-      <c r="G2892" t="inlineStr"/>
-      <c r="H2892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2893">
-      <c r="A2893" t="inlineStr"/>
-      <c r="B2893" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2893" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2893" t="inlineStr"/>
-      <c r="E2893" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2893" t="inlineStr"/>
-      <c r="G2893" t="inlineStr"/>
-      <c r="H2893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2894">
-      <c r="A2894" t="inlineStr">
-        <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2894" t="inlineStr"/>
-      <c r="C2894" t="inlineStr"/>
-      <c r="D2894" t="inlineStr"/>
-      <c r="E2894" t="inlineStr"/>
-      <c r="F2894" t="inlineStr"/>
-      <c r="G2894" t="inlineStr"/>
-      <c r="H2894" t="inlineStr"/>
-    </row>
-    <row r="2895">
-      <c r="A2895" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B2895" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2895" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2895" t="inlineStr"/>
-      <c r="E2895" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2895" t="inlineStr"/>
-      <c r="G2895" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2896">
-      <c r="A2896" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2896" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2896" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D2896" t="inlineStr"/>
-      <c r="E2896" t="inlineStr">
-        <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="F2896" t="inlineStr"/>
-      <c r="G2896" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
-      <c r="H2896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2897">
-      <c r="A2897" t="inlineStr">
-        <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B2897" t="inlineStr"/>
-      <c r="C2897" t="inlineStr"/>
-      <c r="D2897" t="inlineStr"/>
-      <c r="E2897" t="inlineStr"/>
-      <c r="F2897" t="inlineStr"/>
-      <c r="G2897" t="inlineStr"/>
-      <c r="H2897" t="inlineStr"/>
-    </row>
-    <row r="2898">
-      <c r="A2898" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2898" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2898" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2898" t="inlineStr"/>
-      <c r="E2898" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2898" t="inlineStr"/>
-      <c r="G2898" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H2898" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2899">
-      <c r="A2899" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2899" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2899" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2899" t="inlineStr"/>
-      <c r="E2899" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F2899" t="inlineStr"/>
-      <c r="G2899" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2899" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2900">
-      <c r="A2900" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2900" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2900" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2900" t="inlineStr"/>
-      <c r="E2900" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="F2900" t="inlineStr"/>
-      <c r="G2900" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="H2900" t="inlineStr">
         <is>
           <t>2</t>
         </is>
